--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2742"/>
+  <dimension ref="A1:H2720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83127,10 +83127,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83161,10 +83159,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2578">
@@ -83199,10 +83195,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83233,10 +83227,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2580">
@@ -83267,10 +83259,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2581">
@@ -83305,10 +83295,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83339,10 +83327,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83373,10 +83359,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83407,10 +83391,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2585">
@@ -83441,10 +83423,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83475,10 +83455,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2587">
@@ -83513,10 +83491,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2588">
@@ -83547,10 +83523,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83581,10 +83555,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83615,10 +83587,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83649,10 +83619,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83683,10 +83651,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83717,10 +83683,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83747,10 +83711,8 @@
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83785,10 +83747,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2596">
@@ -83819,10 +83779,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -83857,10 +83815,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2598">
@@ -83883,10 +83839,8 @@
       <c r="E2598" t="inlineStr"/>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2599">
@@ -83913,10 +83867,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83943,10 +83895,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -83973,10 +83923,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84003,10 +83951,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84033,10 +83979,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84063,10 +84007,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84093,10 +84035,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84123,10 +84063,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84153,10 +84091,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84183,10 +84119,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84213,10 +84147,8 @@
       </c>
       <c r="F2609" t="inlineStr"/>
       <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84243,10 +84175,8 @@
       </c>
       <c r="F2610" t="inlineStr"/>
       <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84277,10 +84207,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84311,10 +84239,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84345,10 +84271,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84379,10 +84303,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84413,10 +84335,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84447,10 +84367,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84477,10 +84395,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84507,10 +84423,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84537,10 +84451,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84571,10 +84483,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84605,10 +84515,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -84639,10 +84547,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -84677,10 +84583,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2624">
@@ -84715,10 +84619,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84749,10 +84651,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84787,10 +84687,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -84825,10 +84723,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2628">
@@ -84859,10 +84755,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2629">
@@ -84897,10 +84791,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -84935,10 +84827,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2631">
@@ -84973,10 +84863,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2632">
@@ -85007,10 +84895,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85041,10 +84927,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -85079,10 +84963,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -85105,10 +84987,8 @@
       <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85139,10 +85019,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85173,10 +85051,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -85207,10 +85083,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85245,10 +85119,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -85279,10 +85151,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85309,10 +85179,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85339,10 +85207,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85369,10 +85235,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85399,10 +85263,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85429,10 +85291,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85459,10 +85319,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85489,10 +85347,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85519,10 +85375,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85549,10 +85403,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85597,10 +85449,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85631,10 +85481,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85665,46 +85513,60 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr"/>
-      <c r="C2654" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr"/>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
       <c r="E2655" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2655" t="inlineStr"/>
@@ -85718,31 +85580,27 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2656" t="inlineStr"/>
       <c r="H2656" t="inlineStr">
         <is>
           <t>3</t>
@@ -85752,31 +85610,27 @@
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2657" t="inlineStr"/>
       <c r="H2657" t="inlineStr">
         <is>
           <t>3</t>
@@ -85786,31 +85640,27 @@
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2658" t="inlineStr"/>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -85820,21 +85670,25 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr"/>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
@@ -85846,65 +85700,53 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2660" t="inlineStr"/>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
           <t>2</t>
@@ -85914,127 +85756,139 @@
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2663">
       <c r="A2663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2664">
       <c r="A2664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2665">
       <c r="A2665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
@@ -86046,205 +85900,181 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2668" t="inlineStr"/>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2668" t="inlineStr"/>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2669">
       <c r="A2669" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2669" t="inlineStr"/>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2670" t="inlineStr"/>
       <c r="H2670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2671" t="inlineStr"/>
       <c r="H2671" t="inlineStr">
         <is>
           <t>3</t>
@@ -86254,91 +86084,83 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr"/>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2674" t="inlineStr"/>
@@ -86352,117 +86174,129 @@
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr"/>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr"/>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86472,55 +86306,47 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
@@ -86532,47 +86358,43 @@
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
@@ -86588,23 +86410,23 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
@@ -86618,27 +86440,35 @@
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2684" t="inlineStr">
         <is>
           <t>2</t>
@@ -86648,73 +86478,57 @@
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr"/>
       <c r="H2685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr"/>
       <c r="H2686" t="inlineStr">
         <is>
           <t>2</t>
@@ -86724,69 +86538,57 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2688" t="inlineStr"/>
       <c r="H2688" t="inlineStr">
         <is>
           <t>3</t>
@@ -86796,55 +86598,43 @@
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr"/>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
@@ -86853,176 +86643,156 @@
       <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2691" t="inlineStr"/>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2692" t="inlineStr"/>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2693" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr"/>
+      <c r="C2693" t="inlineStr"/>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2693" t="inlineStr"/>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
@@ -87036,23 +86806,23 @@
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
@@ -87066,31 +86836,23 @@
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
-      <c r="E2698" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2698" t="inlineStr"/>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87100,31 +86862,23 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
-      <c r="E2699" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2699" t="inlineStr"/>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87134,31 +86888,27 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2700" t="inlineStr"/>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87168,47 +86918,55 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -87220,17 +86978,17 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
@@ -87246,17 +87004,17 @@
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
@@ -87265,112 +87023,112 @@
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2706" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
@@ -87380,20 +87138,16 @@
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -87405,26 +87159,22 @@
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2709" t="inlineStr"/>
       <c r="H2709" t="inlineStr">
         <is>
           <t>3</t>
@@ -87444,16 +87194,20 @@
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
-      <c r="G2710" t="inlineStr"/>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -87470,23 +87224,31 @@
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2711" t="inlineStr"/>
-      <c r="G2711" t="inlineStr"/>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
@@ -87496,13 +87258,21 @@
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2712" t="inlineStr"/>
-      <c r="G2712" t="inlineStr"/>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2712" t="inlineStr">
         <is>
           <t>3</t>
@@ -87512,7 +87282,7 @@
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
@@ -87522,7 +87292,7 @@
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
@@ -87536,29 +87306,29 @@
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr"/>
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>08:40 PM</t>
+        </is>
+      </c>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2714" t="inlineStr"/>
       <c r="H2714" t="inlineStr">
         <is>
           <t>3</t>
@@ -87566,33 +87336,37 @@
       </c>
     </row>
     <row r="2715">
-      <c r="A2715" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr"/>
-      <c r="C2715" t="inlineStr"/>
+      <c r="A2715" t="inlineStr"/>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
       <c r="D2715" t="inlineStr"/>
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A2716" t="inlineStr"/>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
@@ -87606,27 +87380,19 @@
       </c>
     </row>
     <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2717" t="inlineStr"/>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
       <c r="H2717" t="inlineStr">
@@ -87636,25 +87402,21 @@
       </c>
     </row>
     <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A2718" t="inlineStr"/>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
@@ -87668,47 +87430,31 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2719" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr"/>
+      <c r="C2719" t="inlineStr"/>
       <c r="D2719" t="inlineStr"/>
-      <c r="E2719" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2719" t="inlineStr"/>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2719" t="inlineStr"/>
     </row>
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2720" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2720" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2720" t="inlineStr"/>
@@ -87717,614 +87463,6 @@
       <c r="G2720" t="inlineStr"/>
       <c r="H2720" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2721">
-      <c r="A2721" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2721" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2721" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2721" t="inlineStr"/>
-      <c r="E2721" t="inlineStr"/>
-      <c r="F2721" t="inlineStr"/>
-      <c r="G2721" t="inlineStr"/>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2722">
-      <c r="A2722" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2722" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2722" t="inlineStr">
-        <is>
-          <t>30-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
-      <c r="F2722" t="inlineStr"/>
-      <c r="G2722" t="inlineStr"/>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2723">
-      <c r="A2723" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B2723" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2723" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
-      <c r="F2723" t="inlineStr"/>
-      <c r="G2723" t="inlineStr"/>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2724">
-      <c r="A2724" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B2724" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2724" t="inlineStr">
-        <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2724" t="inlineStr"/>
-      <c r="G2724" t="inlineStr"/>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2725">
-      <c r="A2725" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2725" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2725" t="inlineStr">
-        <is>
-          <t>5-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr"/>
-      <c r="F2725" t="inlineStr"/>
-      <c r="G2725" t="inlineStr"/>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2726">
-      <c r="A2726" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2726" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2726" t="inlineStr">
-        <is>
-          <t>BCB Copom Meeting Minutes</t>
-        </is>
-      </c>
-      <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
-      <c r="F2726" t="inlineStr"/>
-      <c r="G2726" t="inlineStr"/>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2727">
-      <c r="A2727" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2727" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2727" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
-      <c r="F2727" t="inlineStr"/>
-      <c r="G2727" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2728">
-      <c r="A2728" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2728" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2728" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2728" t="inlineStr"/>
-      <c r="E2728" t="inlineStr">
-        <is>
-          <t>7.59%</t>
-        </is>
-      </c>
-      <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2729">
-      <c r="A2729" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2729" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2729" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2729" t="inlineStr"/>
-      <c r="E2729" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr"/>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2730">
-      <c r="A2730" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B2730" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2730" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/01</t>
-        </is>
-      </c>
-      <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr"/>
-      <c r="F2730" t="inlineStr"/>
-      <c r="G2730" t="inlineStr"/>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2731">
-      <c r="A2731" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2731" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2731" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2731" t="inlineStr"/>
-      <c r="E2731" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="F2731" t="inlineStr"/>
-      <c r="G2731" t="inlineStr"/>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2732">
-      <c r="A2732" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2732" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2732" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsDEC</t>
-        </is>
-      </c>
-      <c r="D2732" t="inlineStr"/>
-      <c r="E2732" t="inlineStr"/>
-      <c r="F2732" t="inlineStr"/>
-      <c r="G2732" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2733">
-      <c r="A2733" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2733" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2733" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2733" t="inlineStr"/>
-      <c r="E2733" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F2733" t="inlineStr"/>
-      <c r="G2733" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2734">
-      <c r="A2734" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2734" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2734" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationDEC</t>
-        </is>
-      </c>
-      <c r="D2734" t="inlineStr"/>
-      <c r="E2734" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2734" t="inlineStr"/>
-      <c r="G2734" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2735">
-      <c r="A2735" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2735" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2735" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsDEC</t>
-        </is>
-      </c>
-      <c r="D2735" t="inlineStr"/>
-      <c r="E2735" t="inlineStr"/>
-      <c r="F2735" t="inlineStr"/>
-      <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2736">
-      <c r="A2736" t="inlineStr">
-        <is>
-          <t>08:40 PM</t>
-        </is>
-      </c>
-      <c r="B2736" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2736" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
-      <c r="F2736" t="inlineStr"/>
-      <c r="G2736" t="inlineStr"/>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2737">
-      <c r="A2737" t="inlineStr"/>
-      <c r="B2737" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2737" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr"/>
-      <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr"/>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2738">
-      <c r="A2738" t="inlineStr"/>
-      <c r="B2738" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2738" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr"/>
-      <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2739">
-      <c r="A2739" t="inlineStr"/>
-      <c r="B2739" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2739" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr"/>
-      <c r="F2739" t="inlineStr"/>
-      <c r="G2739" t="inlineStr"/>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2740">
-      <c r="A2740" t="inlineStr"/>
-      <c r="B2740" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2740" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2740" t="inlineStr"/>
-      <c r="E2740" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr"/>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2741">
-      <c r="A2741" t="inlineStr">
-        <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr"/>
-      <c r="C2741" t="inlineStr"/>
-      <c r="D2741" t="inlineStr"/>
-      <c r="E2741" t="inlineStr"/>
-      <c r="F2741" t="inlineStr"/>
-      <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr"/>
-    </row>
-    <row r="2742">
-      <c r="A2742" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2742" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2742" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr"/>
-      <c r="F2742" t="inlineStr"/>
-      <c r="G2742" t="inlineStr"/>
-      <c r="H2742" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
       </c>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2720"/>
+  <dimension ref="A1:H2763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76589,8 +76589,10 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2365" t="n">
-        <v>1</v>
+      <c r="H2365" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2366">
@@ -76621,8 +76623,10 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2366" t="n">
-        <v>2</v>
+      <c r="H2366" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2367">
@@ -76653,8 +76657,10 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H2367" t="n">
-        <v>3</v>
+      <c r="H2367" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2368">
@@ -76689,8 +76695,10 @@
           <t>51.7</t>
         </is>
       </c>
-      <c r="H2368" t="n">
-        <v>3</v>
+      <c r="H2368" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2369">
@@ -76721,8 +76729,10 @@
           <t>115.3</t>
         </is>
       </c>
-      <c r="H2369" t="n">
-        <v>3</v>
+      <c r="H2369" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2370">
@@ -76757,8 +76767,10 @@
           <t>107</t>
         </is>
       </c>
-      <c r="H2370" t="n">
-        <v>3</v>
+      <c r="H2370" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2371">
@@ -76785,8 +76797,10 @@
       </c>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr"/>
-      <c r="H2371" t="n">
-        <v>3</v>
+      <c r="H2371" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2372">
@@ -76813,8 +76827,10 @@
       </c>
       <c r="F2372" t="inlineStr"/>
       <c r="G2372" t="inlineStr"/>
-      <c r="H2372" t="n">
-        <v>3</v>
+      <c r="H2372" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2373">
@@ -76841,8 +76857,10 @@
       </c>
       <c r="F2373" t="inlineStr"/>
       <c r="G2373" t="inlineStr"/>
-      <c r="H2373" t="n">
-        <v>3</v>
+      <c r="H2373" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2374">
@@ -76873,8 +76891,10 @@
           <t>99</t>
         </is>
       </c>
-      <c r="H2374" t="n">
-        <v>2</v>
+      <c r="H2374" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2375">
@@ -76905,8 +76925,10 @@
           <t>75.8%</t>
         </is>
       </c>
-      <c r="H2375" t="n">
-        <v>3</v>
+      <c r="H2375" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2376">
@@ -76941,8 +76963,10 @@
           <t>84.5</t>
         </is>
       </c>
-      <c r="H2376" t="n">
-        <v>1</v>
+      <c r="H2376" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2377">
@@ -76977,8 +77001,10 @@
           <t>85.2</t>
         </is>
       </c>
-      <c r="H2377" t="n">
-        <v>3</v>
+      <c r="H2377" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2378">
@@ -77013,8 +77039,10 @@
           <t>84</t>
         </is>
       </c>
-      <c r="H2378" t="n">
-        <v>3</v>
+      <c r="H2378" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2379">
@@ -77041,8 +77069,10 @@
       </c>
       <c r="F2379" t="inlineStr"/>
       <c r="G2379" t="inlineStr"/>
-      <c r="H2379" t="n">
-        <v>3</v>
+      <c r="H2379" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2380">
@@ -77069,8 +77099,10 @@
       </c>
       <c r="F2380" t="inlineStr"/>
       <c r="G2380" t="inlineStr"/>
-      <c r="H2380" t="n">
-        <v>3</v>
+      <c r="H2380" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2381">
@@ -77101,8 +77133,10 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H2381" t="n">
-        <v>3</v>
+      <c r="H2381" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2382">
@@ -77133,8 +77167,10 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H2382" t="n">
-        <v>2</v>
+      <c r="H2382" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2383">
@@ -77165,8 +77201,10 @@
           <t>2875K</t>
         </is>
       </c>
-      <c r="H2383" t="n">
-        <v>3</v>
+      <c r="H2383" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2384">
@@ -77197,8 +77235,10 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2384" t="n">
-        <v>3</v>
+      <c r="H2384" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2385">
@@ -77229,8 +77269,10 @@
           <t>$ 0.4B</t>
         </is>
       </c>
-      <c r="H2385" t="n">
-        <v>2</v>
+      <c r="H2385" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2386">
@@ -77261,8 +77303,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2386" t="n">
-        <v>3</v>
+      <c r="H2386" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2387">
@@ -77293,8 +77337,10 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H2387" t="n">
-        <v>2</v>
+      <c r="H2387" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2388">
@@ -77321,8 +77367,10 @@
       </c>
       <c r="F2388" t="inlineStr"/>
       <c r="G2388" t="inlineStr"/>
-      <c r="H2388" t="n">
-        <v>3</v>
+      <c r="H2388" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2389">
@@ -77349,8 +77397,10 @@
       </c>
       <c r="F2389" t="inlineStr"/>
       <c r="G2389" t="inlineStr"/>
-      <c r="H2389" t="n">
-        <v>3</v>
+      <c r="H2389" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2390">
@@ -77377,8 +77427,10 @@
       </c>
       <c r="F2390" t="inlineStr"/>
       <c r="G2390" t="inlineStr"/>
-      <c r="H2390" t="n">
-        <v>3</v>
+      <c r="H2390" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2391">
@@ -77413,8 +77465,10 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H2391" t="n">
-        <v>2</v>
+      <c r="H2391" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2392">
@@ -77445,8 +77499,10 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H2392" t="n">
-        <v>2</v>
+      <c r="H2392" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2393">
@@ -77477,8 +77533,10 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H2393" t="n">
-        <v>2</v>
+      <c r="H2393" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2394">
@@ -77501,8 +77559,10 @@
       <c r="E2394" t="inlineStr"/>
       <c r="F2394" t="inlineStr"/>
       <c r="G2394" t="inlineStr"/>
-      <c r="H2394" t="n">
-        <v>2</v>
+      <c r="H2394" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2395">
@@ -77529,8 +77589,10 @@
       </c>
       <c r="F2395" t="inlineStr"/>
       <c r="G2395" t="inlineStr"/>
-      <c r="H2395" t="n">
-        <v>3</v>
+      <c r="H2395" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2396">
@@ -77557,8 +77619,10 @@
       </c>
       <c r="F2396" t="inlineStr"/>
       <c r="G2396" t="inlineStr"/>
-      <c r="H2396" t="n">
-        <v>3</v>
+      <c r="H2396" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2397">
@@ -77585,8 +77649,10 @@
       </c>
       <c r="F2397" t="inlineStr"/>
       <c r="G2397" t="inlineStr"/>
-      <c r="H2397" t="n">
-        <v>3</v>
+      <c r="H2397" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2398">
@@ -77613,8 +77679,10 @@
       </c>
       <c r="F2398" t="inlineStr"/>
       <c r="G2398" t="inlineStr"/>
-      <c r="H2398" t="n">
-        <v>3</v>
+      <c r="H2398" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2399">
@@ -77637,8 +77705,10 @@
       </c>
       <c r="F2399" t="inlineStr"/>
       <c r="G2399" t="inlineStr"/>
-      <c r="H2399" t="n">
-        <v>3</v>
+      <c r="H2399" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2400">
@@ -77665,8 +77735,10 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H2400" t="n">
-        <v>3</v>
+      <c r="H2400" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2401">
@@ -77685,8 +77757,10 @@
       <c r="E2401" t="inlineStr"/>
       <c r="F2401" t="inlineStr"/>
       <c r="G2401" t="inlineStr"/>
-      <c r="H2401" t="n">
-        <v>3</v>
+      <c r="H2401" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2402">
@@ -77717,8 +77791,10 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H2402" t="n">
-        <v>3</v>
+      <c r="H2402" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2403">
@@ -77749,8 +77825,10 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2403" t="n">
-        <v>3</v>
+      <c r="H2403" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2404">
@@ -77777,8 +77855,10 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H2404" t="n">
-        <v>3</v>
+      <c r="H2404" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2405">
@@ -77823,8 +77903,10 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H2406" t="n">
-        <v>1</v>
+      <c r="H2406" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2407">
@@ -77855,8 +77937,10 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H2407" t="n">
-        <v>3</v>
+      <c r="H2407" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2408">
@@ -77883,8 +77967,10 @@
       </c>
       <c r="F2408" t="inlineStr"/>
       <c r="G2408" t="inlineStr"/>
-      <c r="H2408" t="n">
-        <v>3</v>
+      <c r="H2408" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2409">
@@ -77915,8 +78001,10 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2409" t="n">
-        <v>3</v>
+      <c r="H2409" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2410">
@@ -77947,8 +78035,10 @@
           <t>-4.1%</t>
         </is>
       </c>
-      <c r="H2410" t="n">
-        <v>3</v>
+      <c r="H2410" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2411">
@@ -77979,8 +78069,10 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2411" t="n">
-        <v>3</v>
+      <c r="H2411" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2412">
@@ -78011,8 +78103,10 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2412" t="n">
-        <v>3</v>
+      <c r="H2412" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2413">
@@ -78047,8 +78141,10 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H2413" t="n">
-        <v>2</v>
+      <c r="H2413" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2414">
@@ -78083,8 +78179,10 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2414" t="n">
-        <v>2</v>
+      <c r="H2414" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2415">
@@ -78111,8 +78209,10 @@
       </c>
       <c r="F2415" t="inlineStr"/>
       <c r="G2415" t="inlineStr"/>
-      <c r="H2415" t="n">
-        <v>3</v>
+      <c r="H2415" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2416">
@@ -78139,8 +78239,10 @@
       </c>
       <c r="F2416" t="inlineStr"/>
       <c r="G2416" t="inlineStr"/>
-      <c r="H2416" t="n">
-        <v>3</v>
+      <c r="H2416" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2417">
@@ -78167,8 +78269,10 @@
       </c>
       <c r="F2417" t="inlineStr"/>
       <c r="G2417" t="inlineStr"/>
-      <c r="H2417" t="n">
-        <v>3</v>
+      <c r="H2417" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2418">
@@ -78195,8 +78299,10 @@
       </c>
       <c r="F2418" t="inlineStr"/>
       <c r="G2418" t="inlineStr"/>
-      <c r="H2418" t="n">
-        <v>3</v>
+      <c r="H2418" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2419">
@@ -78223,8 +78329,10 @@
       </c>
       <c r="F2419" t="inlineStr"/>
       <c r="G2419" t="inlineStr"/>
-      <c r="H2419" t="n">
-        <v>3</v>
+      <c r="H2419" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2420">
@@ -78259,8 +78367,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2420" t="n">
-        <v>1</v>
+      <c r="H2420" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2421">
@@ -78295,8 +78405,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2421" t="n">
-        <v>2</v>
+      <c r="H2421" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2422">
@@ -78327,8 +78439,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2422" t="n">
-        <v>3</v>
+      <c r="H2422" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2423">
@@ -78359,8 +78473,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2423" t="n">
-        <v>3</v>
+      <c r="H2423" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2424">
@@ -78387,8 +78503,10 @@
       </c>
       <c r="F2424" t="inlineStr"/>
       <c r="G2424" t="inlineStr"/>
-      <c r="H2424" t="n">
-        <v>3</v>
+      <c r="H2424" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2425">
@@ -78423,8 +78541,10 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H2425" t="n">
-        <v>2</v>
+      <c r="H2425" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2426">
@@ -78455,8 +78575,10 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H2426" t="n">
-        <v>3</v>
+      <c r="H2426" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2427">
@@ -78491,8 +78613,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2427" t="n">
-        <v>3</v>
+      <c r="H2427" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2428">
@@ -78523,8 +78647,10 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H2428" t="n">
-        <v>3</v>
+      <c r="H2428" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2429">
@@ -78555,8 +78681,10 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2429" t="n">
-        <v>3</v>
+      <c r="H2429" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2430">
@@ -78579,8 +78707,10 @@
       <c r="E2430" t="inlineStr"/>
       <c r="F2430" t="inlineStr"/>
       <c r="G2430" t="inlineStr"/>
-      <c r="H2430" t="n">
-        <v>3</v>
+      <c r="H2430" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2431">
@@ -78615,8 +78745,10 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H2431" t="n">
-        <v>2</v>
+      <c r="H2431" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2432">
@@ -78651,8 +78783,10 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H2432" t="n">
-        <v>3</v>
+      <c r="H2432" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2433">
@@ -78683,8 +78817,10 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H2433" t="n">
-        <v>3</v>
+      <c r="H2433" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2434">
@@ -78715,8 +78851,10 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H2434" t="n">
-        <v>3</v>
+      <c r="H2434" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2435">
@@ -78747,8 +78885,10 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H2435" t="n">
-        <v>3</v>
+      <c r="H2435" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2436">
@@ -78779,8 +78919,10 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H2436" t="n">
-        <v>3</v>
+      <c r="H2436" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2437">
@@ -78807,8 +78949,10 @@
       </c>
       <c r="F2437" t="inlineStr"/>
       <c r="G2437" t="inlineStr"/>
-      <c r="H2437" t="n">
-        <v>3</v>
+      <c r="H2437" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2438">
@@ -78835,8 +78979,10 @@
       </c>
       <c r="F2438" t="inlineStr"/>
       <c r="G2438" t="inlineStr"/>
-      <c r="H2438" t="n">
-        <v>3</v>
+      <c r="H2438" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2439">
@@ -78859,8 +79005,10 @@
       <c r="E2439" t="inlineStr"/>
       <c r="F2439" t="inlineStr"/>
       <c r="G2439" t="inlineStr"/>
-      <c r="H2439" t="n">
-        <v>2</v>
+      <c r="H2439" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2440">
@@ -78887,8 +79035,10 @@
       </c>
       <c r="F2440" t="inlineStr"/>
       <c r="G2440" t="inlineStr"/>
-      <c r="H2440" t="n">
-        <v>3</v>
+      <c r="H2440" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2441">
@@ -78915,8 +79065,10 @@
       </c>
       <c r="F2441" t="inlineStr"/>
       <c r="G2441" t="inlineStr"/>
-      <c r="H2441" t="n">
-        <v>3</v>
+      <c r="H2441" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2442">
@@ -78957,8 +79109,10 @@
       </c>
       <c r="F2443" t="inlineStr"/>
       <c r="G2443" t="inlineStr"/>
-      <c r="H2443" t="n">
-        <v>2</v>
+      <c r="H2443" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2444">
@@ -78981,8 +79135,10 @@
       <c r="E2444" t="inlineStr"/>
       <c r="F2444" t="inlineStr"/>
       <c r="G2444" t="inlineStr"/>
-      <c r="H2444" t="n">
-        <v>2</v>
+      <c r="H2444" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2445">
@@ -79017,8 +79173,10 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2445" t="n">
-        <v>1</v>
+      <c r="H2445" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2446">
@@ -79053,8 +79211,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2446" t="n">
-        <v>2</v>
+      <c r="H2446" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2447">
@@ -79089,8 +79249,10 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2447" t="n">
-        <v>2</v>
+      <c r="H2447" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2448">
@@ -79125,8 +79287,10 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2448" t="n">
-        <v>2</v>
+      <c r="H2448" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2449">
@@ -79161,8 +79325,10 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2449" t="n">
-        <v>2</v>
+      <c r="H2449" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2450">
@@ -79193,8 +79359,10 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H2450" t="n">
-        <v>3</v>
+      <c r="H2450" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2451">
@@ -79229,8 +79397,10 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2451" t="n">
-        <v>3</v>
+      <c r="H2451" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2452">
@@ -79265,8 +79435,10 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2452" t="n">
-        <v>3</v>
+      <c r="H2452" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2453">
@@ -79293,8 +79465,10 @@
       </c>
       <c r="F2453" t="inlineStr"/>
       <c r="G2453" t="inlineStr"/>
-      <c r="H2453" t="n">
-        <v>3</v>
+      <c r="H2453" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2454">
@@ -79329,8 +79503,10 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H2454" t="n">
-        <v>1</v>
+      <c r="H2454" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2455">
@@ -79365,8 +79541,10 @@
           <t>-21</t>
         </is>
       </c>
-      <c r="H2455" t="n">
-        <v>1</v>
+      <c r="H2455" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2456">
@@ -79401,8 +79579,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2456" t="n">
-        <v>1</v>
+      <c r="H2456" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2457">
@@ -79433,8 +79613,10 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H2457" t="n">
-        <v>1</v>
+      <c r="H2457" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2458">
@@ -79465,8 +79647,10 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2458" t="n">
-        <v>3</v>
+      <c r="H2458" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2459">
@@ -79501,8 +79685,10 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H2459" t="n">
-        <v>3</v>
+      <c r="H2459" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2460">
@@ -79537,8 +79723,10 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2460" t="n">
-        <v>3</v>
+      <c r="H2460" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2461">
@@ -79569,8 +79757,10 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H2461" t="n">
-        <v>2</v>
+      <c r="H2461" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2462">
@@ -79601,8 +79791,10 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H2462" t="n">
-        <v>2</v>
+      <c r="H2462" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2463">
@@ -79629,8 +79821,10 @@
       </c>
       <c r="F2463" t="inlineStr"/>
       <c r="G2463" t="inlineStr"/>
-      <c r="H2463" t="n">
-        <v>3</v>
+      <c r="H2463" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2464">
@@ -79657,8 +79851,10 @@
       </c>
       <c r="F2464" t="inlineStr"/>
       <c r="G2464" t="inlineStr"/>
-      <c r="H2464" t="n">
-        <v>3</v>
+      <c r="H2464" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2465">
@@ -79685,8 +79881,10 @@
       </c>
       <c r="F2465" t="inlineStr"/>
       <c r="G2465" t="inlineStr"/>
-      <c r="H2465" t="n">
-        <v>3</v>
+      <c r="H2465" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2466">
@@ -79717,8 +79915,10 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H2466" t="n">
-        <v>2</v>
+      <c r="H2466" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2467">
@@ -79745,8 +79945,10 @@
       </c>
       <c r="F2467" t="inlineStr"/>
       <c r="G2467" t="inlineStr"/>
-      <c r="H2467" t="n">
-        <v>2</v>
+      <c r="H2467" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2468">
@@ -79773,8 +79975,10 @@
       </c>
       <c r="F2468" t="inlineStr"/>
       <c r="G2468" t="inlineStr"/>
-      <c r="H2468" t="n">
-        <v>3</v>
+      <c r="H2468" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2469">
@@ -79801,8 +80005,10 @@
       </c>
       <c r="F2469" t="inlineStr"/>
       <c r="G2469" t="inlineStr"/>
-      <c r="H2469" t="n">
-        <v>3</v>
+      <c r="H2469" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2470">
@@ -79829,8 +80035,10 @@
       </c>
       <c r="F2470" t="inlineStr"/>
       <c r="G2470" t="inlineStr"/>
-      <c r="H2470" t="n">
-        <v>3</v>
+      <c r="H2470" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2471">
@@ -79857,8 +80065,10 @@
       </c>
       <c r="F2471" t="inlineStr"/>
       <c r="G2471" t="inlineStr"/>
-      <c r="H2471" t="n">
-        <v>3</v>
+      <c r="H2471" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2472">
@@ -79893,8 +80103,10 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H2472" t="n">
-        <v>2</v>
+      <c r="H2472" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2473">
@@ -79925,8 +80137,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2473" t="n">
-        <v>2</v>
+      <c r="H2473" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2474">
@@ -79961,8 +80175,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2474" t="n">
-        <v>2</v>
+      <c r="H2474" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2475">
@@ -79997,8 +80213,10 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2475" t="n">
-        <v>1</v>
+      <c r="H2475" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2476">
@@ -80021,8 +80239,10 @@
       <c r="E2476" t="inlineStr"/>
       <c r="F2476" t="inlineStr"/>
       <c r="G2476" t="inlineStr"/>
-      <c r="H2476" t="n">
-        <v>1</v>
+      <c r="H2476" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2477">
@@ -80045,8 +80265,10 @@
       <c r="E2477" t="inlineStr"/>
       <c r="F2477" t="inlineStr"/>
       <c r="G2477" t="inlineStr"/>
-      <c r="H2477" t="n">
-        <v>2</v>
+      <c r="H2477" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2478">
@@ -80073,8 +80295,10 @@
       </c>
       <c r="F2478" t="inlineStr"/>
       <c r="G2478" t="inlineStr"/>
-      <c r="H2478" t="n">
-        <v>2</v>
+      <c r="H2478" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2479">
@@ -80101,8 +80325,10 @@
       </c>
       <c r="F2479" t="inlineStr"/>
       <c r="G2479" t="inlineStr"/>
-      <c r="H2479" t="n">
-        <v>2</v>
+      <c r="H2479" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2480">
@@ -80129,8 +80355,10 @@
       </c>
       <c r="F2480" t="inlineStr"/>
       <c r="G2480" t="inlineStr"/>
-      <c r="H2480" t="n">
-        <v>3</v>
+      <c r="H2480" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2481">
@@ -80157,8 +80385,10 @@
       </c>
       <c r="F2481" t="inlineStr"/>
       <c r="G2481" t="inlineStr"/>
-      <c r="H2481" t="n">
-        <v>3</v>
+      <c r="H2481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2482">
@@ -80185,8 +80415,10 @@
       </c>
       <c r="F2482" t="inlineStr"/>
       <c r="G2482" t="inlineStr"/>
-      <c r="H2482" t="n">
-        <v>3</v>
+      <c r="H2482" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2483">
@@ -80213,8 +80445,10 @@
       </c>
       <c r="F2483" t="inlineStr"/>
       <c r="G2483" t="inlineStr"/>
-      <c r="H2483" t="n">
-        <v>3</v>
+      <c r="H2483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2484">
@@ -80241,8 +80475,10 @@
       </c>
       <c r="F2484" t="inlineStr"/>
       <c r="G2484" t="inlineStr"/>
-      <c r="H2484" t="n">
-        <v>3</v>
+      <c r="H2484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2485">
@@ -80269,8 +80505,10 @@
       </c>
       <c r="F2485" t="inlineStr"/>
       <c r="G2485" t="inlineStr"/>
-      <c r="H2485" t="n">
-        <v>3</v>
+      <c r="H2485" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2486">
@@ -80297,8 +80535,10 @@
       </c>
       <c r="F2486" t="inlineStr"/>
       <c r="G2486" t="inlineStr"/>
-      <c r="H2486" t="n">
-        <v>3</v>
+      <c r="H2486" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2487">
@@ -80329,8 +80569,10 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2487" t="n">
-        <v>3</v>
+      <c r="H2487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2488">
@@ -80361,8 +80603,10 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H2488" t="n">
-        <v>3</v>
+      <c r="H2488" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2489">
@@ -80389,8 +80633,10 @@
       </c>
       <c r="F2489" t="inlineStr"/>
       <c r="G2489" t="inlineStr"/>
-      <c r="H2489" t="n">
-        <v>3</v>
+      <c r="H2489" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2490">
@@ -80439,8 +80685,10 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2491" t="n">
-        <v>1</v>
+      <c r="H2491" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2492">
@@ -80463,8 +80711,10 @@
       <c r="E2492" t="inlineStr"/>
       <c r="F2492" t="inlineStr"/>
       <c r="G2492" t="inlineStr"/>
-      <c r="H2492" t="n">
-        <v>1</v>
+      <c r="H2492" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2493">
@@ -80495,8 +80745,10 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H2493" t="n">
-        <v>2</v>
+      <c r="H2493" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2494">
@@ -80523,8 +80775,10 @@
       </c>
       <c r="F2494" t="inlineStr"/>
       <c r="G2494" t="inlineStr"/>
-      <c r="H2494" t="n">
-        <v>3</v>
+      <c r="H2494" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2495">
@@ -80551,8 +80805,10 @@
       </c>
       <c r="F2495" t="inlineStr"/>
       <c r="G2495" t="inlineStr"/>
-      <c r="H2495" t="n">
-        <v>3</v>
+      <c r="H2495" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2496">
@@ -80583,8 +80839,10 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H2496" t="n">
-        <v>3</v>
+      <c r="H2496" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2497">
@@ -80607,8 +80865,10 @@
       <c r="E2497" t="inlineStr"/>
       <c r="F2497" t="inlineStr"/>
       <c r="G2497" t="inlineStr"/>
-      <c r="H2497" t="n">
-        <v>2</v>
+      <c r="H2497" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2498">
@@ -80639,8 +80899,10 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H2498" t="n">
-        <v>3</v>
+      <c r="H2498" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2499">
@@ -80675,8 +80937,10 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2499" t="n">
-        <v>3</v>
+      <c r="H2499" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2500">
@@ -80699,8 +80963,10 @@
       <c r="E2500" t="inlineStr"/>
       <c r="F2500" t="inlineStr"/>
       <c r="G2500" t="inlineStr"/>
-      <c r="H2500" t="n">
-        <v>2</v>
+      <c r="H2500" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2501">
@@ -80731,8 +80997,10 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2501" t="n">
-        <v>2</v>
+      <c r="H2501" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2502">
@@ -80759,8 +81027,10 @@
       </c>
       <c r="F2502" t="inlineStr"/>
       <c r="G2502" t="inlineStr"/>
-      <c r="H2502" t="n">
-        <v>3</v>
+      <c r="H2502" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2503">
@@ -80791,8 +81061,10 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2503" t="n">
-        <v>3</v>
+      <c r="H2503" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2504">
@@ -80815,8 +81087,10 @@
       <c r="E2504" t="inlineStr"/>
       <c r="F2504" t="inlineStr"/>
       <c r="G2504" t="inlineStr"/>
-      <c r="H2504" t="n">
-        <v>2</v>
+      <c r="H2504" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2505">
@@ -80851,8 +81125,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2505" t="n">
-        <v>1</v>
+      <c r="H2505" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2506">
@@ -80883,8 +81159,10 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2506" t="n">
-        <v>2</v>
+      <c r="H2506" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2507">
@@ -80919,8 +81197,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2507" t="n">
-        <v>3</v>
+      <c r="H2507" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2508">
@@ -80955,8 +81235,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2508" t="n">
-        <v>3</v>
+      <c r="H2508" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2509">
@@ -80987,8 +81269,10 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2509" t="n">
-        <v>3</v>
+      <c r="H2509" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2510">
@@ -81019,8 +81303,10 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2510" t="n">
-        <v>3</v>
+      <c r="H2510" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2511">
@@ -81051,8 +81337,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2511" t="n">
-        <v>2</v>
+      <c r="H2511" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2512">
@@ -81087,8 +81375,10 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2512" t="n">
-        <v>2</v>
+      <c r="H2512" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2513">
@@ -81119,8 +81409,10 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2513" t="n">
-        <v>3</v>
+      <c r="H2513" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2514">
@@ -81151,8 +81443,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2514" t="n">
-        <v>3</v>
+      <c r="H2514" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2515">
@@ -81183,8 +81477,10 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2515" t="n">
-        <v>3</v>
+      <c r="H2515" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2516">
@@ -81219,8 +81515,10 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2516" t="n">
-        <v>1</v>
+      <c r="H2516" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2517">
@@ -81255,8 +81553,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2517" t="n">
-        <v>1</v>
+      <c r="H2517" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2518">
@@ -81291,8 +81591,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2518" t="n">
-        <v>1</v>
+      <c r="H2518" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2519">
@@ -81323,8 +81625,10 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2519" t="n">
-        <v>1</v>
+      <c r="H2519" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2520">
@@ -81355,8 +81659,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2520" t="n">
-        <v>3</v>
+      <c r="H2520" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2521">
@@ -81387,8 +81693,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2521" t="n">
-        <v>3</v>
+      <c r="H2521" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2522">
@@ -81419,8 +81727,10 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H2522" t="n">
-        <v>2</v>
+      <c r="H2522" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2523">
@@ -81455,8 +81765,10 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H2523" t="n">
-        <v>2</v>
+      <c r="H2523" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2524">
@@ -81487,8 +81799,10 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2524" t="n">
-        <v>2</v>
+      <c r="H2524" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2525">
@@ -81523,8 +81837,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2525" t="n">
-        <v>3</v>
+      <c r="H2525" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2526">
@@ -81559,8 +81875,10 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H2526" t="n">
-        <v>3</v>
+      <c r="H2526" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2527">
@@ -81595,8 +81913,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2527" t="n">
-        <v>1</v>
+      <c r="H2527" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2528">
@@ -81631,8 +81951,10 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2528" t="n">
-        <v>1</v>
+      <c r="H2528" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2529">
@@ -81663,8 +81985,10 @@
         </is>
       </c>
       <c r="G2529" t="inlineStr"/>
-      <c r="H2529" t="n">
-        <v>2</v>
+      <c r="H2529" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2530">
@@ -81699,8 +82023,10 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2530" t="n">
-        <v>2</v>
+      <c r="H2530" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2531">
@@ -81735,8 +82061,10 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2531" t="n">
-        <v>2</v>
+      <c r="H2531" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2532">
@@ -81767,8 +82095,10 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2532" t="n">
-        <v>3</v>
+      <c r="H2532" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2533">
@@ -81799,8 +82129,10 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2533" t="n">
-        <v>3</v>
+      <c r="H2533" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2534">
@@ -81831,8 +82163,10 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2534" t="n">
-        <v>3</v>
+      <c r="H2534" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2535">
@@ -81863,8 +82197,10 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2535" t="n">
-        <v>3</v>
+      <c r="H2535" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2536">
@@ -81899,8 +82235,10 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H2536" t="n">
-        <v>1</v>
+      <c r="H2536" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2537">
@@ -81923,8 +82261,10 @@
       <c r="E2537" t="inlineStr"/>
       <c r="F2537" t="inlineStr"/>
       <c r="G2537" t="inlineStr"/>
-      <c r="H2537" t="n">
-        <v>3</v>
+      <c r="H2537" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2538">
@@ -81955,8 +82295,10 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2538" t="n">
-        <v>3</v>
+      <c r="H2538" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2539">
@@ -81987,8 +82329,10 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2539" t="n">
-        <v>3</v>
+      <c r="H2539" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2540">
@@ -82019,8 +82363,10 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2540" t="n">
-        <v>3</v>
+      <c r="H2540" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2541">
@@ -82043,8 +82389,10 @@
       <c r="E2541" t="inlineStr"/>
       <c r="F2541" t="inlineStr"/>
       <c r="G2541" t="inlineStr"/>
-      <c r="H2541" t="n">
-        <v>2</v>
+      <c r="H2541" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2542">
@@ -82071,8 +82419,10 @@
       </c>
       <c r="F2542" t="inlineStr"/>
       <c r="G2542" t="inlineStr"/>
-      <c r="H2542" t="n">
-        <v>3</v>
+      <c r="H2542" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2543">
@@ -82103,8 +82453,10 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2543" t="n">
-        <v>3</v>
+      <c r="H2543" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2544">
@@ -82135,8 +82487,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2544" t="n">
-        <v>2</v>
+      <c r="H2544" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2545">
@@ -82167,8 +82521,10 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2545" t="n">
-        <v>2</v>
+      <c r="H2545" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2546">
@@ -82199,8 +82555,10 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2546" t="n">
-        <v>2</v>
+      <c r="H2546" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2547">
@@ -82235,8 +82593,10 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H2547" t="n">
-        <v>3</v>
+      <c r="H2547" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2548">
@@ -82267,8 +82627,10 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2548" t="n">
-        <v>3</v>
+      <c r="H2548" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2549">
@@ -82303,8 +82665,10 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2549" t="n">
-        <v>1</v>
+      <c r="H2549" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2550">
@@ -82339,8 +82703,10 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2550" t="n">
-        <v>1</v>
+      <c r="H2550" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2551">
@@ -82371,8 +82737,10 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2551" t="n">
-        <v>3</v>
+      <c r="H2551" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2552">
@@ -82403,8 +82771,10 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2552" t="n">
-        <v>3</v>
+      <c r="H2552" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2553">
@@ -82439,8 +82809,10 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2553" t="n">
-        <v>1</v>
+      <c r="H2553" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2554">
@@ -82475,8 +82847,10 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2554" t="n">
-        <v>2</v>
+      <c r="H2554" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2555">
@@ -82511,8 +82885,10 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2555" t="n">
-        <v>2</v>
+      <c r="H2555" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2556">
@@ -82543,8 +82919,10 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2556" t="n">
-        <v>3</v>
+      <c r="H2556" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2557">
@@ -82575,8 +82953,10 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2557" t="n">
-        <v>3</v>
+      <c r="H2557" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2558">
@@ -82607,8 +82987,10 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2558" t="n">
-        <v>3</v>
+      <c r="H2558" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2559">
@@ -82639,8 +83021,10 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2559" t="n">
-        <v>3</v>
+      <c r="H2559" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2560">
@@ -82671,8 +83055,10 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2560" t="n">
-        <v>3</v>
+      <c r="H2560" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2561">
@@ -82703,8 +83089,10 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2561" t="n">
-        <v>3</v>
+      <c r="H2561" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2562">
@@ -82727,8 +83115,10 @@
       <c r="E2562" t="inlineStr"/>
       <c r="F2562" t="inlineStr"/>
       <c r="G2562" t="inlineStr"/>
-      <c r="H2562" t="n">
-        <v>1</v>
+      <c r="H2562" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2563">
@@ -82763,8 +83153,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2563" t="n">
-        <v>2</v>
+      <c r="H2563" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2564">
@@ -82795,8 +83187,10 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2564" t="n">
-        <v>2</v>
+      <c r="H2564" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2565">
@@ -82823,8 +83217,10 @@
       </c>
       <c r="F2565" t="inlineStr"/>
       <c r="G2565" t="inlineStr"/>
-      <c r="H2565" t="n">
-        <v>3</v>
+      <c r="H2565" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2566">
@@ -82851,8 +83247,10 @@
       </c>
       <c r="F2566" t="inlineStr"/>
       <c r="G2566" t="inlineStr"/>
-      <c r="H2566" t="n">
-        <v>3</v>
+      <c r="H2566" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2567">
@@ -82879,8 +83277,10 @@
       </c>
       <c r="F2567" t="inlineStr"/>
       <c r="G2567" t="inlineStr"/>
-      <c r="H2567" t="n">
-        <v>3</v>
+      <c r="H2567" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2568">
@@ -82907,8 +83307,10 @@
       </c>
       <c r="F2568" t="inlineStr"/>
       <c r="G2568" t="inlineStr"/>
-      <c r="H2568" t="n">
-        <v>3</v>
+      <c r="H2568" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2569">
@@ -82935,8 +83337,10 @@
       </c>
       <c r="F2569" t="inlineStr"/>
       <c r="G2569" t="inlineStr"/>
-      <c r="H2569" t="n">
-        <v>3</v>
+      <c r="H2569" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2570">
@@ -82963,8 +83367,10 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H2570" t="n">
-        <v>3</v>
+      <c r="H2570" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2571">
@@ -82991,8 +83397,10 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2571" t="n">
-        <v>3</v>
+      <c r="H2571" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2572">
@@ -83019,8 +83427,10 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2572" t="n">
-        <v>3</v>
+      <c r="H2572" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2573">
@@ -83043,8 +83453,10 @@
       </c>
       <c r="F2573" t="inlineStr"/>
       <c r="G2573" t="inlineStr"/>
-      <c r="H2573" t="n">
-        <v>3</v>
+      <c r="H2573" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2574">
@@ -83067,8 +83479,10 @@
       </c>
       <c r="F2574" t="inlineStr"/>
       <c r="G2574" t="inlineStr"/>
-      <c r="H2574" t="n">
-        <v>3</v>
+      <c r="H2574" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2575">
@@ -83095,758 +83509,798 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2575" t="n">
-        <v>3</v>
+      <c r="H2575" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2576">
       <c r="A2576" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2576" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2576" t="inlineStr">
-        <is>
-          <t>Construction Orders YoYDEC</t>
-        </is>
-      </c>
+          <t>Friday January 31 2025</t>
+        </is>
+      </c>
+      <c r="B2576" t="inlineStr"/>
+      <c r="C2576" t="inlineStr"/>
       <c r="D2576" t="inlineStr"/>
-      <c r="E2576" t="inlineStr">
-        <is>
-          <t>-10.2%</t>
-        </is>
-      </c>
+      <c r="E2576" t="inlineStr"/>
       <c r="F2576" t="inlineStr"/>
-      <c r="G2576" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
-      <c r="H2576" t="n">
-        <v>3</v>
-      </c>
+      <c r="G2576" t="inlineStr"/>
+      <c r="H2576" t="inlineStr"/>
     </row>
     <row r="2577">
       <c r="A2577" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2577" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2577" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Fed Balance SheetJAN/29</t>
         </is>
       </c>
       <c r="D2577" t="inlineStr"/>
       <c r="E2577" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>$6.88T</t>
         </is>
       </c>
       <c r="F2577" t="inlineStr"/>
-      <c r="G2577" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H2577" t="n">
-        <v>3</v>
+      <c r="G2577" t="inlineStr"/>
+      <c r="H2577" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2578">
       <c r="A2578" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2578" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2578" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2578" t="inlineStr"/>
       <c r="E2578" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2578" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G2578" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2578" t="n">
-        <v>2</v>
+          <t>2.50%</t>
+        </is>
+      </c>
+      <c r="H2578" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2579">
       <c r="A2579" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2579" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2579" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Jobs/applications ratioDEC</t>
         </is>
       </c>
       <c r="D2579" t="inlineStr"/>
       <c r="E2579" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F2579" t="inlineStr"/>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="F2579" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
       <c r="G2579" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H2579" t="n">
-        <v>2</v>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="H2579" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2580">
       <c r="A2580" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2580" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2580" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Tokyo Core CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2580" t="inlineStr"/>
       <c r="E2580" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
-        </is>
-      </c>
-      <c r="F2580" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F2580" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="G2580" t="inlineStr">
         <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
-      <c r="H2580" t="n">
-        <v>2</v>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="H2580" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2581">
       <c r="A2581" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2581" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2581" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
         </is>
       </c>
       <c r="D2581" t="inlineStr"/>
       <c r="E2581" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2581" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="F2581" t="inlineStr"/>
       <c r="G2581" t="inlineStr">
         <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
-      <c r="H2581" t="n">
-        <v>3</v>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H2581" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2582">
       <c r="A2582" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2582" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2582" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Tokyo CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2582" t="inlineStr"/>
       <c r="E2582" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2582" t="inlineStr"/>
       <c r="G2582" t="inlineStr">
         <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
-      <c r="H2582" t="n">
-        <v>3</v>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H2582" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2583">
       <c r="A2583" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2583" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2583" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Industrial Production MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2583" t="inlineStr"/>
       <c r="E2583" t="inlineStr">
         <is>
-          <t>$23.22B</t>
-        </is>
-      </c>
-      <c r="F2583" t="inlineStr"/>
+          <t>-2.2%</t>
+        </is>
+      </c>
+      <c r="F2583" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G2583" t="inlineStr">
         <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
-      <c r="H2583" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2583" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2584">
       <c r="A2584" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2584" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2584" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2584" t="inlineStr"/>
       <c r="E2584" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F2584" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2584" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="G2584" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="H2584" t="n">
-        <v>2</v>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="H2584" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2585">
       <c r="A2585" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2585" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2585" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Industrial Production YoY PrelDEC</t>
         </is>
       </c>
       <c r="D2585" t="inlineStr"/>
       <c r="E2585" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="F2585" t="inlineStr"/>
       <c r="G2585" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2585" t="n">
-        <v>2</v>
+          <t>-1.6%</t>
+        </is>
+      </c>
+      <c r="H2585" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2586">
       <c r="A2586" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2586" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2586" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2586" t="inlineStr"/>
       <c r="E2586" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2586" t="inlineStr"/>
       <c r="G2586" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2586" t="n">
-        <v>1</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2586" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2587">
       <c r="A2587" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2587" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2587" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>PPI QoQQ4</t>
         </is>
       </c>
       <c r="D2587" t="inlineStr"/>
       <c r="E2587" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2587" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="F2587" t="inlineStr"/>
       <c r="G2587" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2587" t="n">
-        <v>2</v>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H2587" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2588">
       <c r="A2588" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2588" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2588" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Housing Credit MoMDEC</t>
         </is>
       </c>
       <c r="D2588" t="inlineStr"/>
       <c r="E2588" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2588" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2588" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G2588" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2588" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2588" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2589">
       <c r="A2589" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2589" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2589" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>PPI YoYQ4</t>
         </is>
       </c>
       <c r="D2589" t="inlineStr"/>
       <c r="E2589" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2589" t="inlineStr"/>
       <c r="G2589" t="inlineStr">
         <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H2589" t="n">
-        <v>3</v>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="H2589" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2590">
       <c r="A2590" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2590" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2590" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Private Sector Credit MoMDEC</t>
         </is>
       </c>
       <c r="D2590" t="inlineStr"/>
       <c r="E2590" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2590" t="inlineStr"/>
       <c r="G2590" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2590" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2590" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2591">
       <c r="A2591" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2591" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2591" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Private Sector Credit YoYDEC</t>
         </is>
       </c>
       <c r="D2591" t="inlineStr"/>
       <c r="E2591" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="F2591" t="inlineStr"/>
       <c r="G2591" t="inlineStr">
         <is>
-          <t>-4.3%</t>
-        </is>
-      </c>
-      <c r="H2591" t="n">
-        <v>3</v>
+          <t>5.7%</t>
+        </is>
+      </c>
+      <c r="H2591" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2592">
       <c r="A2592" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2592" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2592" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Bank LendingDEC</t>
         </is>
       </c>
       <c r="D2592" t="inlineStr"/>
       <c r="E2592" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>S$819.4B</t>
         </is>
       </c>
       <c r="F2592" t="inlineStr"/>
       <c r="G2592" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2592" t="n">
-        <v>3</v>
+          <t>S$ 818.2B</t>
+        </is>
+      </c>
+      <c r="H2592" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2593">
       <c r="A2593" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2593" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2593" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>2-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2593" t="inlineStr"/>
       <c r="E2593" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0.602%</t>
         </is>
       </c>
       <c r="F2593" t="inlineStr"/>
-      <c r="G2593" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2593" t="n">
-        <v>3</v>
+      <c r="G2593" t="inlineStr"/>
+      <c r="H2593" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2594">
       <c r="A2594" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2594" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2594" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2594" t="inlineStr"/>
       <c r="E2594" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>0.3657%</t>
         </is>
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="n">
-        <v>3</v>
+      <c r="H2594" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2595">
       <c r="A2595" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2595" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2595" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Housing Starts YoYDEC</t>
         </is>
       </c>
       <c r="D2595" t="inlineStr"/>
       <c r="E2595" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F2595" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>-3.9%</t>
         </is>
       </c>
       <c r="G2595" t="inlineStr">
         <is>
-          <t>7.0K</t>
-        </is>
-      </c>
-      <c r="H2595" t="n">
-        <v>1</v>
+          <t>-3.3%</t>
+        </is>
+      </c>
+      <c r="H2595" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2596">
       <c r="A2596" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2596" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2596" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Construction Orders YoYDEC</t>
         </is>
       </c>
       <c r="D2596" t="inlineStr"/>
       <c r="E2596" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>-10.2%</t>
         </is>
       </c>
       <c r="F2596" t="inlineStr"/>
       <c r="G2596" t="inlineStr">
         <is>
-          <t>2.876M</t>
-        </is>
-      </c>
-      <c r="H2596" t="n">
-        <v>2</v>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="H2596" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2597">
       <c r="A2597" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2597" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2597" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Business ConfidenceQ4</t>
         </is>
       </c>
       <c r="D2597" t="inlineStr"/>
       <c r="E2597" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F2597" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F2597" t="inlineStr"/>
       <c r="G2597" t="inlineStr">
         <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="H2597" t="n">
-        <v>2</v>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H2597" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2598">
       <c r="A2598" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2598" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2598" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2598" t="inlineStr"/>
-      <c r="E2598" t="inlineStr"/>
-      <c r="F2598" t="inlineStr"/>
-      <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="n">
-        <v>2</v>
+      <c r="E2598" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F2598" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2598" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2598" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2599">
       <c r="A2599" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2599" t="inlineStr">
@@ -83856,315 +84310,389 @@
       </c>
       <c r="C2599" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2599" t="inlineStr"/>
       <c r="E2599" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2599" t="inlineStr"/>
-      <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="n">
-        <v>3</v>
+      <c r="G2599" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H2599" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2600">
       <c r="A2600" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2600" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2600" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2600" t="inlineStr"/>
       <c r="E2600" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F2600" t="inlineStr"/>
-      <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="n">
-        <v>3</v>
+      <c r="G2600" t="inlineStr">
+        <is>
+          <t>$-8.82B</t>
+        </is>
+      </c>
+      <c r="H2600" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2601">
       <c r="A2601" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2601" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2601" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2601" t="inlineStr"/>
       <c r="E2601" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2601" t="inlineStr"/>
-      <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="n">
-        <v>3</v>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F2601" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
+      <c r="G2601" t="inlineStr">
+        <is>
+          <t>$ 23.46B</t>
+        </is>
+      </c>
+      <c r="H2601" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2602">
       <c r="A2602" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2602" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2602" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2602" t="inlineStr"/>
       <c r="E2602" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F2602" t="inlineStr"/>
-      <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="n">
-        <v>3</v>
+      <c r="G2602" t="inlineStr">
+        <is>
+          <t>$32.29B</t>
+        </is>
+      </c>
+      <c r="H2602" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2603">
       <c r="A2603" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2603" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2603" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2603" t="inlineStr"/>
       <c r="E2603" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F2603" t="inlineStr"/>
-      <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="n">
-        <v>3</v>
+      <c r="G2603" t="inlineStr">
+        <is>
+          <t>$ 23.5B</t>
+        </is>
+      </c>
+      <c r="H2603" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2604">
       <c r="A2604" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2604" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2604" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2604" t="inlineStr"/>
       <c r="E2604" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2604" t="inlineStr"/>
-      <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="n">
-        <v>3</v>
+      <c r="G2604" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="H2604" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2605">
       <c r="A2605" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2605" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2605" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2605" t="inlineStr"/>
       <c r="E2605" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F2605" t="inlineStr"/>
-      <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="n">
-        <v>3</v>
+      <c r="G2605" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="H2605" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2606">
       <c r="A2606" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2606" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2606" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2606" t="inlineStr"/>
       <c r="E2606" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2606" t="inlineStr"/>
-      <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="n">
-        <v>3</v>
+      <c r="G2606" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H2606" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2607">
       <c r="A2607" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2607" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2607" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2607" t="inlineStr"/>
       <c r="E2607" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2607" t="inlineStr"/>
-      <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2607" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2607" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2607" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2608">
       <c r="A2608" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2608" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2608" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2608" t="inlineStr"/>
       <c r="E2608" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2608" t="inlineStr"/>
-      <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="n">
-        <v>3</v>
+      <c r="G2608" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2608" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2609">
       <c r="A2609" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2609" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2609" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2609" t="inlineStr"/>
       <c r="E2609" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2609" t="inlineStr"/>
-      <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="n">
-        <v>3</v>
+      <c r="G2609" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="H2609" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2610">
       <c r="A2610" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2610" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2610" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2610" t="inlineStr"/>
@@ -84174,63 +84702,71 @@
         </is>
       </c>
       <c r="F2610" t="inlineStr"/>
-      <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="n">
-        <v>3</v>
+      <c r="G2610" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2610" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2611">
       <c r="A2611" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2611" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2611" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2611" t="inlineStr"/>
       <c r="E2611" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2611" t="inlineStr"/>
       <c r="G2611" t="inlineStr">
         <is>
-          <t>€5.0B</t>
-        </is>
-      </c>
-      <c r="H2611" t="n">
-        <v>3</v>
+          <t>-4.3%</t>
+        </is>
+      </c>
+      <c r="H2611" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2612">
       <c r="A2612" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2612" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2612" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2612" t="inlineStr"/>
       <c r="E2612" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2612" t="inlineStr"/>
@@ -84239,30 +84775,32 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="n">
-        <v>3</v>
+      <c r="H2612" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2613">
       <c r="A2613" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2613" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2613" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2613" t="inlineStr"/>
       <c r="E2613" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2613" t="inlineStr"/>
@@ -84271,290 +84809,302 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="n">
-        <v>3</v>
+      <c r="H2613" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2614">
       <c r="A2614" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2614" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2614" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2614" t="inlineStr"/>
       <c r="E2614" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2614" t="inlineStr"/>
-      <c r="G2614" t="inlineStr">
-        <is>
-          <t>INR-9700.0B</t>
-        </is>
-      </c>
-      <c r="H2614" t="n">
-        <v>3</v>
+      <c r="G2614" t="inlineStr"/>
+      <c r="H2614" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2615">
       <c r="A2615" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2615" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2615" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2615" t="inlineStr"/>
       <c r="E2615" t="inlineStr">
         <is>
-          <t>77.7%</t>
-        </is>
-      </c>
-      <c r="F2615" t="inlineStr"/>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="F2615" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
       <c r="G2615" t="inlineStr">
         <is>
-          <t>77.9%</t>
-        </is>
-      </c>
-      <c r="H2615" t="n">
-        <v>3</v>
+          <t>7.0K</t>
+        </is>
+      </c>
+      <c r="H2615" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2616">
       <c r="A2616" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2616" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2616" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2616" t="inlineStr"/>
       <c r="E2616" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2616" t="inlineStr"/>
       <c r="G2616" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
-        </is>
-      </c>
-      <c r="H2616" t="n">
-        <v>3</v>
+          <t>2.876M</t>
+        </is>
+      </c>
+      <c r="H2616" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2617">
       <c r="A2617" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2617" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2617" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2617" t="inlineStr"/>
       <c r="E2617" t="inlineStr">
         <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="F2617" t="inlineStr"/>
-      <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="n">
-        <v>3</v>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="F2617" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+      <c r="G2617" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+      <c r="H2617" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2618">
       <c r="A2618" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2618" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2618" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D2618" t="inlineStr"/>
-      <c r="E2618" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E2618" t="inlineStr"/>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="n">
-        <v>3</v>
+      <c r="H2618" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2619">
       <c r="A2619" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2619" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2619" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2619" t="inlineStr"/>
       <c r="E2619" t="inlineStr">
         <is>
-          <t>$623.98B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="n">
-        <v>3</v>
+      <c r="H2619" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2620">
       <c r="A2620" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2620" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2620" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2620" t="inlineStr"/>
       <c r="E2620" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2620" t="inlineStr"/>
-      <c r="G2620" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="H2620" t="n">
-        <v>3</v>
+      <c r="G2620" t="inlineStr"/>
+      <c r="H2620" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2621">
       <c r="A2621" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2621" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2621" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2621" t="inlineStr"/>
       <c r="E2621" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2621" t="inlineStr"/>
-      <c r="G2621" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="H2621" t="n">
-        <v>2</v>
+      <c r="G2621" t="inlineStr"/>
+      <c r="H2621" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2622">
       <c r="A2622" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2622" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2622" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2622" t="inlineStr"/>
       <c r="E2622" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2622" t="inlineStr"/>
-      <c r="G2622" t="inlineStr">
-        <is>
-          <t>ZAR 27.0B</t>
-        </is>
-      </c>
-      <c r="H2622" t="n">
-        <v>2</v>
+      <c r="G2622" t="inlineStr"/>
+      <c r="H2622" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2623">
       <c r="A2623" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2623" t="inlineStr">
@@ -84564,33 +85114,27 @@
       </c>
       <c r="C2623" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2623" t="inlineStr"/>
       <c r="E2623" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2623" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G2623" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2623" t="n">
-        <v>1</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2623" t="inlineStr"/>
+      <c r="G2623" t="inlineStr"/>
+      <c r="H2623" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2624">
       <c r="A2624" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2624" t="inlineStr">
@@ -84600,33 +85144,27 @@
       </c>
       <c r="C2624" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2624" t="inlineStr"/>
       <c r="E2624" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2624" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2624" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2624" t="n">
-        <v>2</v>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F2624" t="inlineStr"/>
+      <c r="G2624" t="inlineStr"/>
+      <c r="H2624" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2625">
       <c r="A2625" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2625" t="inlineStr">
@@ -84636,29 +85174,27 @@
       </c>
       <c r="C2625" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2625" t="inlineStr"/>
       <c r="E2625" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2625" t="inlineStr"/>
-      <c r="G2625" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2625" t="n">
-        <v>3</v>
+      <c r="G2625" t="inlineStr"/>
+      <c r="H2625" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2626">
       <c r="A2626" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2626" t="inlineStr">
@@ -84668,879 +85204,973 @@
       </c>
       <c r="C2626" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2626" t="inlineStr"/>
       <c r="E2626" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2626" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G2626" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H2626" t="n">
-        <v>3</v>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F2626" t="inlineStr"/>
+      <c r="G2626" t="inlineStr"/>
+      <c r="H2626" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2627">
       <c r="A2627" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2627" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2627" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2627" t="inlineStr"/>
       <c r="E2627" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2627" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2627" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H2627" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2627" t="inlineStr"/>
+      <c r="G2627" t="inlineStr"/>
+      <c r="H2627" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2628">
       <c r="A2628" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2628" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2628" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2628" t="inlineStr"/>
       <c r="E2628" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2628" t="inlineStr"/>
-      <c r="G2628" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2628" t="n">
-        <v>2</v>
+      <c r="G2628" t="inlineStr"/>
+      <c r="H2628" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2629">
       <c r="A2629" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2629" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2629" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2629" t="inlineStr"/>
       <c r="E2629" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2629" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2629" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2629" t="n">
-        <v>1</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2629" t="inlineStr"/>
+      <c r="G2629" t="inlineStr"/>
+      <c r="H2629" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2630">
       <c r="A2630" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2630" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2630" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2630" t="inlineStr"/>
       <c r="E2630" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2630" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2630" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2630" t="n">
-        <v>1</v>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="F2630" t="inlineStr"/>
+      <c r="G2630" t="inlineStr"/>
+      <c r="H2630" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2631">
       <c r="A2631" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2631" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2631" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2631" t="inlineStr"/>
       <c r="E2631" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2631" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>€4.9B</t>
+        </is>
+      </c>
+      <c r="F2631" t="inlineStr"/>
       <c r="G2631" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2631" t="n">
-        <v>1</v>
+          <t>€5.0B</t>
+        </is>
+      </c>
+      <c r="H2631" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2632">
       <c r="A2632" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2632" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2632" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2632" t="inlineStr"/>
       <c r="E2632" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2632" t="inlineStr"/>
       <c r="G2632" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2632" t="n">
-        <v>2</v>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H2632" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2633">
       <c r="A2633" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2633" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2633" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2633" t="inlineStr"/>
       <c r="E2633" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2633" t="inlineStr"/>
       <c r="G2633" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2633" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2633" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2634">
       <c r="A2634" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2634" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2634" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2634" t="inlineStr"/>
       <c r="E2634" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2634" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+          <t>INR-8465.9B</t>
+        </is>
+      </c>
+      <c r="F2634" t="inlineStr"/>
       <c r="G2634" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2634" t="n">
-        <v>2</v>
+          <t>INR-9700.0B</t>
+        </is>
+      </c>
+      <c r="H2634" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2635">
       <c r="A2635" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2635" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2635" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2635" t="inlineStr"/>
-      <c r="E2635" t="inlineStr"/>
+      <c r="E2635" t="inlineStr">
+        <is>
+          <t>77.7%</t>
+        </is>
+      </c>
       <c r="F2635" t="inlineStr"/>
-      <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="n">
-        <v>2</v>
+      <c r="G2635" t="inlineStr">
+        <is>
+          <t>77.9%</t>
+        </is>
+      </c>
+      <c r="H2635" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2636">
       <c r="A2636" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2636" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2636" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2636" t="inlineStr"/>
       <c r="E2636" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2636" t="inlineStr"/>
       <c r="G2636" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2636" t="n">
-        <v>2</v>
+          <t>BRL-103.0B</t>
+        </is>
+      </c>
+      <c r="H2636" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2637">
       <c r="A2637" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2637" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2637" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2637" t="inlineStr"/>
       <c r="E2637" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="F2637" t="inlineStr"/>
-      <c r="G2637" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2637" t="n">
-        <v>2</v>
+      <c r="G2637" t="inlineStr"/>
+      <c r="H2637" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2638">
       <c r="A2638" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2638" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2638" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2638" t="inlineStr"/>
       <c r="E2638" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2638" t="inlineStr"/>
-      <c r="G2638" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H2638" t="n">
-        <v>3</v>
+      <c r="G2638" t="inlineStr"/>
+      <c r="H2638" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2639">
       <c r="A2639" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2639" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2639" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2639" t="inlineStr"/>
       <c r="E2639" t="inlineStr">
         <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2639" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
-      <c r="G2639" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H2639" t="n">
-        <v>2</v>
+          <t>$623.98B</t>
+        </is>
+      </c>
+      <c r="F2639" t="inlineStr"/>
+      <c r="G2639" t="inlineStr"/>
+      <c r="H2639" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2640">
       <c r="A2640" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2640" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2640" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2640" t="inlineStr"/>
       <c r="E2640" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2640" t="inlineStr"/>
       <c r="G2640" t="inlineStr">
         <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H2640" t="n">
-        <v>3</v>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="H2640" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2641">
       <c r="A2641" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2641" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2641" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2641" t="inlineStr"/>
       <c r="E2641" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2641" t="inlineStr"/>
-      <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="n">
-        <v>3</v>
+      <c r="G2641" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="H2641" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2642">
       <c r="A2642" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2642" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2642" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2642" t="inlineStr"/>
       <c r="E2642" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2642" t="inlineStr"/>
-      <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="n">
-        <v>3</v>
+      <c r="G2642" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
+      <c r="H2642" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2643">
-      <c r="A2643" t="inlineStr"/>
+      <c r="A2643" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
       <c r="B2643" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2643" t="inlineStr">
         <is>
-          <t>Fiscal BalanceDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2643" t="inlineStr"/>
       <c r="E2643" t="inlineStr">
         <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2643" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2643" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G2643" t="inlineStr">
         <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
-      <c r="H2643" t="n">
-        <v>3</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H2643" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2644">
-      <c r="A2644" t="inlineStr"/>
+      <c r="A2644" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
       <c r="B2644" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2644" t="inlineStr">
         <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2644" t="inlineStr"/>
       <c r="E2644" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2644" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2644" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G2644" t="inlineStr">
         <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2644" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2644" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2645">
-      <c r="A2645" t="inlineStr"/>
+      <c r="A2645" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
       <c r="B2645" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2645" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2645" t="inlineStr"/>
       <c r="E2645" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2645" t="inlineStr"/>
       <c r="G2645" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H2645" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2645" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2646">
-      <c r="A2646" t="inlineStr"/>
+      <c r="A2646" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
       <c r="B2646" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2646" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2646" t="inlineStr"/>
       <c r="E2646" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2646" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2646" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="G2646" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H2646" t="n">
-        <v>3</v>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H2646" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2647">
-      <c r="A2647" t="inlineStr"/>
+      <c r="A2647" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B2647" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2647" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2647" t="inlineStr"/>
       <c r="E2647" t="inlineStr">
         <is>
-          <t>28.8%</t>
-        </is>
-      </c>
-      <c r="F2647" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2647" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G2647" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2647" t="n">
-        <v>3</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="H2647" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2648">
-      <c r="A2648" t="inlineStr"/>
+      <c r="A2648" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B2648" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2648" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2648" t="inlineStr"/>
       <c r="E2648" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2648" t="inlineStr"/>
       <c r="G2648" t="inlineStr">
         <is>
-          <t>-4.0%</t>
-        </is>
-      </c>
-      <c r="H2648" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2648" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2649">
-      <c r="A2649" t="inlineStr"/>
+      <c r="A2649" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B2649" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2649" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2649" t="inlineStr"/>
       <c r="E2649" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2649" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2649" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2649" t="inlineStr">
         <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2649" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2649" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2650">
       <c r="A2650" t="inlineStr">
         <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2650" t="inlineStr"/>
-      <c r="C2650" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B2650" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2650" t="inlineStr">
+        <is>
+          <t>Personal Income MoMDEC</t>
+        </is>
+      </c>
       <c r="D2650" t="inlineStr"/>
-      <c r="E2650" t="inlineStr"/>
-      <c r="F2650" t="inlineStr"/>
-      <c r="G2650" t="inlineStr"/>
-      <c r="H2650" t="inlineStr"/>
+      <c r="E2650" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2650" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2650" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2650" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="2651">
       <c r="A2651" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2651" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2651" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2651" t="inlineStr"/>
       <c r="E2651" t="inlineStr">
         <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F2651" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2651" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G2651" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2651" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2651" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2652">
       <c r="A2652" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2652" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2652" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2652" t="inlineStr"/>
       <c r="E2652" t="inlineStr">
         <is>
-          <t>$6.49B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2652" t="inlineStr"/>
       <c r="G2652" t="inlineStr">
         <is>
-          <t>$0.9B</t>
-        </is>
-      </c>
-      <c r="H2652" t="n">
-        <v>3</v>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H2652" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2653">
       <c r="A2653" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2653" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2653" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2653" t="inlineStr"/>
       <c r="E2653" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2653" t="inlineStr"/>
       <c r="G2653" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2653" t="n">
-        <v>3</v>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H2653" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2654" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2654" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2654" t="inlineStr"/>
       <c r="E2654" t="inlineStr">
         <is>
-          <t>1.03%</t>
-        </is>
-      </c>
-      <c r="F2654" t="inlineStr"/>
-      <c r="G2654" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2654" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="G2654" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2654" t="inlineStr">
         <is>
           <t>2</t>
@@ -85550,25 +86180,21 @@
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
-      <c r="E2655" t="inlineStr">
-        <is>
-          <t>44.38%</t>
-        </is>
-      </c>
+      <c r="E2655" t="inlineStr"/>
       <c r="F2655" t="inlineStr"/>
       <c r="G2655" t="inlineStr"/>
       <c r="H2655" t="inlineStr">
@@ -85580,87 +86206,99 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr"/>
+      <c r="G2656" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2656" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr"/>
+      <c r="G2657" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2657" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>28.52%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr"/>
+      <c r="G2658" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -85670,27 +86308,35 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
       <c r="E2659" t="inlineStr">
         <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
-      <c r="F2659" t="inlineStr"/>
-      <c r="G2659" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F2659" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="G2659" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H2659" t="inlineStr">
         <is>
           <t>2</t>
@@ -85700,23 +86346,31 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr"/>
+      <c r="E2660" t="inlineStr">
+        <is>
+          <t>C$-1.49B</t>
+        </is>
+      </c>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr"/>
+      <c r="G2660" t="inlineStr">
+        <is>
+          <t>C$-1.9B</t>
+        </is>
+      </c>
       <c r="H2660" t="inlineStr">
         <is>
           <t>3</t>
@@ -85726,145 +86380,125 @@
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
       <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2663">
-      <c r="A2663" t="inlineStr">
-        <is>
-          <t>02:20 PM</t>
-        </is>
-      </c>
+      <c r="A2663" t="inlineStr"/>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr"/>
       <c r="G2663" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>MXN-1120.0B</t>
         </is>
       </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2664">
-      <c r="A2664" t="inlineStr">
-        <is>
-          <t>02:25 PM</t>
-        </is>
-      </c>
+      <c r="A2664" t="inlineStr"/>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr"/>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2665">
-      <c r="A2665" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A2665" t="inlineStr"/>
       <c r="B2665" t="inlineStr">
         <is>
           <t>EA</t>
@@ -85872,57 +86506,49 @@
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2665" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2665" t="inlineStr"/>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2666">
-      <c r="A2666" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A2666" t="inlineStr"/>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
@@ -85932,301 +86558,281 @@
       </c>
     </row>
     <row r="2667">
-      <c r="A2667" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
+      <c r="A2667" t="inlineStr"/>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2667" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+          <t>28.8%</t>
+        </is>
+      </c>
+      <c r="F2667" t="inlineStr"/>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2668">
-      <c r="A2668" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2668" t="inlineStr"/>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr"/>
+      <c r="E2668" t="inlineStr">
+        <is>
+          <t>-4.9%</t>
+        </is>
+      </c>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr"/>
+      <c r="G2668" t="inlineStr">
+        <is>
+          <t>-4.0%</t>
+        </is>
+      </c>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2669">
-      <c r="A2669" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2669" t="inlineStr"/>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr"/>
+      <c r="G2669" t="inlineStr">
+        <is>
+          <t>20.7%</t>
+        </is>
+      </c>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2670" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2670" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FlashJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2670" t="inlineStr"/>
+      <c r="C2670" t="inlineStr"/>
       <c r="D2670" t="inlineStr"/>
       <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
       <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H2670" t="inlineStr"/>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr"/>
+      <c r="G2671" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H2671" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2672" t="inlineStr"/>
-      <c r="G2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr">
+        <is>
+          <t>$0.9B</t>
+        </is>
+      </c>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
-      <c r="G2673" t="inlineStr"/>
+      <c r="G2673" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2674" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2674" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2674" t="inlineStr"/>
+      <c r="C2674" t="inlineStr"/>
       <c r="D2674" t="inlineStr"/>
-      <c r="E2674" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2674" t="inlineStr"/>
       <c r="F2674" t="inlineStr"/>
       <c r="G2674" t="inlineStr"/>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2674" t="inlineStr"/>
     </row>
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
       <c r="G2676" t="inlineStr">
         <is>
-          <t>$ 230B</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2676" t="inlineStr">
@@ -86238,29 +86844,29 @@
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
       <c r="G2677" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H2677" t="inlineStr">
@@ -86272,29 +86878,29 @@
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
       <c r="G2678" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2678" t="inlineStr">
@@ -86306,17 +86912,17 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
@@ -86332,73 +86938,93 @@
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr"/>
+      <c r="E2680" t="inlineStr">
+        <is>
+          <t>-3.6%</t>
+        </is>
+      </c>
       <c r="F2680" t="inlineStr"/>
-      <c r="G2680" t="inlineStr"/>
+      <c r="G2680" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="H2680" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr"/>
+      <c r="E2681" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2681" t="inlineStr"/>
-      <c r="G2681" t="inlineStr"/>
+      <c r="G2681" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
-      <c r="E2682" t="inlineStr"/>
+      <c r="E2682" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
       <c r="H2682" t="inlineStr">
@@ -86410,125 +87036,133 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
       <c r="H2683" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2684" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr"/>
       <c r="G2684" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="H2684" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr"/>
-      <c r="G2685" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
+      <c r="G2685" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="H2685" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F2686" t="inlineStr"/>
-      <c r="G2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H2686" t="inlineStr">
         <is>
           <t>2</t>
@@ -86538,83 +87172,103 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr"/>
+      <c r="E2688" t="inlineStr">
+        <is>
+          <t>1.57%</t>
+        </is>
+      </c>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr"/>
+      <c r="G2688" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H2688" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr"/>
+      <c r="E2689" t="inlineStr">
+        <is>
+          <t>2.26%</t>
+        </is>
+      </c>
       <c r="F2689" t="inlineStr"/>
-      <c r="G2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H2689" t="inlineStr">
         <is>
           <t>3</t>
@@ -86624,23 +87278,31 @@
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
-      <c r="E2690" t="inlineStr"/>
+      <c r="E2690" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
       <c r="F2690" t="inlineStr"/>
-      <c r="G2690" t="inlineStr"/>
+      <c r="G2690" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2690" t="inlineStr">
         <is>
           <t>3</t>
@@ -86650,23 +87312,31 @@
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:15 AM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr"/>
+      <c r="E2691" t="inlineStr">
+        <is>
+          <t>17.27%</t>
+        </is>
+      </c>
       <c r="F2691" t="inlineStr"/>
-      <c r="G2691" t="inlineStr"/>
+      <c r="G2691" t="inlineStr">
+        <is>
+          <t>18.0%</t>
+        </is>
+      </c>
       <c r="H2691" t="inlineStr">
         <is>
           <t>3</t>
@@ -86674,27 +87344,35 @@
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr"/>
+      <c r="A2692" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
       <c r="E2692" t="inlineStr">
         <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2692" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2692" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G2692" t="inlineStr">
         <is>
-          <t>43.0K</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H2692" t="inlineStr">
@@ -86706,35 +87384,55 @@
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr"/>
-      <c r="C2693" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C2693" t="inlineStr">
+        <is>
+          <t>2-Year KTB Auction</t>
+        </is>
+      </c>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr"/>
+      <c r="E2693" t="inlineStr">
+        <is>
+          <t>2.670%</t>
+        </is>
+      </c>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr"/>
+      <c r="H2693" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr"/>
+      <c r="E2694" t="inlineStr">
+        <is>
+          <t>-10.7%</t>
+        </is>
+      </c>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
@@ -86746,111 +87444,115 @@
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>ARS13015B</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
       <c r="G2696" t="inlineStr"/>
       <c r="H2696" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
       <c r="G2697" t="inlineStr"/>
       <c r="H2697" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
-      <c r="E2698" t="inlineStr"/>
+      <c r="E2698" t="inlineStr">
+        <is>
+          <t>49.1</t>
+        </is>
+      </c>
       <c r="F2698" t="inlineStr"/>
       <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
@@ -86862,21 +87564,25 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
-      <c r="E2699" t="inlineStr"/>
+      <c r="E2699" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2699" t="inlineStr"/>
       <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
@@ -86888,23 +87594,23 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>2.705%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
@@ -86918,30 +87624,30 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
       <c r="E2701" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -86953,20 +87659,16 @@
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
+      <c r="E2702" t="inlineStr"/>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -86978,47 +87680,55 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
-      <c r="E2703" t="inlineStr"/>
+      <c r="E2703" t="inlineStr">
+        <is>
+          <t>53.3</t>
+        </is>
+      </c>
       <c r="F2703" t="inlineStr"/>
       <c r="G2703" t="inlineStr"/>
       <c r="H2703" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
-      <c r="E2704" t="inlineStr"/>
+      <c r="E2704" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
@@ -87030,95 +87740,111 @@
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>1.23%</t>
-        </is>
-      </c>
-      <c r="F2705" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2705" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G2705" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>7.59%</t>
-        </is>
-      </c>
-      <c r="F2706" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2706" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2707" t="inlineStr"/>
-      <c r="G2707" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2707" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
+      <c r="G2707" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="H2707" t="inlineStr">
         <is>
           <t>2</t>
@@ -87128,23 +87854,31 @@
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr"/>
+      <c r="E2708" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="F2708" t="inlineStr"/>
-      <c r="G2708" t="inlineStr"/>
+      <c r="G2708" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="H2708" t="inlineStr">
         <is>
           <t>3</t>
@@ -87154,57 +87888,61 @@
     <row r="2709">
       <c r="A2709" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2709" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="G2709" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="H2709" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2710">
       <c r="A2710" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2710" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
-      <c r="G2710" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
+      <c r="G2710" t="inlineStr"/>
       <c r="H2710" t="inlineStr">
         <is>
           <t>1</t>
@@ -87214,31 +87952,27 @@
     <row r="2711">
       <c r="A2711" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2711" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
       <c r="E2711" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2711" t="inlineStr"/>
-      <c r="G2711" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2711" t="inlineStr"/>
       <c r="H2711" t="inlineStr">
         <is>
           <t>2</t>
@@ -87248,55 +87982,51 @@
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2712" t="inlineStr"/>
       <c r="F2712" t="inlineStr"/>
-      <c r="G2712" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2712" t="inlineStr"/>
       <c r="H2712" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
-      <c r="E2713" t="inlineStr"/>
+      <c r="E2713" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2713" t="inlineStr"/>
       <c r="G2713" t="inlineStr"/>
       <c r="H2713" t="inlineStr">
@@ -87308,69 +88038,85 @@
     <row r="2714">
       <c r="A2714" t="inlineStr">
         <is>
-          <t>08:40 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
       <c r="G2714" t="inlineStr"/>
       <c r="H2714" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2715">
-      <c r="A2715" t="inlineStr"/>
+      <c r="A2715" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B2715" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2715" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2715" t="inlineStr"/>
-      <c r="E2715" t="inlineStr"/>
+      <c r="E2715" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
       <c r="H2715" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2716">
-      <c r="A2716" t="inlineStr"/>
+      <c r="A2716" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
-      <c r="E2716" t="inlineStr"/>
+      <c r="E2716" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2716" t="inlineStr"/>
       <c r="G2716" t="inlineStr"/>
       <c r="H2716" t="inlineStr">
@@ -87380,19 +88126,27 @@
       </c>
     </row>
     <row r="2717">
-      <c r="A2717" t="inlineStr"/>
+      <c r="A2717" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr"/>
+      <c r="E2717" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
       <c r="H2717" t="inlineStr">
@@ -87402,25 +88156,33 @@
       </c>
     </row>
     <row r="2718">
-      <c r="A2718" t="inlineStr"/>
+      <c r="A2718" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
-      <c r="G2718" t="inlineStr"/>
+      <c r="G2718" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2718" t="inlineStr">
         <is>
           <t>3</t>
@@ -87430,40 +88192,1258 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr"/>
-      <c r="C2719" t="inlineStr"/>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2719" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
+        </is>
+      </c>
       <c r="D2719" t="inlineStr"/>
-      <c r="E2719" t="inlineStr"/>
+      <c r="E2719" t="inlineStr">
+        <is>
+          <t>50.4</t>
+        </is>
+      </c>
       <c r="F2719" t="inlineStr"/>
-      <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr"/>
+      <c r="G2719" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="H2719" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B2720" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C2720" t="inlineStr">
+        <is>
+          <t>SIPMM Manufacturing PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2720" t="inlineStr"/>
+      <c r="E2720" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2720" t="inlineStr"/>
+      <c r="G2720" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H2720" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B2721" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2721" t="inlineStr">
+        <is>
+          <t>Fed Bostic Speech</t>
+        </is>
+      </c>
+      <c r="D2721" t="inlineStr"/>
+      <c r="E2721" t="inlineStr"/>
+      <c r="F2721" t="inlineStr"/>
+      <c r="G2721" t="inlineStr"/>
+      <c r="H2721" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2722">
+      <c r="A2722" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2722" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2722" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D2722" t="inlineStr"/>
+      <c r="E2722" t="inlineStr"/>
+      <c r="F2722" t="inlineStr"/>
+      <c r="G2722" t="inlineStr"/>
+      <c r="H2722" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2723">
+      <c r="A2723" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2723" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2723" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D2723" t="inlineStr"/>
+      <c r="E2723" t="inlineStr"/>
+      <c r="F2723" t="inlineStr"/>
+      <c r="G2723" t="inlineStr"/>
+      <c r="H2723" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2724">
+      <c r="A2724" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2724" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2724" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D2724" t="inlineStr"/>
+      <c r="E2724" t="inlineStr"/>
+      <c r="F2724" t="inlineStr"/>
+      <c r="G2724" t="inlineStr"/>
+      <c r="H2724" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B2725" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C2725" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2725" t="inlineStr"/>
+      <c r="E2725" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2725" t="inlineStr"/>
+      <c r="G2725" t="inlineStr"/>
+      <c r="H2725" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B2726" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2726" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+        </is>
+      </c>
+      <c r="D2726" t="inlineStr"/>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2726" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2726" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="H2726" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2727">
+      <c r="A2727" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2727" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2727" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2727" t="inlineStr"/>
+      <c r="E2727" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2727" t="inlineStr"/>
+      <c r="G2727" t="inlineStr"/>
+      <c r="H2727" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2728">
+      <c r="A2728" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2728" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2728" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing EmploymentJAN</t>
+        </is>
+      </c>
+      <c r="D2728" t="inlineStr"/>
+      <c r="E2728" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2728" t="inlineStr"/>
+      <c r="G2728" t="inlineStr"/>
+      <c r="H2728" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2729">
+      <c r="A2729" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2729" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2729" t="inlineStr">
+        <is>
+          <t>Construction Spending MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2729" t="inlineStr"/>
+      <c r="E2729" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2729" t="inlineStr"/>
+      <c r="G2729" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2729" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2730">
+      <c r="A2730" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2730" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2730" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing New OrdersJAN</t>
+        </is>
+      </c>
+      <c r="D2730" t="inlineStr"/>
+      <c r="E2730" t="inlineStr"/>
+      <c r="F2730" t="inlineStr"/>
+      <c r="G2730" t="inlineStr"/>
+      <c r="H2730" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2731">
+      <c r="A2731" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2731" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2731" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing PricesJAN</t>
+        </is>
+      </c>
+      <c r="D2731" t="inlineStr"/>
+      <c r="E2731" t="inlineStr"/>
+      <c r="F2731" t="inlineStr"/>
+      <c r="G2731" t="inlineStr"/>
+      <c r="H2731" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B2732" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2732" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D2732" t="inlineStr"/>
+      <c r="E2732" t="inlineStr"/>
+      <c r="F2732" t="inlineStr"/>
+      <c r="G2732" t="inlineStr"/>
+      <c r="H2732" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B2733" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2733" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D2733" t="inlineStr"/>
+      <c r="E2733" t="inlineStr"/>
+      <c r="F2733" t="inlineStr"/>
+      <c r="G2733" t="inlineStr"/>
+      <c r="H2733" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" t="inlineStr"/>
+      <c r="B2734" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C2734" t="inlineStr">
+        <is>
+          <t>Total New Vehicle SalesJAN</t>
+        </is>
+      </c>
+      <c r="D2734" t="inlineStr"/>
+      <c r="E2734" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
+      <c r="F2734" t="inlineStr"/>
+      <c r="G2734" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
+      <c r="H2734" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" t="inlineStr">
+        <is>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2735" t="inlineStr"/>
+      <c r="C2735" t="inlineStr"/>
+      <c r="D2735" t="inlineStr"/>
+      <c r="E2735" t="inlineStr"/>
+      <c r="F2735" t="inlineStr"/>
+      <c r="G2735" t="inlineStr"/>
+      <c r="H2735" t="inlineStr"/>
+    </row>
+    <row r="2736">
+      <c r="A2736" t="inlineStr">
+        <is>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B2736" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2736" t="inlineStr">
+        <is>
+          <t>Treasury Refunding Financing Estimates</t>
+        </is>
+      </c>
+      <c r="D2736" t="inlineStr"/>
+      <c r="E2736" t="inlineStr"/>
+      <c r="F2736" t="inlineStr"/>
+      <c r="G2736" t="inlineStr"/>
+      <c r="H2736" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2737">
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>03:30 AM</t>
+        </is>
+      </c>
+      <c r="B2737" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C2737" t="inlineStr">
+        <is>
+          <t>Tax RevenueJAN</t>
+        </is>
+      </c>
+      <c r="D2737" t="inlineStr"/>
+      <c r="E2737" t="inlineStr">
+        <is>
+          <t>ARS13015B</t>
+        </is>
+      </c>
+      <c r="F2737" t="inlineStr"/>
+      <c r="G2737" t="inlineStr"/>
+      <c r="H2737" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2738">
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>09:05 AM</t>
+        </is>
+      </c>
+      <c r="B2738" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C2738" t="inlineStr">
+        <is>
+          <t>10-Year JGB Auction</t>
+        </is>
+      </c>
+      <c r="D2738" t="inlineStr"/>
+      <c r="E2738" t="inlineStr">
+        <is>
+          <t>1.140%</t>
+        </is>
+      </c>
+      <c r="F2738" t="inlineStr"/>
+      <c r="G2738" t="inlineStr"/>
+      <c r="H2738" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B2739" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="C2739" t="inlineStr">
+        <is>
+          <t>Riyad Bank PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2739" t="inlineStr"/>
+      <c r="E2739" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="F2739" t="inlineStr"/>
+      <c r="G2739" t="inlineStr"/>
+      <c r="H2739" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2740" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C2740" t="inlineStr">
+        <is>
+          <t>MAS 12-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D2740" t="inlineStr"/>
+      <c r="E2740" t="inlineStr"/>
+      <c r="F2740" t="inlineStr"/>
+      <c r="G2740" t="inlineStr"/>
+      <c r="H2740" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2741">
+      <c r="A2741" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>MAS 4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D2741" t="inlineStr"/>
+      <c r="E2741" t="inlineStr"/>
+      <c r="F2741" t="inlineStr"/>
+      <c r="G2741" t="inlineStr"/>
+      <c r="H2741" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2742">
+      <c r="A2742" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2742" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C2742" t="inlineStr">
+        <is>
+          <t>30-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D2742" t="inlineStr"/>
+      <c r="E2742" t="inlineStr">
+        <is>
+          <t>2.705%</t>
+        </is>
+      </c>
+      <c r="F2742" t="inlineStr"/>
+      <c r="G2742" t="inlineStr"/>
+      <c r="H2742" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2743">
+      <c r="A2743" t="inlineStr">
+        <is>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2743" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2743" t="inlineStr">
+        <is>
+          <t>Budget BalanceDEC</t>
+        </is>
+      </c>
+      <c r="D2743" t="inlineStr"/>
+      <c r="E2743" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
+      <c r="F2743" t="inlineStr"/>
+      <c r="G2743" t="inlineStr"/>
+      <c r="H2743" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2744">
+      <c r="A2744" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B2744" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2744" t="inlineStr">
+        <is>
+          <t>IPC-Fipe Inflation MoMJAN</t>
+        </is>
+      </c>
+      <c r="D2744" t="inlineStr"/>
+      <c r="E2744" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F2744" t="inlineStr"/>
+      <c r="G2744" t="inlineStr"/>
+      <c r="H2744" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2745">
+      <c r="A2745" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B2745" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2745" t="inlineStr">
+        <is>
+          <t>5-Year Treasury Gilt Auction</t>
+        </is>
+      </c>
+      <c r="D2745" t="inlineStr"/>
+      <c r="E2745" t="inlineStr"/>
+      <c r="F2745" t="inlineStr"/>
+      <c r="G2745" t="inlineStr"/>
+      <c r="H2745" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2746">
+      <c r="A2746" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B2746" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2746" t="inlineStr">
+        <is>
+          <t>BCB Copom Meeting Minutes</t>
+        </is>
+      </c>
+      <c r="D2746" t="inlineStr"/>
+      <c r="E2746" t="inlineStr"/>
+      <c r="F2746" t="inlineStr"/>
+      <c r="G2746" t="inlineStr"/>
+      <c r="H2746" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2747">
+      <c r="A2747" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B2747" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2747" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2747" t="inlineStr"/>
+      <c r="E2747" t="inlineStr">
+        <is>
+          <t>1.23%</t>
+        </is>
+      </c>
+      <c r="F2747" t="inlineStr"/>
+      <c r="G2747" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2747" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2748">
+      <c r="A2748" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B2748" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2748" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2748" t="inlineStr"/>
+      <c r="E2748" t="inlineStr">
+        <is>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2748" t="inlineStr"/>
+      <c r="G2748" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="H2748" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2749">
+      <c r="A2749" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B2749" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2749" t="inlineStr">
+        <is>
+          <t>Business ConfidenceJAN</t>
+        </is>
+      </c>
+      <c r="D2749" t="inlineStr"/>
+      <c r="E2749" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2749" t="inlineStr"/>
+      <c r="G2749" t="inlineStr"/>
+      <c r="H2749" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2750">
+      <c r="A2750" t="inlineStr">
+        <is>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B2750" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2750" t="inlineStr">
+        <is>
+          <t>Redbook YoYFEB/01</t>
+        </is>
+      </c>
+      <c r="D2750" t="inlineStr"/>
+      <c r="E2750" t="inlineStr"/>
+      <c r="F2750" t="inlineStr"/>
+      <c r="G2750" t="inlineStr"/>
+      <c r="H2750" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2751">
+      <c r="A2751" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2751" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2751" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2751" t="inlineStr"/>
+      <c r="E2751" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="F2751" t="inlineStr"/>
+      <c r="G2751" t="inlineStr"/>
+      <c r="H2751" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="A2752" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2752" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2752" t="inlineStr">
+        <is>
+          <t>JOLTs Job OpeningsDEC</t>
+        </is>
+      </c>
+      <c r="D2752" t="inlineStr"/>
+      <c r="E2752" t="inlineStr"/>
+      <c r="F2752" t="inlineStr"/>
+      <c r="G2752" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
+      <c r="H2752" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="A2753" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2753" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2753" t="inlineStr">
+        <is>
+          <t>Factory Orders MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2753" t="inlineStr"/>
+      <c r="E2753" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="F2753" t="inlineStr"/>
+      <c r="G2753" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H2753" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="A2754" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2754" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2754" t="inlineStr">
+        <is>
+          <t>Factory Orders ex TransportationDEC</t>
+        </is>
+      </c>
+      <c r="D2754" t="inlineStr"/>
+      <c r="E2754" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2754" t="inlineStr"/>
+      <c r="G2754" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H2754" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2755" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2755" t="inlineStr">
+        <is>
+          <t>JOLTs Job QuitsDEC</t>
+        </is>
+      </c>
+      <c r="D2755" t="inlineStr"/>
+      <c r="E2755" t="inlineStr"/>
+      <c r="F2755" t="inlineStr"/>
+      <c r="G2755" t="inlineStr"/>
+      <c r="H2755" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" t="inlineStr">
+        <is>
+          <t>08:40 PM</t>
+        </is>
+      </c>
+      <c r="B2756" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2756" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+        </is>
+      </c>
+      <c r="D2756" t="inlineStr"/>
+      <c r="E2756" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
+      <c r="F2756" t="inlineStr"/>
+      <c r="G2756" t="inlineStr"/>
+      <c r="H2756" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" t="inlineStr"/>
+      <c r="B2757" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2757" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2757" t="inlineStr"/>
+      <c r="E2757" t="inlineStr"/>
+      <c r="F2757" t="inlineStr"/>
+      <c r="G2757" t="inlineStr"/>
+      <c r="H2757" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" t="inlineStr"/>
+      <c r="B2758" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2758" t="inlineStr">
+        <is>
+          <t>Exports PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2758" t="inlineStr"/>
+      <c r="E2758" t="inlineStr"/>
+      <c r="F2758" t="inlineStr"/>
+      <c r="G2758" t="inlineStr"/>
+      <c r="H2758" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" t="inlineStr"/>
+      <c r="B2759" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2759" t="inlineStr">
+        <is>
+          <t>Imports PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2759" t="inlineStr"/>
+      <c r="E2759" t="inlineStr"/>
+      <c r="F2759" t="inlineStr"/>
+      <c r="G2759" t="inlineStr"/>
+      <c r="H2759" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" t="inlineStr"/>
+      <c r="B2760" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2760" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexJAN</t>
+        </is>
+      </c>
+      <c r="D2760" t="inlineStr"/>
+      <c r="E2760" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
+      <c r="F2760" t="inlineStr"/>
+      <c r="G2760" t="inlineStr"/>
+      <c r="H2760" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" t="inlineStr">
+        <is>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2761" t="inlineStr"/>
+      <c r="C2761" t="inlineStr"/>
+      <c r="D2761" t="inlineStr"/>
+      <c r="E2761" t="inlineStr"/>
+      <c r="F2761" t="inlineStr"/>
+      <c r="G2761" t="inlineStr"/>
+      <c r="H2761" t="inlineStr"/>
+    </row>
+    <row r="2762">
+      <c r="A2762" t="inlineStr">
+        <is>
           <t>12:30 AM</t>
         </is>
       </c>
-      <c r="B2720" t="inlineStr">
+      <c r="B2762" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="C2720" t="inlineStr">
+      <c r="C2762" t="inlineStr">
         <is>
           <t>Fed Bostic Speech</t>
         </is>
       </c>
-      <c r="D2720" t="inlineStr"/>
-      <c r="E2720" t="inlineStr"/>
-      <c r="F2720" t="inlineStr"/>
-      <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
+      <c r="D2762" t="inlineStr"/>
+      <c r="E2762" t="inlineStr"/>
+      <c r="F2762" t="inlineStr"/>
+      <c r="G2762" t="inlineStr"/>
+      <c r="H2762" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2763">
+      <c r="A2763" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B2763" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C2763" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN</t>
+        </is>
+      </c>
+      <c r="D2763" t="inlineStr"/>
+      <c r="E2763" t="inlineStr"/>
+      <c r="F2763" t="inlineStr"/>
+      <c r="G2763" t="inlineStr"/>
+      <c r="H2763" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2763"/>
+  <dimension ref="A1:H2746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76589,10 +76589,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2365" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2365" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2366">
@@ -76623,10 +76621,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2366" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2366" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2367">
@@ -76657,10 +76653,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H2367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2368">
@@ -76695,10 +76689,8 @@
           <t>51.7</t>
         </is>
       </c>
-      <c r="H2368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2369">
@@ -76729,10 +76721,8 @@
           <t>115.3</t>
         </is>
       </c>
-      <c r="H2369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2370">
@@ -76767,10 +76757,8 @@
           <t>107</t>
         </is>
       </c>
-      <c r="H2370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2371">
@@ -76797,10 +76785,8 @@
       </c>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr"/>
-      <c r="H2371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2372">
@@ -76827,10 +76813,8 @@
       </c>
       <c r="F2372" t="inlineStr"/>
       <c r="G2372" t="inlineStr"/>
-      <c r="H2372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2373">
@@ -76857,10 +76841,8 @@
       </c>
       <c r="F2373" t="inlineStr"/>
       <c r="G2373" t="inlineStr"/>
-      <c r="H2373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2374">
@@ -76891,10 +76873,8 @@
           <t>99</t>
         </is>
       </c>
-      <c r="H2374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2374" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2375">
@@ -76925,10 +76905,8 @@
           <t>75.8%</t>
         </is>
       </c>
-      <c r="H2375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2376">
@@ -76963,10 +76941,8 @@
           <t>84.5</t>
         </is>
       </c>
-      <c r="H2376" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2376" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2377">
@@ -77001,10 +76977,8 @@
           <t>85.2</t>
         </is>
       </c>
-      <c r="H2377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2378">
@@ -77039,10 +77013,8 @@
           <t>84</t>
         </is>
       </c>
-      <c r="H2378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2379">
@@ -77069,10 +77041,8 @@
       </c>
       <c r="F2379" t="inlineStr"/>
       <c r="G2379" t="inlineStr"/>
-      <c r="H2379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2380">
@@ -77099,10 +77069,8 @@
       </c>
       <c r="F2380" t="inlineStr"/>
       <c r="G2380" t="inlineStr"/>
-      <c r="H2380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2381">
@@ -77133,10 +77101,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H2381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2382">
@@ -77167,10 +77133,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H2382" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2382" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2383">
@@ -77201,10 +77165,8 @@
           <t>2875K</t>
         </is>
       </c>
-      <c r="H2383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2384">
@@ -77235,10 +77197,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2385">
@@ -77269,10 +77229,8 @@
           <t>$ 0.4B</t>
         </is>
       </c>
-      <c r="H2385" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2385" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2386">
@@ -77303,10 +77261,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2387">
@@ -77337,10 +77293,8 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H2387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2388">
@@ -77367,10 +77321,8 @@
       </c>
       <c r="F2388" t="inlineStr"/>
       <c r="G2388" t="inlineStr"/>
-      <c r="H2388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2389">
@@ -77397,10 +77349,8 @@
       </c>
       <c r="F2389" t="inlineStr"/>
       <c r="G2389" t="inlineStr"/>
-      <c r="H2389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2390">
@@ -77427,10 +77377,8 @@
       </c>
       <c r="F2390" t="inlineStr"/>
       <c r="G2390" t="inlineStr"/>
-      <c r="H2390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2391">
@@ -77465,10 +77413,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H2391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2392">
@@ -77499,10 +77445,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H2392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2393">
@@ -77533,10 +77477,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H2393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2394">
@@ -77559,10 +77501,8 @@
       <c r="E2394" t="inlineStr"/>
       <c r="F2394" t="inlineStr"/>
       <c r="G2394" t="inlineStr"/>
-      <c r="H2394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2395">
@@ -77589,10 +77529,8 @@
       </c>
       <c r="F2395" t="inlineStr"/>
       <c r="G2395" t="inlineStr"/>
-      <c r="H2395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2396">
@@ -77619,10 +77557,8 @@
       </c>
       <c r="F2396" t="inlineStr"/>
       <c r="G2396" t="inlineStr"/>
-      <c r="H2396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2397">
@@ -77649,10 +77585,8 @@
       </c>
       <c r="F2397" t="inlineStr"/>
       <c r="G2397" t="inlineStr"/>
-      <c r="H2397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2398">
@@ -77679,10 +77613,8 @@
       </c>
       <c r="F2398" t="inlineStr"/>
       <c r="G2398" t="inlineStr"/>
-      <c r="H2398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2399">
@@ -77705,10 +77637,8 @@
       </c>
       <c r="F2399" t="inlineStr"/>
       <c r="G2399" t="inlineStr"/>
-      <c r="H2399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2400">
@@ -77735,10 +77665,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H2400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2401">
@@ -77757,10 +77685,8 @@
       <c r="E2401" t="inlineStr"/>
       <c r="F2401" t="inlineStr"/>
       <c r="G2401" t="inlineStr"/>
-      <c r="H2401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2402">
@@ -77791,10 +77717,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H2402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2403">
@@ -77825,10 +77749,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2404">
@@ -77855,10 +77777,8 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H2404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2405">
@@ -77903,10 +77823,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H2406" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2406" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2407">
@@ -77937,10 +77855,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H2407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2408">
@@ -77967,10 +77883,8 @@
       </c>
       <c r="F2408" t="inlineStr"/>
       <c r="G2408" t="inlineStr"/>
-      <c r="H2408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2409">
@@ -78001,10 +77915,8 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2410">
@@ -78035,10 +77947,8 @@
           <t>-4.1%</t>
         </is>
       </c>
-      <c r="H2410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2411">
@@ -78069,10 +77979,8 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2412">
@@ -78103,10 +78011,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2413">
@@ -78141,10 +78047,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H2413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2414">
@@ -78179,10 +78083,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2415">
@@ -78209,10 +78111,8 @@
       </c>
       <c r="F2415" t="inlineStr"/>
       <c r="G2415" t="inlineStr"/>
-      <c r="H2415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2416">
@@ -78239,10 +78139,8 @@
       </c>
       <c r="F2416" t="inlineStr"/>
       <c r="G2416" t="inlineStr"/>
-      <c r="H2416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2417">
@@ -78269,10 +78167,8 @@
       </c>
       <c r="F2417" t="inlineStr"/>
       <c r="G2417" t="inlineStr"/>
-      <c r="H2417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2418">
@@ -78299,10 +78195,8 @@
       </c>
       <c r="F2418" t="inlineStr"/>
       <c r="G2418" t="inlineStr"/>
-      <c r="H2418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2419">
@@ -78329,10 +78223,8 @@
       </c>
       <c r="F2419" t="inlineStr"/>
       <c r="G2419" t="inlineStr"/>
-      <c r="H2419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2420">
@@ -78367,10 +78259,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2420" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2420" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2421">
@@ -78405,10 +78295,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2422">
@@ -78439,10 +78327,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2423">
@@ -78473,10 +78359,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2424">
@@ -78503,10 +78387,8 @@
       </c>
       <c r="F2424" t="inlineStr"/>
       <c r="G2424" t="inlineStr"/>
-      <c r="H2424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2425">
@@ -78541,10 +78423,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H2425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2426">
@@ -78575,10 +78455,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H2426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2427">
@@ -78613,10 +78491,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2428">
@@ -78647,10 +78523,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H2428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2429">
@@ -78681,10 +78555,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2430">
@@ -78707,10 +78579,8 @@
       <c r="E2430" t="inlineStr"/>
       <c r="F2430" t="inlineStr"/>
       <c r="G2430" t="inlineStr"/>
-      <c r="H2430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2431">
@@ -78745,10 +78615,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H2431" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2431" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2432">
@@ -78783,10 +78651,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H2432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2433">
@@ -78817,10 +78683,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H2433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2434">
@@ -78851,10 +78715,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H2434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2435">
@@ -78885,10 +78747,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H2435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2436">
@@ -78919,10 +78779,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H2436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2437">
@@ -78949,10 +78807,8 @@
       </c>
       <c r="F2437" t="inlineStr"/>
       <c r="G2437" t="inlineStr"/>
-      <c r="H2437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2438">
@@ -78979,10 +78835,8 @@
       </c>
       <c r="F2438" t="inlineStr"/>
       <c r="G2438" t="inlineStr"/>
-      <c r="H2438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2439">
@@ -79005,10 +78859,8 @@
       <c r="E2439" t="inlineStr"/>
       <c r="F2439" t="inlineStr"/>
       <c r="G2439" t="inlineStr"/>
-      <c r="H2439" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2439" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2440">
@@ -79035,10 +78887,8 @@
       </c>
       <c r="F2440" t="inlineStr"/>
       <c r="G2440" t="inlineStr"/>
-      <c r="H2440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2441">
@@ -79065,10 +78915,8 @@
       </c>
       <c r="F2441" t="inlineStr"/>
       <c r="G2441" t="inlineStr"/>
-      <c r="H2441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2442">
@@ -79109,10 +78957,8 @@
       </c>
       <c r="F2443" t="inlineStr"/>
       <c r="G2443" t="inlineStr"/>
-      <c r="H2443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2443" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2444">
@@ -79135,10 +78981,8 @@
       <c r="E2444" t="inlineStr"/>
       <c r="F2444" t="inlineStr"/>
       <c r="G2444" t="inlineStr"/>
-      <c r="H2444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2444" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2445">
@@ -79173,10 +79017,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2445" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2445" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2446">
@@ -79211,10 +79053,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2446" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2446" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2447">
@@ -79249,10 +79089,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2447" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2447" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2448">
@@ -79287,10 +79125,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2448" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2448" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2449">
@@ -79325,10 +79161,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2449" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2449" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2450">
@@ -79359,10 +79193,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H2450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2451">
@@ -79397,10 +79229,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2452">
@@ -79435,10 +79265,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2453">
@@ -79465,10 +79293,8 @@
       </c>
       <c r="F2453" t="inlineStr"/>
       <c r="G2453" t="inlineStr"/>
-      <c r="H2453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2454">
@@ -79503,10 +79329,8 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H2454" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2454" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2455">
@@ -79541,10 +79365,8 @@
           <t>-21</t>
         </is>
       </c>
-      <c r="H2455" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2455" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2456">
@@ -79579,10 +79401,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2456" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2456" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2457">
@@ -79613,10 +79433,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H2457" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2457" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2458">
@@ -79647,10 +79465,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2459">
@@ -79685,10 +79501,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H2459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2460">
@@ -79723,10 +79537,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2461">
@@ -79757,10 +79569,8 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H2461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2461" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2462">
@@ -79791,10 +79601,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H2462" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2462" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2463">
@@ -79821,10 +79629,8 @@
       </c>
       <c r="F2463" t="inlineStr"/>
       <c r="G2463" t="inlineStr"/>
-      <c r="H2463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2464">
@@ -79851,10 +79657,8 @@
       </c>
       <c r="F2464" t="inlineStr"/>
       <c r="G2464" t="inlineStr"/>
-      <c r="H2464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2465">
@@ -79881,10 +79685,8 @@
       </c>
       <c r="F2465" t="inlineStr"/>
       <c r="G2465" t="inlineStr"/>
-      <c r="H2465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2466">
@@ -79915,10 +79717,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H2466" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2466" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2467">
@@ -79945,10 +79745,8 @@
       </c>
       <c r="F2467" t="inlineStr"/>
       <c r="G2467" t="inlineStr"/>
-      <c r="H2467" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2467" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2468">
@@ -79975,10 +79773,8 @@
       </c>
       <c r="F2468" t="inlineStr"/>
       <c r="G2468" t="inlineStr"/>
-      <c r="H2468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2469">
@@ -80005,10 +79801,8 @@
       </c>
       <c r="F2469" t="inlineStr"/>
       <c r="G2469" t="inlineStr"/>
-      <c r="H2469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2470">
@@ -80035,10 +79829,8 @@
       </c>
       <c r="F2470" t="inlineStr"/>
       <c r="G2470" t="inlineStr"/>
-      <c r="H2470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2471">
@@ -80065,10 +79857,8 @@
       </c>
       <c r="F2471" t="inlineStr"/>
       <c r="G2471" t="inlineStr"/>
-      <c r="H2471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2472">
@@ -80103,10 +79893,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H2472" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2472" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2473">
@@ -80137,10 +79925,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2473" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2474">
@@ -80175,10 +79961,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2474" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2475">
@@ -80213,10 +79997,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2475" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2475" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2476">
@@ -80239,10 +80021,8 @@
       <c r="E2476" t="inlineStr"/>
       <c r="F2476" t="inlineStr"/>
       <c r="G2476" t="inlineStr"/>
-      <c r="H2476" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2476" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2477">
@@ -80265,10 +80045,8 @@
       <c r="E2477" t="inlineStr"/>
       <c r="F2477" t="inlineStr"/>
       <c r="G2477" t="inlineStr"/>
-      <c r="H2477" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2477" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2478">
@@ -80295,10 +80073,8 @@
       </c>
       <c r="F2478" t="inlineStr"/>
       <c r="G2478" t="inlineStr"/>
-      <c r="H2478" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2478" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2479">
@@ -80325,10 +80101,8 @@
       </c>
       <c r="F2479" t="inlineStr"/>
       <c r="G2479" t="inlineStr"/>
-      <c r="H2479" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2479" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2480">
@@ -80355,10 +80129,8 @@
       </c>
       <c r="F2480" t="inlineStr"/>
       <c r="G2480" t="inlineStr"/>
-      <c r="H2480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2481">
@@ -80385,10 +80157,8 @@
       </c>
       <c r="F2481" t="inlineStr"/>
       <c r="G2481" t="inlineStr"/>
-      <c r="H2481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2482">
@@ -80415,10 +80185,8 @@
       </c>
       <c r="F2482" t="inlineStr"/>
       <c r="G2482" t="inlineStr"/>
-      <c r="H2482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2483">
@@ -80445,10 +80213,8 @@
       </c>
       <c r="F2483" t="inlineStr"/>
       <c r="G2483" t="inlineStr"/>
-      <c r="H2483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2484">
@@ -80475,10 +80241,8 @@
       </c>
       <c r="F2484" t="inlineStr"/>
       <c r="G2484" t="inlineStr"/>
-      <c r="H2484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2485">
@@ -80505,10 +80269,8 @@
       </c>
       <c r="F2485" t="inlineStr"/>
       <c r="G2485" t="inlineStr"/>
-      <c r="H2485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2486">
@@ -80535,10 +80297,8 @@
       </c>
       <c r="F2486" t="inlineStr"/>
       <c r="G2486" t="inlineStr"/>
-      <c r="H2486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2487">
@@ -80569,10 +80329,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2488">
@@ -80603,10 +80361,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H2488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2489">
@@ -80633,10 +80389,8 @@
       </c>
       <c r="F2489" t="inlineStr"/>
       <c r="G2489" t="inlineStr"/>
-      <c r="H2489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2490">
@@ -80685,10 +80439,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2491" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2491" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2492">
@@ -80711,10 +80463,8 @@
       <c r="E2492" t="inlineStr"/>
       <c r="F2492" t="inlineStr"/>
       <c r="G2492" t="inlineStr"/>
-      <c r="H2492" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2492" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2493">
@@ -80745,10 +80495,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H2493" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2493" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2494">
@@ -80775,10 +80523,8 @@
       </c>
       <c r="F2494" t="inlineStr"/>
       <c r="G2494" t="inlineStr"/>
-      <c r="H2494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2495">
@@ -80805,10 +80551,8 @@
       </c>
       <c r="F2495" t="inlineStr"/>
       <c r="G2495" t="inlineStr"/>
-      <c r="H2495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2496">
@@ -80839,10 +80583,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H2496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2497">
@@ -80865,10 +80607,8 @@
       <c r="E2497" t="inlineStr"/>
       <c r="F2497" t="inlineStr"/>
       <c r="G2497" t="inlineStr"/>
-      <c r="H2497" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2497" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2498">
@@ -80899,10 +80639,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H2498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2499">
@@ -80937,10 +80675,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2500">
@@ -80963,10 +80699,8 @@
       <c r="E2500" t="inlineStr"/>
       <c r="F2500" t="inlineStr"/>
       <c r="G2500" t="inlineStr"/>
-      <c r="H2500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2500" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2501">
@@ -80997,10 +80731,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2501" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2502">
@@ -81027,10 +80759,8 @@
       </c>
       <c r="F2502" t="inlineStr"/>
       <c r="G2502" t="inlineStr"/>
-      <c r="H2502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2503">
@@ -81061,10 +80791,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2504">
@@ -81087,10 +80815,8 @@
       <c r="E2504" t="inlineStr"/>
       <c r="F2504" t="inlineStr"/>
       <c r="G2504" t="inlineStr"/>
-      <c r="H2504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2504" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2505">
@@ -81125,10 +80851,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2505" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2505" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2506">
@@ -81159,10 +80883,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2506" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2507">
@@ -81197,10 +80919,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2508">
@@ -81235,10 +80955,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2509">
@@ -81269,10 +80987,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2510">
@@ -81303,10 +81019,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2511">
@@ -81337,10 +81051,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2511" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2512">
@@ -81375,10 +81087,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2512" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2513">
@@ -81409,10 +81119,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2514">
@@ -81443,10 +81151,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2515">
@@ -81477,10 +81183,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2516">
@@ -81515,10 +81219,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2516" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2516" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2517">
@@ -81553,10 +81255,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2517" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2517" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2518">
@@ -81591,10 +81291,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2518" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2518" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2519">
@@ -81625,10 +81323,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2519" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2519" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2520">
@@ -81659,10 +81355,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2521">
@@ -81693,10 +81387,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2522">
@@ -81727,10 +81419,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H2522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2522" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2523">
@@ -81765,10 +81455,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H2523" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2523" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2524">
@@ -81799,10 +81487,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2524" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2525">
@@ -81837,10 +81523,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2526">
@@ -81875,10 +81559,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H2526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2527">
@@ -81913,10 +81595,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2527" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2527" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2528">
@@ -81951,10 +81631,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2528" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2528" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2529">
@@ -81985,10 +81663,8 @@
         </is>
       </c>
       <c r="G2529" t="inlineStr"/>
-      <c r="H2529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2529" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2530">
@@ -82023,10 +81699,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2530" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2531">
@@ -82061,10 +81735,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2532">
@@ -82095,10 +81767,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2533">
@@ -82129,10 +81799,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2534">
@@ -82163,10 +81831,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2535">
@@ -82197,10 +81863,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2536">
@@ -82235,10 +81899,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H2536" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2536" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2537">
@@ -82261,10 +81923,8 @@
       <c r="E2537" t="inlineStr"/>
       <c r="F2537" t="inlineStr"/>
       <c r="G2537" t="inlineStr"/>
-      <c r="H2537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2538">
@@ -82295,10 +81955,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2539">
@@ -82329,10 +81987,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2540">
@@ -82363,10 +82019,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2541">
@@ -82389,10 +82043,8 @@
       <c r="E2541" t="inlineStr"/>
       <c r="F2541" t="inlineStr"/>
       <c r="G2541" t="inlineStr"/>
-      <c r="H2541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2541" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2542">
@@ -82419,10 +82071,8 @@
       </c>
       <c r="F2542" t="inlineStr"/>
       <c r="G2542" t="inlineStr"/>
-      <c r="H2542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2543">
@@ -82453,10 +82103,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2544">
@@ -82487,10 +82135,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2544" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2545">
@@ -82521,10 +82167,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2545" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2546">
@@ -82555,10 +82199,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2546" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2547">
@@ -82593,10 +82235,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H2547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2548">
@@ -82627,10 +82267,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2549">
@@ -82665,10 +82303,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2549" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2549" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2550">
@@ -82703,10 +82339,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2550" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2550" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2551">
@@ -82737,10 +82371,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2552">
@@ -82771,10 +82403,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2553">
@@ -82809,10 +82439,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2553" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2553" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2554">
@@ -82847,10 +82475,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2554" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2554" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2555">
@@ -82885,10 +82511,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2555" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2555" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2556">
@@ -82919,10 +82543,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2557">
@@ -82953,10 +82575,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2558">
@@ -82987,10 +82607,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2559">
@@ -83021,10 +82639,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2560">
@@ -83055,10 +82671,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2561">
@@ -83089,10 +82703,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2562">
@@ -83115,10 +82727,8 @@
       <c r="E2562" t="inlineStr"/>
       <c r="F2562" t="inlineStr"/>
       <c r="G2562" t="inlineStr"/>
-      <c r="H2562" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2562" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2563">
@@ -83153,10 +82763,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2563" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2563" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2564">
@@ -83187,10 +82795,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2564" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2564" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2565">
@@ -83217,10 +82823,8 @@
       </c>
       <c r="F2565" t="inlineStr"/>
       <c r="G2565" t="inlineStr"/>
-      <c r="H2565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2566">
@@ -83247,10 +82851,8 @@
       </c>
       <c r="F2566" t="inlineStr"/>
       <c r="G2566" t="inlineStr"/>
-      <c r="H2566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2567">
@@ -83277,10 +82879,8 @@
       </c>
       <c r="F2567" t="inlineStr"/>
       <c r="G2567" t="inlineStr"/>
-      <c r="H2567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2568">
@@ -83307,10 +82907,8 @@
       </c>
       <c r="F2568" t="inlineStr"/>
       <c r="G2568" t="inlineStr"/>
-      <c r="H2568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2569">
@@ -83337,10 +82935,8 @@
       </c>
       <c r="F2569" t="inlineStr"/>
       <c r="G2569" t="inlineStr"/>
-      <c r="H2569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2570">
@@ -83367,10 +82963,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H2570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2571">
@@ -83397,10 +82991,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2572">
@@ -83427,10 +83019,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2573">
@@ -83453,10 +83043,8 @@
       </c>
       <c r="F2573" t="inlineStr"/>
       <c r="G2573" t="inlineStr"/>
-      <c r="H2573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2574">
@@ -83479,10 +83067,8 @@
       </c>
       <c r="F2574" t="inlineStr"/>
       <c r="G2574" t="inlineStr"/>
-      <c r="H2574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2575">
@@ -83509,50 +83095,72 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2576">
       <c r="A2576" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2576" t="inlineStr"/>
-      <c r="C2576" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C2576" t="inlineStr">
+        <is>
+          <t>Construction Orders YoYDEC</t>
+        </is>
+      </c>
       <c r="D2576" t="inlineStr"/>
-      <c r="E2576" t="inlineStr"/>
+      <c r="E2576" t="inlineStr">
+        <is>
+          <t>-10.2%</t>
+        </is>
+      </c>
       <c r="F2576" t="inlineStr"/>
-      <c r="G2576" t="inlineStr"/>
-      <c r="H2576" t="inlineStr"/>
+      <c r="G2576" t="inlineStr">
+        <is>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="H2576" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2577">
       <c r="A2577" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2577" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2577" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Business ConfidenceQ4</t>
         </is>
       </c>
       <c r="D2577" t="inlineStr"/>
       <c r="E2577" t="inlineStr">
         <is>
-          <t>$6.88T</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2577" t="inlineStr"/>
-      <c r="G2577" t="inlineStr"/>
+      <c r="G2577" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="H2577" t="inlineStr">
         <is>
           <t>3</t>
@@ -83562,33 +83170,33 @@
     <row r="2578">
       <c r="A2578" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2578" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2578" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2578" t="inlineStr"/>
       <c r="E2578" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2578" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G2578" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2578" t="inlineStr">
@@ -83600,105 +83208,101 @@
     <row r="2579">
       <c r="A2579" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2579" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2579" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2579" t="inlineStr"/>
       <c r="E2579" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F2579" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F2579" t="inlineStr"/>
       <c r="G2579" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H2579" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2580">
       <c r="A2580" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2580" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2580" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2580" t="inlineStr"/>
       <c r="E2580" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2580" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>$-7.46B</t>
+        </is>
+      </c>
+      <c r="F2580" t="inlineStr"/>
       <c r="G2580" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>$-8.82B</t>
         </is>
       </c>
       <c r="H2580" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2581">
       <c r="A2581" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2581" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2581" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2581" t="inlineStr"/>
       <c r="E2581" t="inlineStr">
         <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F2581" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F2581" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
       <c r="G2581" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>$ 23.46B</t>
         </is>
       </c>
       <c r="H2581" t="inlineStr">
@@ -83710,29 +83314,29 @@
     <row r="2582">
       <c r="A2582" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2582" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2582" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2582" t="inlineStr"/>
       <c r="E2582" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F2582" t="inlineStr"/>
       <c r="G2582" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$32.29B</t>
         </is>
       </c>
       <c r="H2582" t="inlineStr">
@@ -83744,71 +83348,63 @@
     <row r="2583">
       <c r="A2583" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2583" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2583" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2583" t="inlineStr"/>
       <c r="E2583" t="inlineStr">
         <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
-      <c r="F2583" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>$23.22B</t>
+        </is>
+      </c>
+      <c r="F2583" t="inlineStr"/>
       <c r="G2583" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$ 23.5B</t>
         </is>
       </c>
       <c r="H2583" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2584">
       <c r="A2584" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2584" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2584" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2584" t="inlineStr"/>
       <c r="E2584" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2584" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="F2584" t="inlineStr"/>
       <c r="G2584" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="H2584" t="inlineStr">
@@ -83820,97 +83416,101 @@
     <row r="2585">
       <c r="A2585" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2585" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2585" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2585" t="inlineStr"/>
       <c r="E2585" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F2585" t="inlineStr"/>
       <c r="G2585" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2585" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2586">
       <c r="A2586" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2586" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2586" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2586" t="inlineStr"/>
       <c r="E2586" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2586" t="inlineStr"/>
       <c r="G2586" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2586" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2587">
       <c r="A2587" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2587" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2587" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2587" t="inlineStr"/>
       <c r="E2587" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F2587" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2587" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G2587" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2587" t="inlineStr">
@@ -83922,33 +83522,29 @@
     <row r="2588">
       <c r="A2588" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2588" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2588" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2588" t="inlineStr"/>
       <c r="E2588" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2588" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2588" t="inlineStr"/>
       <c r="G2588" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2588" t="inlineStr">
@@ -83960,29 +83556,29 @@
     <row r="2589">
       <c r="A2589" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2589" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2589" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2589" t="inlineStr"/>
       <c r="E2589" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2589" t="inlineStr"/>
       <c r="G2589" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H2589" t="inlineStr">
@@ -83994,29 +83590,29 @@
     <row r="2590">
       <c r="A2590" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2590" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2590" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2590" t="inlineStr"/>
       <c r="E2590" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2590" t="inlineStr"/>
       <c r="G2590" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2590" t="inlineStr">
@@ -84028,29 +83624,29 @@
     <row r="2591">
       <c r="A2591" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2591" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2591" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2591" t="inlineStr"/>
       <c r="E2591" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2591" t="inlineStr"/>
       <c r="G2591" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H2591" t="inlineStr">
@@ -84062,29 +83658,29 @@
     <row r="2592">
       <c r="A2592" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2592" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2592" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2592" t="inlineStr"/>
       <c r="E2592" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2592" t="inlineStr"/>
       <c r="G2592" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2592" t="inlineStr">
@@ -84096,27 +83692,31 @@
     <row r="2593">
       <c r="A2593" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2593" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2593" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2593" t="inlineStr"/>
       <c r="E2593" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2593" t="inlineStr"/>
-      <c r="G2593" t="inlineStr"/>
+      <c r="G2593" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2593" t="inlineStr">
         <is>
           <t>3</t>
@@ -84126,23 +83726,23 @@
     <row r="2594">
       <c r="A2594" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2594" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2594" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2594" t="inlineStr"/>
       <c r="E2594" t="inlineStr">
         <is>
-          <t>0.3657%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2594" t="inlineStr"/>
@@ -84156,141 +83756,133 @@
     <row r="2595">
       <c r="A2595" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2595" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2595" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2595" t="inlineStr"/>
       <c r="E2595" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F2595" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>15K</t>
         </is>
       </c>
       <c r="G2595" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>7.0K</t>
         </is>
       </c>
       <c r="H2595" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2596">
       <c r="A2596" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2596" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2596" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2596" t="inlineStr"/>
       <c r="E2596" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2596" t="inlineStr"/>
       <c r="G2596" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H2596" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2597">
       <c r="A2597" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2597" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2597" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2597" t="inlineStr"/>
       <c r="E2597" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F2597" t="inlineStr"/>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="F2597" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G2597" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H2597" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2598">
       <c r="A2598" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2598" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2598" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D2598" t="inlineStr"/>
-      <c r="E2598" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2598" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2598" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2598" t="inlineStr"/>
+      <c r="F2598" t="inlineStr"/>
+      <c r="G2598" t="inlineStr"/>
       <c r="H2598" t="inlineStr">
         <is>
           <t>2</t>
@@ -84300,7 +83892,7 @@
     <row r="2599">
       <c r="A2599" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2599" t="inlineStr">
@@ -84310,93 +83902,77 @@
       </c>
       <c r="C2599" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2599" t="inlineStr"/>
       <c r="E2599" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2599" t="inlineStr"/>
-      <c r="G2599" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2599" t="inlineStr"/>
       <c r="H2599" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2600">
       <c r="A2600" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2600" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2600" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2600" t="inlineStr"/>
       <c r="E2600" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2600" t="inlineStr"/>
-      <c r="G2600" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2600" t="inlineStr"/>
       <c r="H2600" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2601">
       <c r="A2601" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2601" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2601" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2601" t="inlineStr"/>
       <c r="E2601" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2601" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2601" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2601" t="inlineStr"/>
+      <c r="G2601" t="inlineStr"/>
       <c r="H2601" t="inlineStr">
         <is>
           <t>3</t>
@@ -84406,31 +83982,27 @@
     <row r="2602">
       <c r="A2602" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2602" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2602" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2602" t="inlineStr"/>
       <c r="E2602" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2602" t="inlineStr"/>
-      <c r="G2602" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2602" t="inlineStr"/>
       <c r="H2602" t="inlineStr">
         <is>
           <t>3</t>
@@ -84440,31 +84012,27 @@
     <row r="2603">
       <c r="A2603" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2603" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2603" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2603" t="inlineStr"/>
       <c r="E2603" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2603" t="inlineStr"/>
-      <c r="G2603" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2603" t="inlineStr"/>
       <c r="H2603" t="inlineStr">
         <is>
           <t>3</t>
@@ -84474,171 +84042,147 @@
     <row r="2604">
       <c r="A2604" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2604" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2604" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2604" t="inlineStr"/>
       <c r="E2604" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2604" t="inlineStr"/>
-      <c r="G2604" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2604" t="inlineStr"/>
       <c r="H2604" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2605">
       <c r="A2605" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2605" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2605" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2605" t="inlineStr"/>
       <c r="E2605" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2605" t="inlineStr"/>
-      <c r="G2605" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2605" t="inlineStr"/>
       <c r="H2605" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2606">
       <c r="A2606" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2606" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2606" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2606" t="inlineStr"/>
       <c r="E2606" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2606" t="inlineStr"/>
-      <c r="G2606" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2606" t="inlineStr"/>
       <c r="H2606" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2607">
       <c r="A2607" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2607" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2607" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2607" t="inlineStr"/>
       <c r="E2607" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2607" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2607" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2607" t="inlineStr"/>
+      <c r="G2607" t="inlineStr"/>
       <c r="H2607" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2608">
       <c r="A2608" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2608" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2608" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2608" t="inlineStr"/>
       <c r="E2608" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2608" t="inlineStr"/>
-      <c r="G2608" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2608" t="inlineStr"/>
       <c r="H2608" t="inlineStr">
         <is>
           <t>3</t>
@@ -84648,31 +84192,27 @@
     <row r="2609">
       <c r="A2609" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2609" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2609" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2609" t="inlineStr"/>
       <c r="E2609" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2609" t="inlineStr"/>
-      <c r="G2609" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
+      <c r="G2609" t="inlineStr"/>
       <c r="H2609" t="inlineStr">
         <is>
           <t>3</t>
@@ -84682,17 +84222,17 @@
     <row r="2610">
       <c r="A2610" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2610" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2610" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2610" t="inlineStr"/>
@@ -84702,11 +84242,7 @@
         </is>
       </c>
       <c r="F2610" t="inlineStr"/>
-      <c r="G2610" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2610" t="inlineStr"/>
       <c r="H2610" t="inlineStr">
         <is>
           <t>3</t>
@@ -84716,29 +84252,29 @@
     <row r="2611">
       <c r="A2611" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2611" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2611" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2611" t="inlineStr"/>
       <c r="E2611" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2611" t="inlineStr"/>
       <c r="G2611" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H2611" t="inlineStr">
@@ -84750,23 +84286,23 @@
     <row r="2612">
       <c r="A2612" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2612" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2612" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2612" t="inlineStr"/>
       <c r="E2612" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2612" t="inlineStr"/>
@@ -84784,23 +84320,23 @@
     <row r="2613">
       <c r="A2613" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2613" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2613" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2613" t="inlineStr"/>
       <c r="E2613" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2613" t="inlineStr"/>
@@ -84818,27 +84354,31 @@
     <row r="2614">
       <c r="A2614" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2614" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2614" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2614" t="inlineStr"/>
       <c r="E2614" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2614" t="inlineStr"/>
-      <c r="G2614" t="inlineStr"/>
+      <c r="G2614" t="inlineStr">
+        <is>
+          <t>INR-9700.0B</t>
+        </is>
+      </c>
       <c r="H2614" t="inlineStr">
         <is>
           <t>3</t>
@@ -84848,159 +84388,151 @@
     <row r="2615">
       <c r="A2615" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2615" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2615" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2615" t="inlineStr"/>
       <c r="E2615" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F2615" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+          <t>77.7%</t>
+        </is>
+      </c>
+      <c r="F2615" t="inlineStr"/>
       <c r="G2615" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2615" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2616">
       <c r="A2616" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2616" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2616" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2616" t="inlineStr"/>
       <c r="E2616" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2616" t="inlineStr"/>
       <c r="G2616" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2616" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2617">
       <c r="A2617" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2617" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2617" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2617" t="inlineStr"/>
       <c r="E2617" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F2617" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="G2617" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="F2617" t="inlineStr"/>
+      <c r="G2617" t="inlineStr"/>
       <c r="H2617" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2618">
       <c r="A2618" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2618" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2618" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2618" t="inlineStr"/>
-      <c r="E2618" t="inlineStr"/>
+      <c r="E2618" t="inlineStr">
+        <is>
+          <t>9.8%</t>
+        </is>
+      </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
       <c r="H2618" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2619">
       <c r="A2619" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2619" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2619" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2619" t="inlineStr"/>
       <c r="E2619" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$623.98B</t>
         </is>
       </c>
       <c r="F2619" t="inlineStr"/>
@@ -85014,27 +84546,31 @@
     <row r="2620">
       <c r="A2620" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2620" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2620" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2620" t="inlineStr"/>
       <c r="E2620" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2620" t="inlineStr"/>
-      <c r="G2620" t="inlineStr"/>
+      <c r="G2620" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="H2620" t="inlineStr">
         <is>
           <t>3</t>
@@ -85044,67 +84580,75 @@
     <row r="2621">
       <c r="A2621" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2621" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2621" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2621" t="inlineStr"/>
       <c r="E2621" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2621" t="inlineStr"/>
-      <c r="G2621" t="inlineStr"/>
+      <c r="G2621" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H2621" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2622">
       <c r="A2622" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2622" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2622" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2622" t="inlineStr"/>
       <c r="E2622" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2622" t="inlineStr"/>
-      <c r="G2622" t="inlineStr"/>
+      <c r="G2622" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
       <c r="H2622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2623">
       <c r="A2623" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2623" t="inlineStr">
@@ -85114,27 +84658,35 @@
       </c>
       <c r="C2623" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2623" t="inlineStr"/>
       <c r="E2623" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2623" t="inlineStr"/>
-      <c r="G2623" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2623" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G2623" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2623" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2624">
       <c r="A2624" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2624" t="inlineStr">
@@ -85144,27 +84696,35 @@
       </c>
       <c r="C2624" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2624" t="inlineStr"/>
       <c r="E2624" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2624" t="inlineStr"/>
-      <c r="G2624" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2624" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2624" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2624" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2625">
       <c r="A2625" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2625" t="inlineStr">
@@ -85174,17 +84734,21 @@
       </c>
       <c r="C2625" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2625" t="inlineStr"/>
       <c r="E2625" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2625" t="inlineStr"/>
-      <c r="G2625" t="inlineStr"/>
+      <c r="G2625" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2625" t="inlineStr">
         <is>
           <t>3</t>
@@ -85194,7 +84758,7 @@
     <row r="2626">
       <c r="A2626" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2626" t="inlineStr">
@@ -85204,17 +84768,25 @@
       </c>
       <c r="C2626" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2626" t="inlineStr"/>
       <c r="E2626" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2626" t="inlineStr"/>
-      <c r="G2626" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2626" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G2626" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2626" t="inlineStr">
         <is>
           <t>3</t>
@@ -85224,381 +84796,417 @@
     <row r="2627">
       <c r="A2627" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2627" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2627" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2627" t="inlineStr"/>
       <c r="E2627" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2627" t="inlineStr"/>
-      <c r="G2627" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2627" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2627" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2627" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2628">
       <c r="A2628" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2628" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2628" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2628" t="inlineStr"/>
       <c r="E2628" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2628" t="inlineStr"/>
-      <c r="G2628" t="inlineStr"/>
+      <c r="G2628" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2628" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2629">
       <c r="A2629" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2629" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2629" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2629" t="inlineStr"/>
       <c r="E2629" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2629" t="inlineStr"/>
-      <c r="G2629" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2629" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2629" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2630">
       <c r="A2630" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2630" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2630" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2630" t="inlineStr"/>
       <c r="E2630" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2630" t="inlineStr"/>
-      <c r="G2630" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2630" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2630" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2630" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2631">
       <c r="A2631" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2631" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2631" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2631" t="inlineStr"/>
       <c r="E2631" t="inlineStr">
         <is>
-          <t>€4.9B</t>
-        </is>
-      </c>
-      <c r="F2631" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2631" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G2631" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2631" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2632">
       <c r="A2632" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2632" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2632" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2632" t="inlineStr"/>
       <c r="E2632" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2632" t="inlineStr"/>
       <c r="G2632" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2632" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2633">
       <c r="A2633" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2633" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2633" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2633" t="inlineStr"/>
       <c r="E2633" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2633" t="inlineStr"/>
       <c r="G2633" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2633" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2634">
       <c r="A2634" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2634" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2634" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2634" t="inlineStr"/>
       <c r="E2634" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
-        </is>
-      </c>
-      <c r="F2634" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2634" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G2634" t="inlineStr">
         <is>
-          <t>INR-9700.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2634" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2635">
       <c r="A2635" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2635" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2635" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2635" t="inlineStr"/>
-      <c r="E2635" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+      <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
-      <c r="G2635" t="inlineStr">
-        <is>
-          <t>77.9%</t>
-        </is>
-      </c>
+      <c r="G2635" t="inlineStr"/>
       <c r="H2635" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2636">
       <c r="A2636" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2636" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2636" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2636" t="inlineStr"/>
       <c r="E2636" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2636" t="inlineStr"/>
       <c r="G2636" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2636" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2637">
       <c r="A2637" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2637" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2637" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2637" t="inlineStr"/>
       <c r="E2637" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2637" t="inlineStr"/>
-      <c r="G2637" t="inlineStr"/>
+      <c r="G2637" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2637" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2638">
       <c r="A2638" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2638" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2638" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2638" t="inlineStr"/>
       <c r="E2638" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2638" t="inlineStr"/>
-      <c r="G2638" t="inlineStr"/>
+      <c r="G2638" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2638" t="inlineStr">
         <is>
           <t>3</t>
@@ -85608,59 +85216,67 @@
     <row r="2639">
       <c r="A2639" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2639" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2639" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2639" t="inlineStr"/>
       <c r="E2639" t="inlineStr">
         <is>
-          <t>$623.98B</t>
-        </is>
-      </c>
-      <c r="F2639" t="inlineStr"/>
-      <c r="G2639" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F2639" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="G2639" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H2639" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2640">
       <c r="A2640" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2640" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2640" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2640" t="inlineStr"/>
       <c r="E2640" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2640" t="inlineStr"/>
       <c r="G2640" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2640" t="inlineStr">
@@ -85672,173 +85288,145 @@
     <row r="2641">
       <c r="A2641" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2641" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2641" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2641" t="inlineStr"/>
       <c r="E2641" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F2641" t="inlineStr"/>
-      <c r="G2641" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2641" t="inlineStr"/>
       <c r="H2641" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2642">
       <c r="A2642" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2642" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2642" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2642" t="inlineStr"/>
       <c r="E2642" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F2642" t="inlineStr"/>
-      <c r="G2642" t="inlineStr">
-        <is>
-          <t>ZAR 27.0B</t>
-        </is>
-      </c>
+      <c r="G2642" t="inlineStr"/>
       <c r="H2642" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2643">
-      <c r="A2643" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2643" t="inlineStr"/>
       <c r="B2643" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2643" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2643" t="inlineStr"/>
       <c r="E2643" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2643" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
+      <c r="F2643" t="inlineStr"/>
       <c r="G2643" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>MXN-1120.0B</t>
         </is>
       </c>
       <c r="H2643" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2644">
-      <c r="A2644" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2644" t="inlineStr"/>
       <c r="B2644" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2644" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2644" t="inlineStr"/>
       <c r="E2644" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2644" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2644" t="inlineStr"/>
       <c r="G2644" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2644" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2645">
-      <c r="A2645" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2645" t="inlineStr"/>
       <c r="B2645" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2645" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D2645" t="inlineStr"/>
       <c r="E2645" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2645" t="inlineStr"/>
       <c r="G2645" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2645" t="inlineStr">
@@ -85848,35 +85436,27 @@
       </c>
     </row>
     <row r="2646">
-      <c r="A2646" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2646" t="inlineStr"/>
       <c r="B2646" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2646" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2646" t="inlineStr"/>
       <c r="E2646" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2646" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F2646" t="inlineStr"/>
       <c r="G2646" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2646" t="inlineStr">
@@ -85886,315 +85466,247 @@
       </c>
     </row>
     <row r="2647">
-      <c r="A2647" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2647" t="inlineStr"/>
       <c r="B2647" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2647" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2647" t="inlineStr"/>
       <c r="E2647" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2647" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>28.8%</t>
+        </is>
+      </c>
+      <c r="F2647" t="inlineStr"/>
       <c r="G2647" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2647" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2648">
-      <c r="A2648" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2648" t="inlineStr"/>
       <c r="B2648" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2648" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2648" t="inlineStr"/>
       <c r="E2648" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2648" t="inlineStr"/>
       <c r="G2648" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H2648" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2649">
-      <c r="A2649" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2649" t="inlineStr"/>
       <c r="B2649" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2649" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2649" t="inlineStr"/>
       <c r="E2649" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2649" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F2649" t="inlineStr"/>
       <c r="G2649" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2649" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2650">
       <c r="A2650" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2650" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2650" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2650" t="inlineStr"/>
+      <c r="C2650" t="inlineStr"/>
       <c r="D2650" t="inlineStr"/>
-      <c r="E2650" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2650" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2650" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2650" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E2650" t="inlineStr"/>
+      <c r="F2650" t="inlineStr"/>
+      <c r="G2650" t="inlineStr"/>
+      <c r="H2650" t="inlineStr"/>
     </row>
     <row r="2651">
       <c r="A2651" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2651" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2651" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2651" t="inlineStr"/>
       <c r="E2651" t="inlineStr">
         <is>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="F2651" t="inlineStr"/>
+      <c r="G2651" t="inlineStr">
+        <is>
           <t>0.4%</t>
         </is>
       </c>
-      <c r="F2651" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2651" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
       <c r="H2651" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2652">
       <c r="A2652" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2652" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2652" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2652" t="inlineStr"/>
       <c r="E2652" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2652" t="inlineStr"/>
       <c r="G2652" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H2652" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2653">
       <c r="A2653" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2653" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2653" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2653" t="inlineStr"/>
       <c r="E2653" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2653" t="inlineStr"/>
       <c r="G2653" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2653" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2654" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr"/>
+      <c r="C2654" t="inlineStr"/>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2654" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="G2654" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E2654" t="inlineStr"/>
+      <c r="F2654" t="inlineStr"/>
+      <c r="G2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr"/>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
-      <c r="E2655" t="inlineStr"/>
+      <c r="E2655" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
       <c r="F2655" t="inlineStr"/>
       <c r="G2655" t="inlineStr"/>
       <c r="H2655" t="inlineStr">
@@ -86206,97 +85718,97 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
       <c r="G2656" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2656" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
       <c r="G2657" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H2657" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
       <c r="G2658" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2658" t="inlineStr">
@@ -86308,35 +85820,23 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2659" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
-      <c r="G2659" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
+      <c r="E2659" t="inlineStr"/>
+      <c r="F2659" t="inlineStr"/>
+      <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
         <is>
           <t>2</t>
@@ -86346,87 +85846,91 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
       <c r="E2660" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F2660" t="inlineStr"/>
       <c r="G2660" t="inlineStr">
         <is>
-          <t>C$-1.9B</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr"/>
+      <c r="G2661" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2661" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
@@ -86438,29 +85942,29 @@
       </c>
     </row>
     <row r="2663">
-      <c r="A2663" t="inlineStr"/>
+      <c r="A2663" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Fiscal BalanceDEC</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>MXN-1064.93B</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
+      <c r="G2663" t="inlineStr"/>
       <c r="H2663" t="inlineStr">
         <is>
           <t>3</t>
@@ -86468,27 +85972,31 @@
       </c>
     </row>
     <row r="2664">
-      <c r="A2664" t="inlineStr"/>
+      <c r="A2664" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2664" t="inlineStr"/>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
@@ -86498,147 +86006,175 @@
       </c>
     </row>
     <row r="2665">
-      <c r="A2665" t="inlineStr"/>
+      <c r="A2665" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2665" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2665" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2666">
-      <c r="A2666" t="inlineStr"/>
+      <c r="A2666" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2667">
-      <c r="A2667" t="inlineStr"/>
+      <c r="A2667" t="inlineStr">
+        <is>
+          <t>07:15 AM</t>
+        </is>
+      </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>28.8%</t>
-        </is>
-      </c>
-      <c r="F2667" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F2667" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2668">
-      <c r="A2668" t="inlineStr"/>
+      <c r="A2668" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
       <c r="E2668" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F2668" t="inlineStr"/>
       <c r="G2668" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2669">
-      <c r="A2669" t="inlineStr"/>
+      <c r="A2669" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
       <c r="G2669" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H2669" t="inlineStr">
@@ -86650,77 +86186,101 @@
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2670" t="inlineStr"/>
-      <c r="C2670" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2670" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C2670" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr"/>
+      <c r="E2670" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr"/>
+      <c r="G2670" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2670" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:15 AM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="H2671" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G2672" t="inlineStr">
         <is>
-          <t>$0.9B</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H2672" t="inlineStr">
@@ -86732,7 +86292,7 @@
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
@@ -86742,21 +86302,17 @@
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>2-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.670%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
-      <c r="G2673" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
           <t>3</t>
@@ -86766,37 +86322,53 @@
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2674" t="inlineStr"/>
-      <c r="C2674" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B2674" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2674" t="inlineStr">
+        <is>
+          <t>Commodity Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="D2674" t="inlineStr"/>
-      <c r="E2674" t="inlineStr"/>
+      <c r="E2674" t="inlineStr">
+        <is>
+          <t>-10.7%</t>
+        </is>
+      </c>
       <c r="F2674" t="inlineStr"/>
       <c r="G2674" t="inlineStr"/>
-      <c r="H2674" t="inlineStr"/>
+      <c r="H2674" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
@@ -86810,99 +86382,87 @@
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2676" t="inlineStr"/>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2677" t="inlineStr"/>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2678" t="inlineStr"/>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86912,91 +86472,87 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr"/>
+      <c r="E2679" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
       <c r="E2680" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2680" t="inlineStr"/>
-      <c r="G2680" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
       <c r="E2681" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2681" t="inlineStr"/>
-      <c r="G2681" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
           <t>2</t>
@@ -87006,25 +86562,21 @@
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
-      <c r="E2682" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E2682" t="inlineStr"/>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
       <c r="H2682" t="inlineStr">
@@ -87036,97 +86588,93 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
       <c r="H2683" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="G2684" t="inlineStr"/>
       <c r="H2684" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F2685" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G2685" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H2685" t="inlineStr">
@@ -87138,29 +86686,33 @@
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2686" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2686" t="inlineStr">
@@ -87172,235 +86724,215 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2687" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
       <c r="E2688" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2688" t="inlineStr"/>
       <c r="G2688" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2688" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
       <c r="E2689" t="inlineStr">
         <is>
-          <t>2.26%</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2689" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2689" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
-      <c r="E2690" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2690" t="inlineStr"/>
       <c r="F2690" t="inlineStr"/>
-      <c r="G2690" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
       <c r="E2691" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2691" t="inlineStr"/>
-      <c r="G2691" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2692">
       <c r="A2692" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2692" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2692" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+      <c r="E2692" t="inlineStr"/>
+      <c r="F2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr"/>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2693" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2693" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2693" t="inlineStr"/>
       <c r="E2693" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2693" t="inlineStr"/>
@@ -87414,53 +86946,53 @@
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
       <c r="E2694" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
@@ -87474,87 +87006,91 @@
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
       <c r="G2696" t="inlineStr"/>
       <c r="H2696" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
       <c r="G2697" t="inlineStr"/>
       <c r="H2697" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
       <c r="E2698" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr"/>
+      <c r="G2698" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87564,27 +87100,31 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
       <c r="E2699" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr"/>
+      <c r="G2699" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87594,27 +87134,31 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>28.52%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr"/>
+      <c r="G2700" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87624,25 +87168,21 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2701" t="inlineStr"/>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
@@ -87654,17 +87194,17 @@
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
@@ -87680,95 +87220,79 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
-      <c r="E2703" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E2703" t="inlineStr"/>
       <c r="F2703" t="inlineStr"/>
       <c r="G2703" t="inlineStr"/>
       <c r="H2703" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
-      <c r="E2704" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2704" t="inlineStr"/>
       <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2705" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2705" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr"/>
       <c r="H2705" t="inlineStr">
         <is>
           <t>2</t>
@@ -87778,33 +87302,33 @@
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F2706" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
@@ -87816,127 +87340,111 @@
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2707" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2707" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2707" t="inlineStr"/>
+      <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
       <c r="E2708" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="F2708" t="inlineStr"/>
-      <c r="G2708" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2709">
       <c r="A2709" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2709" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2709" t="inlineStr"/>
       <c r="G2709" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2709" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2710">
       <c r="A2710" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2710" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
@@ -87945,54 +87453,50 @@
       <c r="G2710" t="inlineStr"/>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2711">
       <c r="A2711" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2711" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2711" t="inlineStr"/>
       <c r="F2711" t="inlineStr"/>
       <c r="G2711" t="inlineStr"/>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
@@ -88001,32 +87505,28 @@
       <c r="G2712" t="inlineStr"/>
       <c r="H2712" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
-      <c r="E2713" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2713" t="inlineStr"/>
       <c r="F2713" t="inlineStr"/>
       <c r="G2713" t="inlineStr"/>
       <c r="H2713" t="inlineStr">
@@ -88036,87 +87536,67 @@
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2714" t="inlineStr"/>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr"/>
+      <c r="G2714" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2714" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2715">
       <c r="A2715" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2715" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2715" t="inlineStr"/>
+      <c r="C2715" t="inlineStr"/>
       <c r="D2715" t="inlineStr"/>
-      <c r="E2715" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H2715" t="inlineStr"/>
     </row>
     <row r="2716">
       <c r="A2716" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
-      <c r="E2716" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2716" t="inlineStr"/>
       <c r="F2716" t="inlineStr"/>
       <c r="G2716" t="inlineStr"/>
       <c r="H2716" t="inlineStr">
@@ -88128,23 +87608,23 @@
     <row r="2717">
       <c r="A2717" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
       <c r="E2717" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2717" t="inlineStr"/>
@@ -88158,31 +87638,27 @@
     <row r="2718">
       <c r="A2718" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
-      <c r="G2718" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2718" t="inlineStr"/>
       <c r="H2718" t="inlineStr">
         <is>
           <t>3</t>
@@ -88192,31 +87668,27 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2719" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2719" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2719" t="inlineStr"/>
       <c r="E2719" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2719" t="inlineStr"/>
-      <c r="G2719" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2719" t="inlineStr"/>
       <c r="H2719" t="inlineStr">
         <is>
           <t>3</t>
@@ -88226,7 +87698,7 @@
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2720" t="inlineStr">
@@ -88236,21 +87708,13 @@
       </c>
       <c r="C2720" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2720" t="inlineStr"/>
-      <c r="E2720" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="E2720" t="inlineStr"/>
       <c r="F2720" t="inlineStr"/>
-      <c r="G2720" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2720" t="inlineStr"/>
       <c r="H2720" t="inlineStr">
         <is>
           <t>3</t>
@@ -88260,17 +87724,17 @@
     <row r="2721">
       <c r="A2721" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2721" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2721" t="inlineStr"/>
@@ -88279,28 +87743,32 @@
       <c r="G2721" t="inlineStr"/>
       <c r="H2721" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2722">
       <c r="A2722" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2722" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr"/>
+      <c r="E2722" t="inlineStr">
+        <is>
+          <t>2.705%</t>
+        </is>
+      </c>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
       <c r="H2722" t="inlineStr">
@@ -88312,7 +87780,7 @@
     <row r="2723">
       <c r="A2723" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2723" t="inlineStr">
@@ -88322,11 +87790,15 @@
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr"/>
+      <c r="E2723" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
       <c r="H2723" t="inlineStr">
@@ -88338,21 +87810,25 @@
     <row r="2724">
       <c r="A2724" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr"/>
+      <c r="E2724" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
       <c r="H2724" t="inlineStr">
@@ -88364,65 +87840,49 @@
     <row r="2725">
       <c r="A2725" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2725" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2725" t="inlineStr"/>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
       <c r="H2725" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2726">
       <c r="A2726" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2726" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2726" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2726" t="inlineStr"/>
+      <c r="F2726" t="inlineStr"/>
+      <c r="G2726" t="inlineStr"/>
       <c r="H2726" t="inlineStr">
         <is>
           <t>2</t>
@@ -88432,101 +87892,105 @@
     <row r="2727">
       <c r="A2727" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2727" t="inlineStr"/>
       <c r="E2727" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2727" t="inlineStr"/>
-      <c r="G2727" t="inlineStr"/>
+      <c r="G2727" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2727" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2728">
       <c r="A2728" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2728" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2728" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2728" t="inlineStr"/>
       <c r="E2728" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr"/>
+      <c r="G2728" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2728" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2729">
       <c r="A2729" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2729" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2729" t="inlineStr"/>
       <c r="E2729" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2729" t="inlineStr"/>
       <c r="H2729" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2730">
       <c r="A2730" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2730" t="inlineStr">
@@ -88536,7 +88000,7 @@
       </c>
       <c r="C2730" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2730" t="inlineStr"/>
@@ -88557,16 +88021,20 @@
       </c>
       <c r="B2731" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2731" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2731" t="inlineStr"/>
-      <c r="E2731" t="inlineStr"/>
+      <c r="E2731" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="F2731" t="inlineStr"/>
       <c r="G2731" t="inlineStr"/>
       <c r="H2731" t="inlineStr">
@@ -88578,7 +88046,7 @@
     <row r="2732">
       <c r="A2732" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2732" t="inlineStr">
@@ -88588,23 +88056,27 @@
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2732" t="inlineStr"/>
       <c r="E2732" t="inlineStr"/>
       <c r="F2732" t="inlineStr"/>
-      <c r="G2732" t="inlineStr"/>
+      <c r="G2732" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2732" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2733">
       <c r="A2733" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2733" t="inlineStr">
@@ -88614,41 +88086,53 @@
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2733" t="inlineStr"/>
-      <c r="E2733" t="inlineStr"/>
+      <c r="E2733" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2733" t="inlineStr"/>
-      <c r="G2733" t="inlineStr"/>
+      <c r="G2733" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2733" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2734">
-      <c r="A2734" t="inlineStr"/>
+      <c r="A2734" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
       <c r="B2734" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2734" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2734" t="inlineStr"/>
       <c r="E2734" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr">
         <is>
-          <t>43.0K</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H2734" t="inlineStr">
@@ -88660,21 +88144,33 @@
     <row r="2735">
       <c r="A2735" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2735" t="inlineStr"/>
-      <c r="C2735" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2735" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2735" t="inlineStr">
+        <is>
+          <t>JOLTs Job QuitsDEC</t>
+        </is>
+      </c>
       <c r="D2735" t="inlineStr"/>
       <c r="E2735" t="inlineStr"/>
       <c r="F2735" t="inlineStr"/>
       <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr"/>
+      <c r="H2735" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2736">
       <c r="A2736" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>08:40 PM</t>
         </is>
       </c>
       <c r="B2736" t="inlineStr">
@@ -88684,11 +88180,15 @@
       </c>
       <c r="C2736" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr"/>
+      <c r="E2736" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2736" t="inlineStr"/>
       <c r="G2736" t="inlineStr"/>
       <c r="H2736" t="inlineStr">
@@ -88698,27 +88198,19 @@
       </c>
     </row>
     <row r="2737">
-      <c r="A2737" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2737" t="inlineStr"/>
       <c r="B2737" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2737" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2737" t="inlineStr"/>
       <c r="F2737" t="inlineStr"/>
       <c r="G2737" t="inlineStr"/>
       <c r="H2737" t="inlineStr">
@@ -88728,27 +88220,19 @@
       </c>
     </row>
     <row r="2738">
-      <c r="A2738" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A2738" t="inlineStr"/>
       <c r="B2738" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2738" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
+      <c r="E2738" t="inlineStr"/>
       <c r="F2738" t="inlineStr"/>
       <c r="G2738" t="inlineStr"/>
       <c r="H2738" t="inlineStr">
@@ -88758,27 +88242,19 @@
       </c>
     </row>
     <row r="2739">
-      <c r="A2739" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
+      <c r="A2739" t="inlineStr"/>
       <c r="B2739" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2739" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2739" t="inlineStr"/>
       <c r="F2739" t="inlineStr"/>
       <c r="G2739" t="inlineStr"/>
       <c r="H2739" t="inlineStr">
@@ -88788,23 +88264,23 @@
       </c>
     </row>
     <row r="2740">
-      <c r="A2740" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A2740" t="inlineStr"/>
       <c r="B2740" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2740" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2740" t="inlineStr"/>
-      <c r="E2740" t="inlineStr"/>
+      <c r="E2740" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2740" t="inlineStr"/>
       <c r="G2740" t="inlineStr"/>
       <c r="H2740" t="inlineStr">
@@ -88816,81 +88292,61 @@
     <row r="2741">
       <c r="A2741" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2741" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2741" t="inlineStr"/>
+      <c r="C2741" t="inlineStr"/>
       <c r="D2741" t="inlineStr"/>
       <c r="E2741" t="inlineStr"/>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2741" t="inlineStr"/>
     </row>
     <row r="2742">
       <c r="A2742" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2742" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2742" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2742" t="inlineStr"/>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
       <c r="H2742" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2743">
       <c r="A2743" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2743" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2743" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
+      <c r="E2743" t="inlineStr"/>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
       <c r="H2743" t="inlineStr">
@@ -88902,47 +88358,43 @@
     <row r="2744">
       <c r="A2744" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2744" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2744" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2744" t="inlineStr"/>
-      <c r="E2744" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
+      <c r="E2744" t="inlineStr"/>
       <c r="F2744" t="inlineStr"/>
       <c r="G2744" t="inlineStr"/>
       <c r="H2744" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2745">
       <c r="A2745" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2745" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2745" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2745" t="inlineStr"/>
@@ -88951,24 +88403,24 @@
       <c r="G2745" t="inlineStr"/>
       <c r="H2745" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2746">
       <c r="A2746" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2746" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2746" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2746" t="inlineStr"/>
@@ -88977,472 +88429,6 @@
       <c r="G2746" t="inlineStr"/>
       <c r="H2746" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2747">
-      <c r="A2747" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2747" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2747" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2747" t="inlineStr"/>
-      <c r="E2747" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
-      <c r="F2747" t="inlineStr"/>
-      <c r="G2747" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2748">
-      <c r="A2748" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2748" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2748" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2748" t="inlineStr"/>
-      <c r="E2748" t="inlineStr">
-        <is>
-          <t>7.59%</t>
-        </is>
-      </c>
-      <c r="F2748" t="inlineStr"/>
-      <c r="G2748" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2749">
-      <c r="A2749" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2749" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2749" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2749" t="inlineStr"/>
-      <c r="E2749" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2749" t="inlineStr"/>
-      <c r="G2749" t="inlineStr"/>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2750">
-      <c r="A2750" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B2750" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2750" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/01</t>
-        </is>
-      </c>
-      <c r="D2750" t="inlineStr"/>
-      <c r="E2750" t="inlineStr"/>
-      <c r="F2750" t="inlineStr"/>
-      <c r="G2750" t="inlineStr"/>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2751">
-      <c r="A2751" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2751" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2751" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2751" t="inlineStr"/>
-      <c r="E2751" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="F2751" t="inlineStr"/>
-      <c r="G2751" t="inlineStr"/>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2752">
-      <c r="A2752" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2752" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2752" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsDEC</t>
-        </is>
-      </c>
-      <c r="D2752" t="inlineStr"/>
-      <c r="E2752" t="inlineStr"/>
-      <c r="F2752" t="inlineStr"/>
-      <c r="G2752" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2753">
-      <c r="A2753" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2753" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2753" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2753" t="inlineStr"/>
-      <c r="E2753" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F2753" t="inlineStr"/>
-      <c r="G2753" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2754">
-      <c r="A2754" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2754" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2754" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationDEC</t>
-        </is>
-      </c>
-      <c r="D2754" t="inlineStr"/>
-      <c r="E2754" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2754" t="inlineStr"/>
-      <c r="G2754" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2755">
-      <c r="A2755" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2755" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2755" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsDEC</t>
-        </is>
-      </c>
-      <c r="D2755" t="inlineStr"/>
-      <c r="E2755" t="inlineStr"/>
-      <c r="F2755" t="inlineStr"/>
-      <c r="G2755" t="inlineStr"/>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2756">
-      <c r="A2756" t="inlineStr">
-        <is>
-          <t>08:40 PM</t>
-        </is>
-      </c>
-      <c r="B2756" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2756" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="D2756" t="inlineStr"/>
-      <c r="E2756" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
-      <c r="F2756" t="inlineStr"/>
-      <c r="G2756" t="inlineStr"/>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2757">
-      <c r="A2757" t="inlineStr"/>
-      <c r="B2757" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2757" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2757" t="inlineStr"/>
-      <c r="E2757" t="inlineStr"/>
-      <c r="F2757" t="inlineStr"/>
-      <c r="G2757" t="inlineStr"/>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2758">
-      <c r="A2758" t="inlineStr"/>
-      <c r="B2758" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2758" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2758" t="inlineStr"/>
-      <c r="E2758" t="inlineStr"/>
-      <c r="F2758" t="inlineStr"/>
-      <c r="G2758" t="inlineStr"/>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2759">
-      <c r="A2759" t="inlineStr"/>
-      <c r="B2759" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2759" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2759" t="inlineStr"/>
-      <c r="E2759" t="inlineStr"/>
-      <c r="F2759" t="inlineStr"/>
-      <c r="G2759" t="inlineStr"/>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2760">
-      <c r="A2760" t="inlineStr"/>
-      <c r="B2760" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2760" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2760" t="inlineStr"/>
-      <c r="E2760" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2760" t="inlineStr"/>
-      <c r="G2760" t="inlineStr"/>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2761">
-      <c r="A2761" t="inlineStr">
-        <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2761" t="inlineStr"/>
-      <c r="C2761" t="inlineStr"/>
-      <c r="D2761" t="inlineStr"/>
-      <c r="E2761" t="inlineStr"/>
-      <c r="F2761" t="inlineStr"/>
-      <c r="G2761" t="inlineStr"/>
-      <c r="H2761" t="inlineStr"/>
-    </row>
-    <row r="2762">
-      <c r="A2762" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2762" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2762" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="D2762" t="inlineStr"/>
-      <c r="E2762" t="inlineStr"/>
-      <c r="F2762" t="inlineStr"/>
-      <c r="G2762" t="inlineStr"/>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2763">
-      <c r="A2763" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B2763" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2763" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2763" t="inlineStr"/>
-      <c r="E2763" t="inlineStr"/>
-      <c r="F2763" t="inlineStr"/>
-      <c r="G2763" t="inlineStr"/>
-      <c r="H2763" t="inlineStr">
-        <is>
           <t>3</t>
         </is>
       </c>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2746"/>
+  <dimension ref="A1:H2726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83127,10 +83127,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83161,10 +83159,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2578">
@@ -83199,10 +83195,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83233,10 +83227,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2580">
@@ -83267,10 +83259,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2581">
@@ -83305,10 +83295,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83339,10 +83327,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83373,10 +83359,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83407,10 +83391,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2585">
@@ -83441,10 +83423,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83475,10 +83455,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2587">
@@ -83513,10 +83491,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2588">
@@ -83547,10 +83523,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83581,10 +83555,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83615,10 +83587,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83649,10 +83619,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83683,10 +83651,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83717,10 +83683,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83747,10 +83711,8 @@
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83785,10 +83747,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2596">
@@ -83819,10 +83779,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -83857,10 +83815,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2598">
@@ -83883,10 +83839,8 @@
       <c r="E2598" t="inlineStr"/>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2599">
@@ -83913,10 +83867,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83943,10 +83895,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -83973,10 +83923,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84003,10 +83951,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84033,10 +83979,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84063,10 +84007,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84093,10 +84035,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84123,10 +84063,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84153,10 +84091,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84183,10 +84119,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84213,10 +84147,8 @@
       </c>
       <c r="F2609" t="inlineStr"/>
       <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84243,10 +84175,8 @@
       </c>
       <c r="F2610" t="inlineStr"/>
       <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84277,10 +84207,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84311,10 +84239,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84345,10 +84271,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84379,10 +84303,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84413,10 +84335,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84447,10 +84367,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84477,10 +84395,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84507,10 +84423,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84537,10 +84451,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84571,10 +84483,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84605,10 +84515,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -84639,10 +84547,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -84677,10 +84583,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2624">
@@ -84715,10 +84619,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84749,10 +84651,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84787,10 +84687,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -84825,10 +84723,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2628">
@@ -84859,10 +84755,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2629">
@@ -84897,10 +84791,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -84935,10 +84827,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2631">
@@ -84973,10 +84863,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2632">
@@ -85007,10 +84895,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85041,10 +84927,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -85079,10 +84963,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -85105,10 +84987,8 @@
       <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85139,10 +85019,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85173,10 +85051,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -85207,10 +85083,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85245,10 +85119,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -85279,10 +85151,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85309,10 +85179,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85339,10 +85207,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85369,10 +85235,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85399,10 +85263,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85429,10 +85291,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85459,10 +85319,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85489,10 +85347,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85519,10 +85375,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85549,10 +85403,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85597,10 +85449,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85631,10 +85481,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85665,46 +85513,60 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr"/>
-      <c r="C2654" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr"/>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
       <c r="E2655" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2655" t="inlineStr"/>
@@ -85718,31 +85580,27 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2656" t="inlineStr"/>
       <c r="H2656" t="inlineStr">
         <is>
           <t>3</t>
@@ -85752,31 +85610,27 @@
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2657" t="inlineStr"/>
       <c r="H2657" t="inlineStr">
         <is>
           <t>3</t>
@@ -85786,31 +85640,27 @@
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2658" t="inlineStr"/>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -85820,21 +85670,25 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr"/>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
@@ -85846,65 +85700,53 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2660" t="inlineStr"/>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
           <t>2</t>
@@ -85914,127 +85756,139 @@
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2663">
       <c r="A2663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2664">
       <c r="A2664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2665">
       <c r="A2665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
@@ -86046,205 +85900,181 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2668" t="inlineStr"/>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2668" t="inlineStr"/>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2669">
       <c r="A2669" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2669" t="inlineStr"/>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2670" t="inlineStr"/>
       <c r="H2670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2671" t="inlineStr"/>
       <c r="H2671" t="inlineStr">
         <is>
           <t>3</t>
@@ -86254,91 +86084,83 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr"/>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2674" t="inlineStr"/>
@@ -86352,117 +86174,129 @@
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr"/>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr"/>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86472,55 +86306,47 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
@@ -86532,47 +86358,43 @@
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
@@ -86588,23 +86410,23 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
@@ -86618,27 +86440,35 @@
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2684" t="inlineStr">
         <is>
           <t>2</t>
@@ -86648,73 +86478,57 @@
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr"/>
       <c r="H2685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr"/>
       <c r="H2686" t="inlineStr">
         <is>
           <t>2</t>
@@ -86724,69 +86538,57 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2688" t="inlineStr"/>
       <c r="H2688" t="inlineStr">
         <is>
           <t>3</t>
@@ -86796,55 +86598,43 @@
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr"/>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
@@ -86853,176 +86643,156 @@
       <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2691" t="inlineStr"/>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2692" t="inlineStr"/>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2693" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr"/>
+      <c r="C2693" t="inlineStr"/>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2693" t="inlineStr"/>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
@@ -87036,23 +86806,23 @@
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
@@ -87066,31 +86836,23 @@
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
-      <c r="E2698" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2698" t="inlineStr"/>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87100,31 +86862,23 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
-      <c r="E2699" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2699" t="inlineStr"/>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87134,31 +86888,27 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2700" t="inlineStr"/>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87168,47 +86918,55 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -87220,17 +86978,17 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
@@ -87246,17 +87004,17 @@
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
@@ -87265,112 +87023,112 @@
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2706" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
@@ -87380,20 +87138,16 @@
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -87405,26 +87159,22 @@
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2709" t="inlineStr"/>
       <c r="H2709" t="inlineStr">
         <is>
           <t>3</t>
@@ -87444,16 +87194,20 @@
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
-      <c r="G2710" t="inlineStr"/>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -87470,23 +87224,31 @@
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2711" t="inlineStr"/>
-      <c r="G2711" t="inlineStr"/>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
@@ -87496,13 +87258,21 @@
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2712" t="inlineStr"/>
-      <c r="G2712" t="inlineStr"/>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2712" t="inlineStr">
         <is>
           <t>3</t>
@@ -87512,7 +87282,7 @@
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
@@ -87522,7 +87292,7 @@
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
@@ -87536,29 +87306,29 @@
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr"/>
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>08:40 PM</t>
+        </is>
+      </c>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2714" t="inlineStr"/>
       <c r="H2714" t="inlineStr">
         <is>
           <t>3</t>
@@ -87566,33 +87336,37 @@
       </c>
     </row>
     <row r="2715">
-      <c r="A2715" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr"/>
-      <c r="C2715" t="inlineStr"/>
+      <c r="A2715" t="inlineStr"/>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
       <c r="D2715" t="inlineStr"/>
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A2716" t="inlineStr"/>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
@@ -87606,27 +87380,19 @@
       </c>
     </row>
     <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2717" t="inlineStr"/>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
       <c r="H2717" t="inlineStr">
@@ -87636,25 +87402,21 @@
       </c>
     </row>
     <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A2718" t="inlineStr"/>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
@@ -87668,47 +87430,31 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2719" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr"/>
+      <c r="C2719" t="inlineStr"/>
       <c r="D2719" t="inlineStr"/>
-      <c r="E2719" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2719" t="inlineStr"/>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2719" t="inlineStr"/>
     </row>
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2720" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2720" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2720" t="inlineStr"/>
@@ -87717,24 +87463,24 @@
       <c r="G2720" t="inlineStr"/>
       <c r="H2720" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2721">
       <c r="A2721" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2721" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2721" t="inlineStr"/>
@@ -87750,85 +87496,73 @@
     <row r="2722">
       <c r="A2722" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2722" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2722" t="inlineStr"/>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
       <c r="H2722" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2723">
       <c r="A2723" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2723" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
+      <c r="E2723" t="inlineStr"/>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
       <c r="H2723" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2724">
       <c r="A2724" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
+      <c r="E2724" t="inlineStr"/>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
       <c r="H2724" t="inlineStr">
@@ -87840,594 +87574,58 @@
     <row r="2725">
       <c r="A2725" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2725" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr"/>
+      <c r="E2725" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
       <c r="H2725" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2726">
       <c r="A2726" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
       <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2727">
-      <c r="A2727" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2727" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2727" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
-      <c r="F2727" t="inlineStr"/>
-      <c r="G2727" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2728">
-      <c r="A2728" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2728" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2728" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2728" t="inlineStr"/>
-      <c r="E2728" t="inlineStr">
-        <is>
-          <t>7.59%</t>
-        </is>
-      </c>
-      <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2729">
-      <c r="A2729" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2729" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2729" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2729" t="inlineStr"/>
-      <c r="E2729" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr"/>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2730">
-      <c r="A2730" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B2730" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2730" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/01</t>
-        </is>
-      </c>
-      <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr"/>
-      <c r="F2730" t="inlineStr"/>
-      <c r="G2730" t="inlineStr"/>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2731">
-      <c r="A2731" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2731" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2731" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2731" t="inlineStr"/>
-      <c r="E2731" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="F2731" t="inlineStr"/>
-      <c r="G2731" t="inlineStr"/>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2732">
-      <c r="A2732" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2732" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2732" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsDEC</t>
-        </is>
-      </c>
-      <c r="D2732" t="inlineStr"/>
-      <c r="E2732" t="inlineStr"/>
-      <c r="F2732" t="inlineStr"/>
-      <c r="G2732" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2733">
-      <c r="A2733" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2733" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2733" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2733" t="inlineStr"/>
-      <c r="E2733" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F2733" t="inlineStr"/>
-      <c r="G2733" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2734">
-      <c r="A2734" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2734" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2734" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationDEC</t>
-        </is>
-      </c>
-      <c r="D2734" t="inlineStr"/>
-      <c r="E2734" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2734" t="inlineStr"/>
-      <c r="G2734" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2735">
-      <c r="A2735" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2735" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2735" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsDEC</t>
-        </is>
-      </c>
-      <c r="D2735" t="inlineStr"/>
-      <c r="E2735" t="inlineStr"/>
-      <c r="F2735" t="inlineStr"/>
-      <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2736">
-      <c r="A2736" t="inlineStr">
-        <is>
-          <t>08:40 PM</t>
-        </is>
-      </c>
-      <c r="B2736" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2736" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
-      <c r="F2736" t="inlineStr"/>
-      <c r="G2736" t="inlineStr"/>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2737">
-      <c r="A2737" t="inlineStr"/>
-      <c r="B2737" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2737" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr"/>
-      <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr"/>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2738">
-      <c r="A2738" t="inlineStr"/>
-      <c r="B2738" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2738" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr"/>
-      <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2739">
-      <c r="A2739" t="inlineStr"/>
-      <c r="B2739" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2739" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr"/>
-      <c r="F2739" t="inlineStr"/>
-      <c r="G2739" t="inlineStr"/>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2740">
-      <c r="A2740" t="inlineStr"/>
-      <c r="B2740" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2740" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2740" t="inlineStr"/>
-      <c r="E2740" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr"/>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2741">
-      <c r="A2741" t="inlineStr">
-        <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr"/>
-      <c r="C2741" t="inlineStr"/>
-      <c r="D2741" t="inlineStr"/>
-      <c r="E2741" t="inlineStr"/>
-      <c r="F2741" t="inlineStr"/>
-      <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr"/>
-    </row>
-    <row r="2742">
-      <c r="A2742" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2742" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2742" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr"/>
-      <c r="F2742" t="inlineStr"/>
-      <c r="G2742" t="inlineStr"/>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2743">
-      <c r="A2743" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B2743" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2743" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr"/>
-      <c r="F2743" t="inlineStr"/>
-      <c r="G2743" t="inlineStr"/>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2744">
-      <c r="A2744" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B2744" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2744" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2744" t="inlineStr"/>
-      <c r="E2744" t="inlineStr"/>
-      <c r="F2744" t="inlineStr"/>
-      <c r="G2744" t="inlineStr"/>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2745">
-      <c r="A2745" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2745" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2745" t="inlineStr">
-        <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2745" t="inlineStr"/>
-      <c r="E2745" t="inlineStr"/>
-      <c r="F2745" t="inlineStr"/>
-      <c r="G2745" t="inlineStr"/>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2746">
-      <c r="A2746" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2746" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2746" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2746" t="inlineStr"/>
-      <c r="E2746" t="inlineStr"/>
-      <c r="F2746" t="inlineStr"/>
-      <c r="G2746" t="inlineStr"/>
-      <c r="H2746" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2755"/>
+  <dimension ref="A1:H2733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83127,10 +83127,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83161,10 +83159,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2578">
@@ -83199,10 +83195,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83233,10 +83227,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2580">
@@ -83267,10 +83259,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2581">
@@ -83305,10 +83295,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83339,10 +83327,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83373,10 +83359,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83407,10 +83391,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2585">
@@ -83441,10 +83423,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83475,10 +83455,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2587">
@@ -83513,10 +83491,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2588">
@@ -83547,10 +83523,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83581,10 +83555,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83615,10 +83587,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83649,10 +83619,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83683,10 +83651,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83717,10 +83683,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83747,10 +83711,8 @@
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83785,10 +83747,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2596">
@@ -83819,10 +83779,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -83857,10 +83815,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2598">
@@ -83883,10 +83839,8 @@
       <c r="E2598" t="inlineStr"/>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2599">
@@ -83913,10 +83867,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83943,10 +83895,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -83973,10 +83923,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84003,10 +83951,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84033,10 +83979,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84063,10 +84007,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84093,10 +84035,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84123,10 +84063,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84153,10 +84091,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84183,10 +84119,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84213,10 +84147,8 @@
       </c>
       <c r="F2609" t="inlineStr"/>
       <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84243,10 +84175,8 @@
       </c>
       <c r="F2610" t="inlineStr"/>
       <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84277,10 +84207,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84311,10 +84239,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84345,10 +84271,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84379,10 +84303,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84413,10 +84335,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84447,10 +84367,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84477,10 +84395,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84507,10 +84423,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84537,10 +84451,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84571,10 +84483,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84605,10 +84515,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -84639,10 +84547,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -84677,10 +84583,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2624">
@@ -84715,10 +84619,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84749,10 +84651,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84787,10 +84687,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -84825,10 +84723,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2628">
@@ -84859,10 +84755,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2629">
@@ -84897,10 +84791,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -84935,10 +84827,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2631">
@@ -84973,10 +84863,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2632">
@@ -85007,10 +84895,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85041,10 +84927,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -85079,10 +84963,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -85105,10 +84987,8 @@
       <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85139,10 +85019,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85173,10 +85051,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -85207,10 +85083,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85245,10 +85119,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -85279,10 +85151,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85309,10 +85179,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85339,10 +85207,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85369,10 +85235,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85399,10 +85263,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85429,10 +85291,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85459,10 +85319,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85489,10 +85347,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85519,10 +85375,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85549,10 +85403,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85597,10 +85449,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85631,10 +85481,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85665,46 +85513,60 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr"/>
-      <c r="C2654" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr"/>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
       <c r="E2655" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2655" t="inlineStr"/>
@@ -85718,31 +85580,27 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2656" t="inlineStr"/>
       <c r="H2656" t="inlineStr">
         <is>
           <t>3</t>
@@ -85752,31 +85610,27 @@
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2657" t="inlineStr"/>
       <c r="H2657" t="inlineStr">
         <is>
           <t>3</t>
@@ -85786,31 +85640,27 @@
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2658" t="inlineStr"/>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -85820,21 +85670,25 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr"/>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
@@ -85846,65 +85700,53 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2660" t="inlineStr"/>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
           <t>2</t>
@@ -85914,127 +85756,139 @@
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2663">
       <c r="A2663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2664">
       <c r="A2664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2665">
       <c r="A2665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
@@ -86046,205 +85900,181 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2668" t="inlineStr"/>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2668" t="inlineStr"/>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2669">
       <c r="A2669" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2669" t="inlineStr"/>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2670" t="inlineStr"/>
       <c r="H2670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2671" t="inlineStr"/>
       <c r="H2671" t="inlineStr">
         <is>
           <t>3</t>
@@ -86254,91 +86084,83 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr"/>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2674" t="inlineStr"/>
@@ -86352,117 +86174,129 @@
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr"/>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr"/>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86472,55 +86306,47 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
@@ -86532,47 +86358,43 @@
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
@@ -86588,23 +86410,23 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
@@ -86618,27 +86440,35 @@
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2684" t="inlineStr">
         <is>
           <t>2</t>
@@ -86648,73 +86478,57 @@
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr"/>
       <c r="H2685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr"/>
       <c r="H2686" t="inlineStr">
         <is>
           <t>2</t>
@@ -86724,69 +86538,57 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2688" t="inlineStr"/>
       <c r="H2688" t="inlineStr">
         <is>
           <t>3</t>
@@ -86796,55 +86598,43 @@
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr"/>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
@@ -86853,176 +86643,156 @@
       <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2691" t="inlineStr"/>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2692" t="inlineStr"/>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2693" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr"/>
+      <c r="C2693" t="inlineStr"/>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2693" t="inlineStr"/>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
@@ -87036,23 +86806,23 @@
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
@@ -87066,31 +86836,23 @@
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
-      <c r="E2698" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2698" t="inlineStr"/>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87100,31 +86862,23 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
-      <c r="E2699" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2699" t="inlineStr"/>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87134,31 +86888,27 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2700" t="inlineStr"/>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87168,47 +86918,55 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -87220,17 +86978,17 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
@@ -87246,17 +87004,17 @@
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
@@ -87265,112 +87023,112 @@
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2706" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
@@ -87380,20 +87138,16 @@
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -87405,26 +87159,22 @@
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2709" t="inlineStr"/>
       <c r="H2709" t="inlineStr">
         <is>
           <t>3</t>
@@ -87444,16 +87194,20 @@
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
-      <c r="G2710" t="inlineStr"/>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -87470,23 +87224,31 @@
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2711" t="inlineStr"/>
-      <c r="G2711" t="inlineStr"/>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
@@ -87496,13 +87258,21 @@
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2712" t="inlineStr"/>
-      <c r="G2712" t="inlineStr"/>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2712" t="inlineStr">
         <is>
           <t>3</t>
@@ -87512,7 +87282,7 @@
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
@@ -87522,7 +87292,7 @@
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
@@ -87536,29 +87306,29 @@
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr"/>
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>08:40 PM</t>
+        </is>
+      </c>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2714" t="inlineStr"/>
       <c r="H2714" t="inlineStr">
         <is>
           <t>3</t>
@@ -87566,33 +87336,37 @@
       </c>
     </row>
     <row r="2715">
-      <c r="A2715" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr"/>
-      <c r="C2715" t="inlineStr"/>
+      <c r="A2715" t="inlineStr"/>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
       <c r="D2715" t="inlineStr"/>
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A2716" t="inlineStr"/>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
@@ -87606,27 +87380,19 @@
       </c>
     </row>
     <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2717" t="inlineStr"/>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
       <c r="H2717" t="inlineStr">
@@ -87636,25 +87402,21 @@
       </c>
     </row>
     <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A2718" t="inlineStr"/>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
@@ -87668,47 +87430,31 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2719" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr"/>
+      <c r="C2719" t="inlineStr"/>
       <c r="D2719" t="inlineStr"/>
-      <c r="E2719" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2719" t="inlineStr"/>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2719" t="inlineStr"/>
     </row>
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2720" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2720" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2720" t="inlineStr"/>
@@ -87717,24 +87463,24 @@
       <c r="G2720" t="inlineStr"/>
       <c r="H2720" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2721">
       <c r="A2721" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2721" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2721" t="inlineStr"/>
@@ -87750,85 +87496,73 @@
     <row r="2722">
       <c r="A2722" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2722" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2722" t="inlineStr"/>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
       <c r="H2722" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2723">
       <c r="A2723" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2723" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
+      <c r="E2723" t="inlineStr"/>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
       <c r="H2723" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2724">
       <c r="A2724" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
+      <c r="E2724" t="inlineStr"/>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
       <c r="H2724" t="inlineStr">
@@ -87840,81 +87574,85 @@
     <row r="2725">
       <c r="A2725" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2725" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr"/>
+      <c r="E2725" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
       <c r="H2725" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2726">
       <c r="A2726" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
       <c r="H2726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2727">
       <c r="A2727" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
+      <c r="E2727" t="inlineStr"/>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H2727" t="inlineStr">
@@ -87926,31 +87664,27 @@
     <row r="2728">
       <c r="A2728" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2728" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2728" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2728" t="inlineStr"/>
       <c r="E2728" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="G2728" t="inlineStr"/>
       <c r="H2728" t="inlineStr">
         <is>
           <t>3</t>
@@ -87960,27 +87694,35 @@
     <row r="2729">
       <c r="A2729" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2729" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2729" t="inlineStr"/>
       <c r="E2729" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2729" t="inlineStr">
         <is>
           <t>2</t>
@@ -87990,23 +87732,31 @@
     <row r="2730">
       <c r="A2730" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2730" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2730" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr"/>
+      <c r="E2730" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2730" t="inlineStr"/>
-      <c r="G2730" t="inlineStr"/>
+      <c r="G2730" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2730" t="inlineStr">
         <is>
           <t>3</t>
@@ -88016,23 +87766,23 @@
     <row r="2731">
       <c r="A2731" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2731" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2731" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2731" t="inlineStr"/>
       <c r="E2731" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2731" t="inlineStr"/>
@@ -88046,678 +87796,66 @@
     <row r="2732">
       <c r="A2732" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2732" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2732" t="inlineStr"/>
-      <c r="E2732" t="inlineStr"/>
+      <c r="E2732" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr">
         <is>
-          <t>7.6M</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2732" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2733">
       <c r="A2733" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2733" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2733" t="inlineStr"/>
       <c r="E2733" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2734">
-      <c r="A2734" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2734" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2734" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationDEC</t>
-        </is>
-      </c>
-      <c r="D2734" t="inlineStr"/>
-      <c r="E2734" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2734" t="inlineStr"/>
-      <c r="G2734" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2735">
-      <c r="A2735" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2735" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2735" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsDEC</t>
-        </is>
-      </c>
-      <c r="D2735" t="inlineStr"/>
-      <c r="E2735" t="inlineStr"/>
-      <c r="F2735" t="inlineStr"/>
-      <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2736">
-      <c r="A2736" t="inlineStr">
-        <is>
-          <t>08:40 PM</t>
-        </is>
-      </c>
-      <c r="B2736" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2736" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
-      <c r="F2736" t="inlineStr"/>
-      <c r="G2736" t="inlineStr"/>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2737">
-      <c r="A2737" t="inlineStr"/>
-      <c r="B2737" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2737" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr"/>
-      <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr"/>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2738">
-      <c r="A2738" t="inlineStr"/>
-      <c r="B2738" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2738" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr"/>
-      <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2739">
-      <c r="A2739" t="inlineStr"/>
-      <c r="B2739" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2739" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr"/>
-      <c r="F2739" t="inlineStr"/>
-      <c r="G2739" t="inlineStr"/>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2740">
-      <c r="A2740" t="inlineStr"/>
-      <c r="B2740" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2740" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2740" t="inlineStr"/>
-      <c r="E2740" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr"/>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2741">
-      <c r="A2741" t="inlineStr">
-        <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr"/>
-      <c r="C2741" t="inlineStr"/>
-      <c r="D2741" t="inlineStr"/>
-      <c r="E2741" t="inlineStr"/>
-      <c r="F2741" t="inlineStr"/>
-      <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr"/>
-    </row>
-    <row r="2742">
-      <c r="A2742" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2742" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2742" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr"/>
-      <c r="F2742" t="inlineStr"/>
-      <c r="G2742" t="inlineStr"/>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2743">
-      <c r="A2743" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B2743" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2743" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr"/>
-      <c r="F2743" t="inlineStr"/>
-      <c r="G2743" t="inlineStr"/>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2744">
-      <c r="A2744" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B2744" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2744" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2744" t="inlineStr"/>
-      <c r="E2744" t="inlineStr"/>
-      <c r="F2744" t="inlineStr"/>
-      <c r="G2744" t="inlineStr"/>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2745">
-      <c r="A2745" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2745" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2745" t="inlineStr">
-        <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2745" t="inlineStr"/>
-      <c r="E2745" t="inlineStr"/>
-      <c r="F2745" t="inlineStr"/>
-      <c r="G2745" t="inlineStr"/>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2746">
-      <c r="A2746" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2746" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2746" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2746" t="inlineStr"/>
-      <c r="E2746" t="inlineStr"/>
-      <c r="F2746" t="inlineStr"/>
-      <c r="G2746" t="inlineStr"/>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2747">
-      <c r="A2747" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B2747" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2747" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2747" t="inlineStr"/>
-      <c r="E2747" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F2747" t="inlineStr"/>
-      <c r="G2747" t="inlineStr"/>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2748">
-      <c r="A2748" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B2748" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2748" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2748" t="inlineStr"/>
-      <c r="E2748" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2748" t="inlineStr"/>
-      <c r="G2748" t="inlineStr"/>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2749">
-      <c r="A2749" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2749" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2749" t="inlineStr">
-        <is>
-          <t>Average Cash Earnings YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2749" t="inlineStr"/>
-      <c r="E2749" t="inlineStr"/>
-      <c r="F2749" t="inlineStr"/>
-      <c r="G2749" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2750">
-      <c r="A2750" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2750" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2750" t="inlineStr">
-        <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2750" t="inlineStr"/>
-      <c r="E2750" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F2750" t="inlineStr"/>
-      <c r="G2750" t="inlineStr"/>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2751">
-      <c r="A2751" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2751" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2751" t="inlineStr">
-        <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2751" t="inlineStr"/>
-      <c r="E2751" t="inlineStr">
-        <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2751" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2751" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2752">
-      <c r="A2752" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2752" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2752" t="inlineStr">
-        <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2752" t="inlineStr"/>
-      <c r="E2752" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2752" t="inlineStr"/>
-      <c r="G2752" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2753">
-      <c r="A2753" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2753" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2753" t="inlineStr">
-        <is>
-          <t>S&amp;P Global PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2753" t="inlineStr"/>
-      <c r="E2753" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F2753" t="inlineStr"/>
-      <c r="G2753" t="inlineStr"/>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2754">
-      <c r="A2754" t="inlineStr">
-        <is>
-          <t>07:15 AM</t>
-        </is>
-      </c>
-      <c r="B2754" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2754" t="inlineStr">
-        <is>
-          <t>Caixin Services PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2754" t="inlineStr"/>
-      <c r="E2754" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2754" t="inlineStr"/>
-      <c r="G2754" t="inlineStr">
-        <is>
-          <t>51.8</t>
-        </is>
-      </c>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2755">
-      <c r="A2755" t="inlineStr">
-        <is>
-          <t>07:15 AM</t>
-        </is>
-      </c>
-      <c r="B2755" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2755" t="inlineStr">
-        <is>
-          <t>Caixin Composite PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2755" t="inlineStr"/>
-      <c r="E2755" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F2755" t="inlineStr"/>
-      <c r="G2755" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="H2755" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2762"/>
+  <dimension ref="A1:H2742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83127,10 +83127,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83161,10 +83159,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2578">
@@ -83199,10 +83195,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83233,10 +83227,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2580">
@@ -83267,10 +83259,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2581">
@@ -83305,10 +83295,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83339,10 +83327,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83373,10 +83359,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83407,10 +83391,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2585">
@@ -83441,10 +83423,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83475,10 +83455,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2587">
@@ -83513,10 +83491,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2588">
@@ -83547,10 +83523,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83581,10 +83555,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83615,10 +83587,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83649,10 +83619,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83683,10 +83651,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83717,10 +83683,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83747,10 +83711,8 @@
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83785,10 +83747,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2596">
@@ -83819,10 +83779,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -83857,10 +83815,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2598">
@@ -83883,10 +83839,8 @@
       <c r="E2598" t="inlineStr"/>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2599">
@@ -83913,10 +83867,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83943,10 +83895,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -83973,10 +83923,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84003,10 +83951,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84033,10 +83979,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84063,10 +84007,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84093,10 +84035,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84123,10 +84063,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84153,10 +84091,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84183,10 +84119,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84213,10 +84147,8 @@
       </c>
       <c r="F2609" t="inlineStr"/>
       <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84243,10 +84175,8 @@
       </c>
       <c r="F2610" t="inlineStr"/>
       <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84277,10 +84207,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84311,10 +84239,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84345,10 +84271,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84379,10 +84303,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84413,10 +84335,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84447,10 +84367,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84477,10 +84395,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84507,10 +84423,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84537,10 +84451,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84571,10 +84483,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84605,10 +84515,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -84639,10 +84547,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -84677,10 +84583,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2624">
@@ -84715,10 +84619,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84749,10 +84651,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84787,10 +84687,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -84825,10 +84723,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2628">
@@ -84859,10 +84755,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2629">
@@ -84897,10 +84791,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -84935,10 +84827,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2631">
@@ -84973,10 +84863,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2632">
@@ -85007,10 +84895,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85041,10 +84927,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -85079,10 +84963,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -85105,10 +84987,8 @@
       <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85139,10 +85019,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85173,10 +85051,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -85207,10 +85083,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85245,10 +85119,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -85279,10 +85151,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85309,10 +85179,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85339,10 +85207,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85369,10 +85235,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85399,10 +85263,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85429,10 +85291,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85459,10 +85319,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85489,10 +85347,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85519,10 +85375,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85549,10 +85403,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85597,10 +85449,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85631,10 +85481,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85665,46 +85513,60 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr"/>
-      <c r="C2654" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr"/>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
       <c r="E2655" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2655" t="inlineStr"/>
@@ -85718,31 +85580,27 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2656" t="inlineStr"/>
       <c r="H2656" t="inlineStr">
         <is>
           <t>3</t>
@@ -85752,31 +85610,27 @@
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2657" t="inlineStr"/>
       <c r="H2657" t="inlineStr">
         <is>
           <t>3</t>
@@ -85786,31 +85640,27 @@
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2658" t="inlineStr"/>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -85820,21 +85670,25 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr"/>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
@@ -85846,65 +85700,53 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2660" t="inlineStr"/>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
           <t>2</t>
@@ -85914,127 +85756,139 @@
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2663">
       <c r="A2663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2664">
       <c r="A2664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2665">
       <c r="A2665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
@@ -86046,205 +85900,181 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2668" t="inlineStr"/>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2668" t="inlineStr"/>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2669">
       <c r="A2669" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2669" t="inlineStr"/>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2670" t="inlineStr"/>
       <c r="H2670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2671" t="inlineStr"/>
       <c r="H2671" t="inlineStr">
         <is>
           <t>3</t>
@@ -86254,91 +86084,83 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr"/>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2674" t="inlineStr"/>
@@ -86352,117 +86174,129 @@
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr"/>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr"/>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86472,55 +86306,47 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
@@ -86532,47 +86358,43 @@
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
@@ -86588,23 +86410,23 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
@@ -86618,27 +86440,35 @@
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2684" t="inlineStr">
         <is>
           <t>2</t>
@@ -86648,73 +86478,57 @@
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr"/>
       <c r="H2685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr"/>
       <c r="H2686" t="inlineStr">
         <is>
           <t>2</t>
@@ -86724,69 +86538,57 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2688" t="inlineStr"/>
       <c r="H2688" t="inlineStr">
         <is>
           <t>3</t>
@@ -86796,55 +86598,43 @@
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr"/>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
@@ -86853,176 +86643,156 @@
       <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2691" t="inlineStr"/>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2692" t="inlineStr"/>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2693" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr"/>
+      <c r="C2693" t="inlineStr"/>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2693" t="inlineStr"/>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
@@ -87036,23 +86806,23 @@
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
@@ -87066,31 +86836,23 @@
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
-      <c r="E2698" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2698" t="inlineStr"/>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87100,31 +86862,23 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
-      <c r="E2699" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2699" t="inlineStr"/>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87134,31 +86888,27 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2700" t="inlineStr"/>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87168,47 +86918,55 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -87220,17 +86978,17 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
@@ -87246,17 +87004,17 @@
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
@@ -87265,112 +87023,112 @@
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2706" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
@@ -87380,20 +87138,16 @@
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -87405,26 +87159,22 @@
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2709" t="inlineStr"/>
       <c r="H2709" t="inlineStr">
         <is>
           <t>3</t>
@@ -87444,16 +87194,20 @@
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
-      <c r="G2710" t="inlineStr"/>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -87470,23 +87224,31 @@
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2711" t="inlineStr"/>
-      <c r="G2711" t="inlineStr"/>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
@@ -87496,13 +87258,21 @@
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2712" t="inlineStr"/>
-      <c r="G2712" t="inlineStr"/>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2712" t="inlineStr">
         <is>
           <t>3</t>
@@ -87512,7 +87282,7 @@
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
@@ -87522,7 +87292,7 @@
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
@@ -87536,29 +87306,29 @@
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr"/>
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>08:40 PM</t>
+        </is>
+      </c>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2714" t="inlineStr"/>
       <c r="H2714" t="inlineStr">
         <is>
           <t>3</t>
@@ -87566,33 +87336,37 @@
       </c>
     </row>
     <row r="2715">
-      <c r="A2715" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr"/>
-      <c r="C2715" t="inlineStr"/>
+      <c r="A2715" t="inlineStr"/>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
       <c r="D2715" t="inlineStr"/>
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A2716" t="inlineStr"/>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
@@ -87606,27 +87380,19 @@
       </c>
     </row>
     <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2717" t="inlineStr"/>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
       <c r="H2717" t="inlineStr">
@@ -87636,25 +87402,21 @@
       </c>
     </row>
     <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A2718" t="inlineStr"/>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
@@ -87668,47 +87430,31 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2719" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr"/>
+      <c r="C2719" t="inlineStr"/>
       <c r="D2719" t="inlineStr"/>
-      <c r="E2719" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2719" t="inlineStr"/>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2719" t="inlineStr"/>
     </row>
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2720" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2720" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2720" t="inlineStr"/>
@@ -87717,24 +87463,24 @@
       <c r="G2720" t="inlineStr"/>
       <c r="H2720" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2721">
       <c r="A2721" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2721" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2721" t="inlineStr"/>
@@ -87750,85 +87496,73 @@
     <row r="2722">
       <c r="A2722" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2722" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2722" t="inlineStr"/>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
       <c r="H2722" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2723">
       <c r="A2723" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2723" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
+      <c r="E2723" t="inlineStr"/>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
       <c r="H2723" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2724">
       <c r="A2724" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
+      <c r="E2724" t="inlineStr"/>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
       <c r="H2724" t="inlineStr">
@@ -87840,81 +87574,85 @@
     <row r="2725">
       <c r="A2725" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2725" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr"/>
+      <c r="E2725" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
       <c r="H2725" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2726">
       <c r="A2726" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
       <c r="H2726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2727">
       <c r="A2727" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
+      <c r="E2727" t="inlineStr"/>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H2727" t="inlineStr">
@@ -87926,31 +87664,27 @@
     <row r="2728">
       <c r="A2728" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2728" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2728" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2728" t="inlineStr"/>
       <c r="E2728" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="G2728" t="inlineStr"/>
       <c r="H2728" t="inlineStr">
         <is>
           <t>3</t>
@@ -87960,27 +87694,35 @@
     <row r="2729">
       <c r="A2729" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2729" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2729" t="inlineStr"/>
       <c r="E2729" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2729" t="inlineStr">
         <is>
           <t>2</t>
@@ -87990,23 +87732,31 @@
     <row r="2730">
       <c r="A2730" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2730" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2730" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr"/>
+      <c r="E2730" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2730" t="inlineStr"/>
-      <c r="G2730" t="inlineStr"/>
+      <c r="G2730" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2730" t="inlineStr">
         <is>
           <t>3</t>
@@ -88016,23 +87766,23 @@
     <row r="2731">
       <c r="A2731" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2731" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2731" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2731" t="inlineStr"/>
       <c r="E2731" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2731" t="inlineStr"/>
@@ -88046,121 +87796,125 @@
     <row r="2732">
       <c r="A2732" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2732" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2732" t="inlineStr"/>
-      <c r="E2732" t="inlineStr"/>
+      <c r="E2732" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr">
         <is>
-          <t>7.6M</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2732" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2733">
       <c r="A2733" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2733" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2733" t="inlineStr"/>
       <c r="E2733" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2733" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2734">
       <c r="A2734" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2734" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2734" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2734" t="inlineStr"/>
-      <c r="E2734" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2734" t="inlineStr"/>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2734" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2735">
       <c r="A2735" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2735" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2735" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2735" t="inlineStr"/>
       <c r="E2735" t="inlineStr"/>
       <c r="F2735" t="inlineStr"/>
-      <c r="G2735" t="inlineStr"/>
+      <c r="G2735" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2735" t="inlineStr">
         <is>
           <t>3</t>
@@ -88170,27 +87924,27 @@
     <row r="2736">
       <c r="A2736" t="inlineStr">
         <is>
-          <t>08:40 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2736" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2736" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2736" t="inlineStr"/>
       <c r="F2736" t="inlineStr"/>
-      <c r="G2736" t="inlineStr"/>
+      <c r="G2736" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2736" t="inlineStr">
         <is>
           <t>3</t>
@@ -88198,21 +87952,37 @@
       </c>
     </row>
     <row r="2737">
-      <c r="A2737" t="inlineStr"/>
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2737" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2737" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr"/>
-      <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr"/>
+      <c r="E2737" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2737" t="inlineStr">
         <is>
           <t>3</t>
@@ -88220,21 +87990,37 @@
       </c>
     </row>
     <row r="2738">
-      <c r="A2738" t="inlineStr"/>
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2738" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2738" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr"/>
-      <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
+      <c r="E2738" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2738" t="inlineStr">
         <is>
           <t>3</t>
@@ -88242,21 +88028,33 @@
       </c>
     </row>
     <row r="2739">
-      <c r="A2739" t="inlineStr"/>
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2739" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2739" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr"/>
+      <c r="E2739" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2739" t="inlineStr"/>
-      <c r="G2739" t="inlineStr"/>
+      <c r="G2739" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2739" t="inlineStr">
         <is>
           <t>3</t>
@@ -88264,25 +88062,33 @@
       </c>
     </row>
     <row r="2740">
-      <c r="A2740" t="inlineStr"/>
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2740" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2740" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2740" t="inlineStr"/>
       <c r="E2740" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr"/>
+      <c r="G2740" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2740" t="inlineStr">
         <is>
           <t>3</t>
@@ -88292,666 +88098,58 @@
     <row r="2741">
       <c r="A2741" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr"/>
-      <c r="C2741" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMIJAN</t>
+        </is>
+      </c>
       <c r="D2741" t="inlineStr"/>
-      <c r="E2741" t="inlineStr"/>
+      <c r="E2741" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr"/>
+      <c r="H2741" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2742">
       <c r="A2742" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2742" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2742" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr"/>
+      <c r="E2742" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
       <c r="H2742" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2743">
-      <c r="A2743" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B2743" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2743" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr"/>
-      <c r="F2743" t="inlineStr"/>
-      <c r="G2743" t="inlineStr"/>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2744">
-      <c r="A2744" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B2744" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2744" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2744" t="inlineStr"/>
-      <c r="E2744" t="inlineStr"/>
-      <c r="F2744" t="inlineStr"/>
-      <c r="G2744" t="inlineStr"/>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2745">
-      <c r="A2745" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2745" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2745" t="inlineStr">
-        <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2745" t="inlineStr"/>
-      <c r="E2745" t="inlineStr"/>
-      <c r="F2745" t="inlineStr"/>
-      <c r="G2745" t="inlineStr"/>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2746">
-      <c r="A2746" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2746" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2746" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2746" t="inlineStr"/>
-      <c r="E2746" t="inlineStr"/>
-      <c r="F2746" t="inlineStr"/>
-      <c r="G2746" t="inlineStr"/>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2747">
-      <c r="A2747" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B2747" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2747" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2747" t="inlineStr"/>
-      <c r="E2747" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F2747" t="inlineStr"/>
-      <c r="G2747" t="inlineStr"/>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2748">
-      <c r="A2748" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B2748" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2748" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2748" t="inlineStr"/>
-      <c r="E2748" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2748" t="inlineStr"/>
-      <c r="G2748" t="inlineStr"/>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2749">
-      <c r="A2749" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2749" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2749" t="inlineStr">
-        <is>
-          <t>Average Cash Earnings YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2749" t="inlineStr"/>
-      <c r="E2749" t="inlineStr"/>
-      <c r="F2749" t="inlineStr"/>
-      <c r="G2749" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2750">
-      <c r="A2750" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2750" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2750" t="inlineStr">
-        <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2750" t="inlineStr"/>
-      <c r="E2750" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F2750" t="inlineStr"/>
-      <c r="G2750" t="inlineStr"/>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2751">
-      <c r="A2751" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2751" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2751" t="inlineStr">
-        <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2751" t="inlineStr"/>
-      <c r="E2751" t="inlineStr">
-        <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2751" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2751" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2752">
-      <c r="A2752" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2752" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2752" t="inlineStr">
-        <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2752" t="inlineStr"/>
-      <c r="E2752" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2752" t="inlineStr"/>
-      <c r="G2752" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2753">
-      <c r="A2753" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2753" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2753" t="inlineStr">
-        <is>
-          <t>S&amp;P Global PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2753" t="inlineStr"/>
-      <c r="E2753" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F2753" t="inlineStr"/>
-      <c r="G2753" t="inlineStr"/>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2754">
-      <c r="A2754" t="inlineStr">
-        <is>
-          <t>07:15 AM</t>
-        </is>
-      </c>
-      <c r="B2754" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2754" t="inlineStr">
-        <is>
-          <t>Caixin Services PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2754" t="inlineStr"/>
-      <c r="E2754" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2754" t="inlineStr"/>
-      <c r="G2754" t="inlineStr">
-        <is>
-          <t>51.8</t>
-        </is>
-      </c>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2755">
-      <c r="A2755" t="inlineStr">
-        <is>
-          <t>07:15 AM</t>
-        </is>
-      </c>
-      <c r="B2755" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2755" t="inlineStr">
-        <is>
-          <t>Caixin Composite PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2755" t="inlineStr"/>
-      <c r="E2755" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F2755" t="inlineStr"/>
-      <c r="G2755" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2756">
-      <c r="A2756" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2756" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2756" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoYQ4</t>
-        </is>
-      </c>
-      <c r="D2756" t="inlineStr"/>
-      <c r="E2756" t="inlineStr"/>
-      <c r="F2756" t="inlineStr"/>
-      <c r="G2756" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2757">
-      <c r="A2757" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2757" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2757" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D2757" t="inlineStr"/>
-      <c r="E2757" t="inlineStr"/>
-      <c r="F2757" t="inlineStr"/>
-      <c r="G2757" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2758">
-      <c r="A2758" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2758" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2758" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2758" t="inlineStr"/>
-      <c r="E2758" t="inlineStr"/>
-      <c r="F2758" t="inlineStr"/>
-      <c r="G2758" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2759">
-      <c r="A2759" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2759" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C2759" t="inlineStr">
-        <is>
-          <t>HSBC Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2759" t="inlineStr"/>
-      <c r="E2759" t="inlineStr">
-        <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2759" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
-      <c r="G2759" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2760">
-      <c r="A2760" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2760" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C2760" t="inlineStr">
-        <is>
-          <t>HSBC Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2760" t="inlineStr"/>
-      <c r="E2760" t="inlineStr">
-        <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2760" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="G2760" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2761">
-      <c r="A2761" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2761" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2761" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2761" t="inlineStr"/>
-      <c r="E2761" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="F2761" t="inlineStr"/>
-      <c r="G2761" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2762">
-      <c r="A2762" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2762" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2762" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2762" t="inlineStr"/>
-      <c r="E2762" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F2762" t="inlineStr"/>
-      <c r="G2762" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H2762" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2766"/>
+  <dimension ref="A1:H2757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83127,10 +83127,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83161,10 +83159,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2578">
@@ -83199,10 +83195,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83233,10 +83227,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2580">
@@ -83267,10 +83259,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2581">
@@ -83305,10 +83295,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83339,10 +83327,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83373,10 +83359,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83411,10 +83395,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2585">
@@ -83445,10 +83427,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83479,10 +83459,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2587">
@@ -83517,10 +83495,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2588">
@@ -83551,10 +83527,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83585,10 +83559,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83619,10 +83591,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83653,10 +83623,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83687,10 +83655,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83721,10 +83687,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83751,10 +83715,8 @@
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83789,10 +83751,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2596">
@@ -83823,10 +83783,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -83861,10 +83819,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2598">
@@ -83887,10 +83843,8 @@
       <c r="E2598" t="inlineStr"/>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2599">
@@ -83917,10 +83871,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83947,10 +83899,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -83977,10 +83927,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84007,10 +83955,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84037,10 +83983,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84067,10 +84011,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84097,10 +84039,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84127,10 +84067,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84157,10 +84095,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84187,10 +84123,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84217,10 +84151,8 @@
       </c>
       <c r="F2609" t="inlineStr"/>
       <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84247,10 +84179,8 @@
       </c>
       <c r="F2610" t="inlineStr"/>
       <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84281,10 +84211,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84315,10 +84243,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84349,10 +84275,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84383,10 +84307,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84417,10 +84339,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84451,10 +84371,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84481,10 +84399,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84511,10 +84427,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84541,10 +84455,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84575,10 +84487,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84609,10 +84519,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -84643,10 +84551,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -84681,10 +84587,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2624">
@@ -84719,10 +84623,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84753,10 +84655,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84791,10 +84691,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -84829,10 +84727,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2628">
@@ -84863,10 +84759,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2629">
@@ -84901,10 +84795,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -84939,10 +84831,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2631">
@@ -84977,10 +84867,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2632">
@@ -85011,10 +84899,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85045,10 +84931,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -85083,10 +84967,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -85109,10 +84991,8 @@
       <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85143,10 +85023,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85177,10 +85055,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -85211,10 +85087,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85249,10 +85123,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -85283,10 +85155,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85313,10 +85183,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85343,10 +85211,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85373,10 +85239,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85403,10 +85267,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85433,10 +85295,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85463,10 +85323,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85493,10 +85351,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85523,10 +85379,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85553,10 +85407,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85601,10 +85453,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85635,10 +85485,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85669,46 +85517,60 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr"/>
-      <c r="C2654" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr"/>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
       <c r="E2655" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2655" t="inlineStr"/>
@@ -85722,31 +85584,27 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2656" t="inlineStr"/>
       <c r="H2656" t="inlineStr">
         <is>
           <t>3</t>
@@ -85756,31 +85614,27 @@
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2657" t="inlineStr"/>
       <c r="H2657" t="inlineStr">
         <is>
           <t>3</t>
@@ -85790,31 +85644,27 @@
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2658" t="inlineStr"/>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -85824,21 +85674,25 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr"/>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
@@ -85850,65 +85704,53 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2660" t="inlineStr"/>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
           <t>2</t>
@@ -85918,127 +85760,139 @@
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2663">
       <c r="A2663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2664">
       <c r="A2664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2665">
       <c r="A2665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
@@ -86050,205 +85904,181 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2668" t="inlineStr"/>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2668" t="inlineStr"/>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2669">
       <c r="A2669" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2669" t="inlineStr"/>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2670" t="inlineStr"/>
       <c r="H2670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2671" t="inlineStr"/>
       <c r="H2671" t="inlineStr">
         <is>
           <t>3</t>
@@ -86258,91 +86088,83 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr"/>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2674" t="inlineStr"/>
@@ -86356,117 +86178,129 @@
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr"/>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr"/>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86476,55 +86310,47 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
@@ -86536,47 +86362,43 @@
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
@@ -86592,23 +86414,23 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
@@ -86622,27 +86444,35 @@
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2684" t="inlineStr">
         <is>
           <t>2</t>
@@ -86652,73 +86482,57 @@
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr"/>
       <c r="H2685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr"/>
       <c r="H2686" t="inlineStr">
         <is>
           <t>2</t>
@@ -86728,69 +86542,57 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2688" t="inlineStr"/>
       <c r="H2688" t="inlineStr">
         <is>
           <t>3</t>
@@ -86800,55 +86602,43 @@
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr"/>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
@@ -86857,176 +86647,156 @@
       <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2691" t="inlineStr"/>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2692" t="inlineStr"/>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2693" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr"/>
+      <c r="C2693" t="inlineStr"/>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2693" t="inlineStr"/>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
@@ -87040,23 +86810,23 @@
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
@@ -87070,31 +86840,23 @@
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
-      <c r="E2698" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2698" t="inlineStr"/>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87104,31 +86866,23 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
-      <c r="E2699" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2699" t="inlineStr"/>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87138,31 +86892,27 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2700" t="inlineStr"/>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87172,47 +86922,55 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -87224,17 +86982,17 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
@@ -87250,17 +87008,17 @@
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
@@ -87269,112 +87027,112 @@
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2706" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
@@ -87384,20 +87142,16 @@
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -87409,26 +87163,22 @@
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2709" t="inlineStr"/>
       <c r="H2709" t="inlineStr">
         <is>
           <t>3</t>
@@ -87448,16 +87198,20 @@
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
-      <c r="G2710" t="inlineStr"/>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -87474,23 +87228,31 @@
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2711" t="inlineStr"/>
-      <c r="G2711" t="inlineStr"/>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
@@ -87500,13 +87262,21 @@
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2712" t="inlineStr"/>
-      <c r="G2712" t="inlineStr"/>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2712" t="inlineStr">
         <is>
           <t>3</t>
@@ -87516,7 +87286,7 @@
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
@@ -87526,7 +87296,7 @@
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
@@ -87540,29 +87310,29 @@
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr"/>
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>08:40 PM</t>
+        </is>
+      </c>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2714" t="inlineStr"/>
       <c r="H2714" t="inlineStr">
         <is>
           <t>3</t>
@@ -87570,33 +87340,37 @@
       </c>
     </row>
     <row r="2715">
-      <c r="A2715" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr"/>
-      <c r="C2715" t="inlineStr"/>
+      <c r="A2715" t="inlineStr"/>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
       <c r="D2715" t="inlineStr"/>
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A2716" t="inlineStr"/>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
@@ -87610,27 +87384,19 @@
       </c>
     </row>
     <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2717" t="inlineStr"/>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
       <c r="H2717" t="inlineStr">
@@ -87640,25 +87406,21 @@
       </c>
     </row>
     <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A2718" t="inlineStr"/>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
@@ -87672,47 +87434,31 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2719" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr"/>
+      <c r="C2719" t="inlineStr"/>
       <c r="D2719" t="inlineStr"/>
-      <c r="E2719" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2719" t="inlineStr"/>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2719" t="inlineStr"/>
     </row>
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2720" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2720" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2720" t="inlineStr"/>
@@ -87721,24 +87467,24 @@
       <c r="G2720" t="inlineStr"/>
       <c r="H2720" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2721">
       <c r="A2721" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2721" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2721" t="inlineStr"/>
@@ -87754,85 +87500,73 @@
     <row r="2722">
       <c r="A2722" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2722" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2722" t="inlineStr"/>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
       <c r="H2722" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2723">
       <c r="A2723" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2723" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
+      <c r="E2723" t="inlineStr"/>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
       <c r="H2723" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2724">
       <c r="A2724" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
+      <c r="E2724" t="inlineStr"/>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
       <c r="H2724" t="inlineStr">
@@ -87844,81 +87578,85 @@
     <row r="2725">
       <c r="A2725" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2725" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr"/>
+      <c r="E2725" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
       <c r="H2725" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2726">
       <c r="A2726" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
       <c r="H2726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2727">
       <c r="A2727" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
+      <c r="E2727" t="inlineStr"/>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H2727" t="inlineStr">
@@ -87930,31 +87668,27 @@
     <row r="2728">
       <c r="A2728" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2728" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2728" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2728" t="inlineStr"/>
       <c r="E2728" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="G2728" t="inlineStr"/>
       <c r="H2728" t="inlineStr">
         <is>
           <t>3</t>
@@ -87964,27 +87698,35 @@
     <row r="2729">
       <c r="A2729" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2729" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2729" t="inlineStr"/>
       <c r="E2729" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2729" t="inlineStr">
         <is>
           <t>2</t>
@@ -87994,23 +87736,31 @@
     <row r="2730">
       <c r="A2730" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2730" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2730" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr"/>
+      <c r="E2730" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2730" t="inlineStr"/>
-      <c r="G2730" t="inlineStr"/>
+      <c r="G2730" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2730" t="inlineStr">
         <is>
           <t>3</t>
@@ -88020,23 +87770,23 @@
     <row r="2731">
       <c r="A2731" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2731" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2731" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2731" t="inlineStr"/>
       <c r="E2731" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2731" t="inlineStr"/>
@@ -88050,121 +87800,125 @@
     <row r="2732">
       <c r="A2732" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2732" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2732" t="inlineStr"/>
-      <c r="E2732" t="inlineStr"/>
+      <c r="E2732" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr">
         <is>
-          <t>7.6M</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2732" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2733">
       <c r="A2733" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2733" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2733" t="inlineStr"/>
       <c r="E2733" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2733" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2734">
       <c r="A2734" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2734" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2734" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2734" t="inlineStr"/>
-      <c r="E2734" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2734" t="inlineStr"/>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2734" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2735">
       <c r="A2735" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2735" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2735" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2735" t="inlineStr"/>
       <c r="E2735" t="inlineStr"/>
       <c r="F2735" t="inlineStr"/>
-      <c r="G2735" t="inlineStr"/>
+      <c r="G2735" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2735" t="inlineStr">
         <is>
           <t>3</t>
@@ -88174,27 +87928,27 @@
     <row r="2736">
       <c r="A2736" t="inlineStr">
         <is>
-          <t>08:40 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2736" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2736" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2736" t="inlineStr"/>
       <c r="F2736" t="inlineStr"/>
-      <c r="G2736" t="inlineStr"/>
+      <c r="G2736" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2736" t="inlineStr">
         <is>
           <t>3</t>
@@ -88202,21 +87956,37 @@
       </c>
     </row>
     <row r="2737">
-      <c r="A2737" t="inlineStr"/>
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2737" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2737" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr"/>
-      <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr"/>
+      <c r="E2737" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2737" t="inlineStr">
         <is>
           <t>3</t>
@@ -88224,21 +87994,37 @@
       </c>
     </row>
     <row r="2738">
-      <c r="A2738" t="inlineStr"/>
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2738" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2738" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr"/>
-      <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
+      <c r="E2738" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2738" t="inlineStr">
         <is>
           <t>3</t>
@@ -88246,21 +88032,33 @@
       </c>
     </row>
     <row r="2739">
-      <c r="A2739" t="inlineStr"/>
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2739" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2739" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr"/>
+      <c r="E2739" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2739" t="inlineStr"/>
-      <c r="G2739" t="inlineStr"/>
+      <c r="G2739" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2739" t="inlineStr">
         <is>
           <t>3</t>
@@ -88268,25 +88066,33 @@
       </c>
     </row>
     <row r="2740">
-      <c r="A2740" t="inlineStr"/>
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2740" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2740" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2740" t="inlineStr"/>
       <c r="E2740" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr"/>
+      <c r="G2740" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2740" t="inlineStr">
         <is>
           <t>3</t>
@@ -88296,61 +88102,85 @@
     <row r="2741">
       <c r="A2741" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr"/>
-      <c r="C2741" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMIJAN</t>
+        </is>
+      </c>
       <c r="D2741" t="inlineStr"/>
-      <c r="E2741" t="inlineStr"/>
+      <c r="E2741" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr"/>
+      <c r="H2741" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2742">
       <c r="A2742" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2742" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2742" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr"/>
+      <c r="E2742" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
       <c r="H2742" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2743">
       <c r="A2743" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B2743" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2743" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr"/>
+      <c r="E2743" t="inlineStr">
+        <is>
+          <t>49.9</t>
+        </is>
+      </c>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
       <c r="H2743" t="inlineStr">
@@ -88362,23 +88192,31 @@
     <row r="2744">
       <c r="A2744" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2744" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2744" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2744" t="inlineStr"/>
-      <c r="E2744" t="inlineStr"/>
+      <c r="E2744" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2744" t="inlineStr"/>
-      <c r="G2744" t="inlineStr"/>
+      <c r="G2744" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2744" t="inlineStr">
         <is>
           <t>2</t>
@@ -88388,21 +88226,25 @@
     <row r="2745">
       <c r="A2745" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2745" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2745" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2745" t="inlineStr"/>
-      <c r="E2745" t="inlineStr"/>
+      <c r="E2745" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
       <c r="H2745" t="inlineStr">
@@ -88414,21 +88256,25 @@
     <row r="2746">
       <c r="A2746" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2746" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2746" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2746" t="inlineStr"/>
-      <c r="E2746" t="inlineStr"/>
+      <c r="E2746" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
       <c r="H2746" t="inlineStr">
@@ -88440,23 +88286,23 @@
     <row r="2747">
       <c r="A2747" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2747" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2747" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2747" t="inlineStr"/>
       <c r="E2747" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2747" t="inlineStr"/>
@@ -88470,87 +88316,103 @@
     <row r="2748">
       <c r="A2748" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2748" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2748" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2748" t="inlineStr"/>
       <c r="E2748" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
       <c r="H2748" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2749">
       <c r="A2749" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2749" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2749" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2749" t="inlineStr"/>
-      <c r="E2749" t="inlineStr"/>
-      <c r="F2749" t="inlineStr"/>
+      <c r="E2749" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2749" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2749" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2749" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2750">
       <c r="A2750" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2750" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2750" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2750" t="inlineStr"/>
       <c r="E2750" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F2750" t="inlineStr"/>
-      <c r="G2750" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="G2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="H2750" t="inlineStr">
         <is>
           <t>3</t>
@@ -88560,33 +88422,33 @@
     <row r="2751">
       <c r="A2751" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2751" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2751" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2751" t="inlineStr"/>
       <c r="E2751" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2751" t="inlineStr">
@@ -88598,93 +88460,109 @@
     <row r="2752">
       <c r="A2752" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2752" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2752" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2752" t="inlineStr"/>
       <c r="E2752" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2752" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2752" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2752" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2752" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2753">
       <c r="A2753" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2753" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2753" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2753" t="inlineStr"/>
       <c r="E2753" t="inlineStr">
         <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F2753" t="inlineStr"/>
-      <c r="G2753" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="G2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="H2753" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2754">
       <c r="A2754" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2754" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2754" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2754" t="inlineStr"/>
       <c r="E2754" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2754" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2754" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="G2754" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H2754" t="inlineStr">
@@ -88696,392 +88574,102 @@
     <row r="2755">
       <c r="A2755" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2755" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2755" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2755" t="inlineStr"/>
       <c r="E2755" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2755" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2756">
       <c r="A2756" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2756" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2756" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2756" t="inlineStr"/>
-      <c r="E2756" t="inlineStr"/>
+      <c r="E2756" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H2756" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2757">
       <c r="A2757" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2757" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2757" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2757" t="inlineStr"/>
-      <c r="E2757" t="inlineStr"/>
+      <c r="E2757" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="H2757" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2758">
-      <c r="A2758" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2758" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2758" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2758" t="inlineStr"/>
-      <c r="E2758" t="inlineStr"/>
-      <c r="F2758" t="inlineStr"/>
-      <c r="G2758" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2759">
-      <c r="A2759" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2759" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C2759" t="inlineStr">
-        <is>
-          <t>HSBC Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2759" t="inlineStr"/>
-      <c r="E2759" t="inlineStr">
-        <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2759" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
-      <c r="G2759" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2760">
-      <c r="A2760" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2760" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C2760" t="inlineStr">
-        <is>
-          <t>HSBC Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2760" t="inlineStr"/>
-      <c r="E2760" t="inlineStr">
-        <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2760" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="G2760" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2761">
-      <c r="A2761" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2761" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2761" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2761" t="inlineStr"/>
-      <c r="E2761" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="F2761" t="inlineStr"/>
-      <c r="G2761" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2762">
-      <c r="A2762" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2762" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2762" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2762" t="inlineStr"/>
-      <c r="E2762" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F2762" t="inlineStr"/>
-      <c r="G2762" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2763">
-      <c r="A2763" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2763" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2763" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2763" t="inlineStr"/>
-      <c r="E2763" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2763" t="inlineStr"/>
-      <c r="G2763" t="inlineStr"/>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2764">
-      <c r="A2764" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2764" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2764" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2764" t="inlineStr"/>
-      <c r="E2764" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2764" t="inlineStr"/>
-      <c r="G2764" t="inlineStr"/>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2765">
-      <c r="A2765" t="inlineStr">
-        <is>
-          <t>12:45 PM</t>
-        </is>
-      </c>
-      <c r="B2765" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2765" t="inlineStr">
-        <is>
-          <t>S&amp;P Global PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2765" t="inlineStr"/>
-      <c r="E2765" t="inlineStr">
-        <is>
-          <t>49.9</t>
-        </is>
-      </c>
-      <c r="F2765" t="inlineStr"/>
-      <c r="G2765" t="inlineStr"/>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2766">
-      <c r="A2766" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B2766" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2766" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2766" t="inlineStr"/>
-      <c r="E2766" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2766" t="inlineStr"/>
-      <c r="G2766" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2784"/>
+  <dimension ref="A1:H2774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83127,10 +83127,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83161,10 +83159,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2578">
@@ -83199,10 +83195,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83233,10 +83227,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2580">
@@ -83267,10 +83259,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2581">
@@ -83305,10 +83295,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83339,10 +83327,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83373,10 +83359,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83411,10 +83395,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2585">
@@ -83445,10 +83427,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83479,10 +83459,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2587">
@@ -83517,10 +83495,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2588">
@@ -83551,10 +83527,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83585,10 +83559,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83619,10 +83591,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83653,10 +83623,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83687,10 +83655,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83721,10 +83687,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83751,10 +83715,8 @@
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83789,10 +83751,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2596">
@@ -83823,10 +83783,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -83861,10 +83819,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2598">
@@ -83887,10 +83843,8 @@
       <c r="E2598" t="inlineStr"/>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2599">
@@ -83917,10 +83871,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83947,10 +83899,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -83977,10 +83927,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84007,10 +83955,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84037,10 +83983,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84067,10 +84011,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84097,10 +84039,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84127,10 +84067,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84157,10 +84095,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84187,10 +84123,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84217,10 +84151,8 @@
       </c>
       <c r="F2609" t="inlineStr"/>
       <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84247,10 +84179,8 @@
       </c>
       <c r="F2610" t="inlineStr"/>
       <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84281,10 +84211,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84315,10 +84243,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84349,10 +84275,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84383,10 +84307,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84417,10 +84339,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84451,10 +84371,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84481,10 +84399,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84511,10 +84427,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84541,10 +84455,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84575,10 +84487,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84609,10 +84519,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -84643,10 +84551,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -84681,10 +84587,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2624">
@@ -84719,10 +84623,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84753,10 +84655,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84791,10 +84691,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -84829,10 +84727,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2628">
@@ -84863,10 +84759,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2629">
@@ -84901,10 +84795,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -84939,10 +84831,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2631">
@@ -84977,10 +84867,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2632">
@@ -85011,10 +84899,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85045,10 +84931,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -85083,10 +84967,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -85109,10 +84991,8 @@
       <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85143,10 +85023,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85177,10 +85055,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -85211,10 +85087,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85249,10 +85123,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -85283,10 +85155,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85313,10 +85183,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85343,10 +85211,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85373,10 +85239,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85403,10 +85267,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85433,10 +85295,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85463,10 +85323,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85493,10 +85351,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85523,10 +85379,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85553,10 +85407,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85601,10 +85453,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85635,10 +85485,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85669,46 +85517,60 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr"/>
-      <c r="C2654" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr"/>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
       <c r="E2655" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2655" t="inlineStr"/>
@@ -85722,31 +85584,27 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2656" t="inlineStr"/>
       <c r="H2656" t="inlineStr">
         <is>
           <t>3</t>
@@ -85756,31 +85614,27 @@
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2657" t="inlineStr"/>
       <c r="H2657" t="inlineStr">
         <is>
           <t>3</t>
@@ -85790,31 +85644,27 @@
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2658" t="inlineStr"/>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -85824,21 +85674,25 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr"/>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
@@ -85850,65 +85704,53 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2660" t="inlineStr"/>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
           <t>2</t>
@@ -85918,127 +85760,139 @@
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2663">
       <c r="A2663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2664">
       <c r="A2664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2665">
       <c r="A2665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
@@ -86050,205 +85904,181 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2668" t="inlineStr"/>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2668" t="inlineStr"/>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2669">
       <c r="A2669" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2669" t="inlineStr"/>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2670" t="inlineStr"/>
       <c r="H2670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2671" t="inlineStr"/>
       <c r="H2671" t="inlineStr">
         <is>
           <t>3</t>
@@ -86258,91 +86088,83 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr"/>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2674" t="inlineStr"/>
@@ -86356,117 +86178,129 @@
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr"/>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr"/>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86476,55 +86310,47 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
@@ -86536,47 +86362,43 @@
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
@@ -86592,23 +86414,23 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
@@ -86622,27 +86444,35 @@
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2684" t="inlineStr">
         <is>
           <t>2</t>
@@ -86652,73 +86482,57 @@
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr"/>
       <c r="H2685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr"/>
       <c r="H2686" t="inlineStr">
         <is>
           <t>2</t>
@@ -86728,69 +86542,57 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2688" t="inlineStr"/>
       <c r="H2688" t="inlineStr">
         <is>
           <t>3</t>
@@ -86800,55 +86602,43 @@
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr"/>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
@@ -86857,176 +86647,156 @@
       <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2691" t="inlineStr"/>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2692" t="inlineStr"/>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2693" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr"/>
+      <c r="C2693" t="inlineStr"/>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2693" t="inlineStr"/>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
@@ -87040,23 +86810,23 @@
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
@@ -87070,31 +86840,23 @@
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
-      <c r="E2698" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2698" t="inlineStr"/>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87104,31 +86866,23 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
-      <c r="E2699" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2699" t="inlineStr"/>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87138,31 +86892,27 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2700" t="inlineStr"/>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87172,47 +86922,55 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -87224,17 +86982,17 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
@@ -87250,17 +87008,17 @@
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
@@ -87269,112 +87027,112 @@
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2706" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
@@ -87384,20 +87142,16 @@
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -87409,26 +87163,22 @@
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2709" t="inlineStr"/>
       <c r="H2709" t="inlineStr">
         <is>
           <t>3</t>
@@ -87448,16 +87198,20 @@
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
-      <c r="G2710" t="inlineStr"/>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -87474,23 +87228,31 @@
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2711" t="inlineStr"/>
-      <c r="G2711" t="inlineStr"/>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
@@ -87500,13 +87262,21 @@
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2712" t="inlineStr"/>
-      <c r="G2712" t="inlineStr"/>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2712" t="inlineStr">
         <is>
           <t>3</t>
@@ -87516,7 +87286,7 @@
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
@@ -87526,7 +87296,7 @@
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
@@ -87540,29 +87310,29 @@
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr"/>
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>08:40 PM</t>
+        </is>
+      </c>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2714" t="inlineStr"/>
       <c r="H2714" t="inlineStr">
         <is>
           <t>3</t>
@@ -87570,33 +87340,37 @@
       </c>
     </row>
     <row r="2715">
-      <c r="A2715" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr"/>
-      <c r="C2715" t="inlineStr"/>
+      <c r="A2715" t="inlineStr"/>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
       <c r="D2715" t="inlineStr"/>
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A2716" t="inlineStr"/>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
@@ -87610,27 +87384,19 @@
       </c>
     </row>
     <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2717" t="inlineStr"/>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
       <c r="H2717" t="inlineStr">
@@ -87640,25 +87406,21 @@
       </c>
     </row>
     <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A2718" t="inlineStr"/>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
@@ -87672,47 +87434,31 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2719" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr"/>
+      <c r="C2719" t="inlineStr"/>
       <c r="D2719" t="inlineStr"/>
-      <c r="E2719" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2719" t="inlineStr"/>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2719" t="inlineStr"/>
     </row>
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2720" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2720" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2720" t="inlineStr"/>
@@ -87721,24 +87467,24 @@
       <c r="G2720" t="inlineStr"/>
       <c r="H2720" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2721">
       <c r="A2721" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2721" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2721" t="inlineStr"/>
@@ -87754,85 +87500,73 @@
     <row r="2722">
       <c r="A2722" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2722" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2722" t="inlineStr"/>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
       <c r="H2722" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2723">
       <c r="A2723" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2723" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
+      <c r="E2723" t="inlineStr"/>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
       <c r="H2723" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2724">
       <c r="A2724" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
+      <c r="E2724" t="inlineStr"/>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
       <c r="H2724" t="inlineStr">
@@ -87844,81 +87578,85 @@
     <row r="2725">
       <c r="A2725" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2725" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr"/>
+      <c r="E2725" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
       <c r="H2725" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2726">
       <c r="A2726" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
       <c r="H2726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2727">
       <c r="A2727" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
+      <c r="E2727" t="inlineStr"/>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H2727" t="inlineStr">
@@ -87930,31 +87668,27 @@
     <row r="2728">
       <c r="A2728" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2728" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2728" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2728" t="inlineStr"/>
       <c r="E2728" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="G2728" t="inlineStr"/>
       <c r="H2728" t="inlineStr">
         <is>
           <t>3</t>
@@ -87964,27 +87698,35 @@
     <row r="2729">
       <c r="A2729" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2729" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2729" t="inlineStr"/>
       <c r="E2729" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2729" t="inlineStr">
         <is>
           <t>2</t>
@@ -87994,23 +87736,31 @@
     <row r="2730">
       <c r="A2730" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2730" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2730" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr"/>
+      <c r="E2730" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2730" t="inlineStr"/>
-      <c r="G2730" t="inlineStr"/>
+      <c r="G2730" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2730" t="inlineStr">
         <is>
           <t>3</t>
@@ -88020,23 +87770,23 @@
     <row r="2731">
       <c r="A2731" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2731" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2731" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2731" t="inlineStr"/>
       <c r="E2731" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2731" t="inlineStr"/>
@@ -88050,121 +87800,125 @@
     <row r="2732">
       <c r="A2732" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2732" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2732" t="inlineStr"/>
-      <c r="E2732" t="inlineStr"/>
+      <c r="E2732" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr">
         <is>
-          <t>7.6M</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2732" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2733">
       <c r="A2733" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2733" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2733" t="inlineStr"/>
       <c r="E2733" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2733" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2734">
       <c r="A2734" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2734" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2734" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2734" t="inlineStr"/>
-      <c r="E2734" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2734" t="inlineStr"/>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2734" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2735">
       <c r="A2735" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2735" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2735" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2735" t="inlineStr"/>
       <c r="E2735" t="inlineStr"/>
       <c r="F2735" t="inlineStr"/>
-      <c r="G2735" t="inlineStr"/>
+      <c r="G2735" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2735" t="inlineStr">
         <is>
           <t>3</t>
@@ -88174,27 +87928,27 @@
     <row r="2736">
       <c r="A2736" t="inlineStr">
         <is>
-          <t>08:40 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2736" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2736" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2736" t="inlineStr"/>
       <c r="F2736" t="inlineStr"/>
-      <c r="G2736" t="inlineStr"/>
+      <c r="G2736" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2736" t="inlineStr">
         <is>
           <t>3</t>
@@ -88202,21 +87956,37 @@
       </c>
     </row>
     <row r="2737">
-      <c r="A2737" t="inlineStr"/>
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2737" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2737" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr"/>
-      <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr"/>
+      <c r="E2737" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2737" t="inlineStr">
         <is>
           <t>3</t>
@@ -88224,21 +87994,37 @@
       </c>
     </row>
     <row r="2738">
-      <c r="A2738" t="inlineStr"/>
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2738" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2738" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr"/>
-      <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
+      <c r="E2738" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2738" t="inlineStr">
         <is>
           <t>3</t>
@@ -88246,21 +88032,33 @@
       </c>
     </row>
     <row r="2739">
-      <c r="A2739" t="inlineStr"/>
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2739" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2739" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr"/>
+      <c r="E2739" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2739" t="inlineStr"/>
-      <c r="G2739" t="inlineStr"/>
+      <c r="G2739" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2739" t="inlineStr">
         <is>
           <t>3</t>
@@ -88268,25 +88066,33 @@
       </c>
     </row>
     <row r="2740">
-      <c r="A2740" t="inlineStr"/>
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2740" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2740" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2740" t="inlineStr"/>
       <c r="E2740" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr"/>
+      <c r="G2740" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2740" t="inlineStr">
         <is>
           <t>3</t>
@@ -88296,61 +88102,85 @@
     <row r="2741">
       <c r="A2741" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr"/>
-      <c r="C2741" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMIJAN</t>
+        </is>
+      </c>
       <c r="D2741" t="inlineStr"/>
-      <c r="E2741" t="inlineStr"/>
+      <c r="E2741" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr"/>
+      <c r="H2741" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2742">
       <c r="A2742" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2742" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2742" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr"/>
+      <c r="E2742" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
       <c r="H2742" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2743">
       <c r="A2743" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B2743" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2743" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr"/>
+      <c r="E2743" t="inlineStr">
+        <is>
+          <t>49.9</t>
+        </is>
+      </c>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
       <c r="H2743" t="inlineStr">
@@ -88362,23 +88192,31 @@
     <row r="2744">
       <c r="A2744" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2744" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2744" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2744" t="inlineStr"/>
-      <c r="E2744" t="inlineStr"/>
+      <c r="E2744" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2744" t="inlineStr"/>
-      <c r="G2744" t="inlineStr"/>
+      <c r="G2744" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2744" t="inlineStr">
         <is>
           <t>2</t>
@@ -88388,21 +88226,25 @@
     <row r="2745">
       <c r="A2745" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2745" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2745" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2745" t="inlineStr"/>
-      <c r="E2745" t="inlineStr"/>
+      <c r="E2745" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
       <c r="H2745" t="inlineStr">
@@ -88414,21 +88256,25 @@
     <row r="2746">
       <c r="A2746" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2746" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2746" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2746" t="inlineStr"/>
-      <c r="E2746" t="inlineStr"/>
+      <c r="E2746" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
       <c r="H2746" t="inlineStr">
@@ -88440,23 +88286,23 @@
     <row r="2747">
       <c r="A2747" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2747" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2747" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2747" t="inlineStr"/>
       <c r="E2747" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2747" t="inlineStr"/>
@@ -88470,87 +88316,103 @@
     <row r="2748">
       <c r="A2748" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2748" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2748" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2748" t="inlineStr"/>
       <c r="E2748" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
       <c r="H2748" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2749">
       <c r="A2749" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2749" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2749" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2749" t="inlineStr"/>
-      <c r="E2749" t="inlineStr"/>
-      <c r="F2749" t="inlineStr"/>
+      <c r="E2749" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2749" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2749" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2749" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2750">
       <c r="A2750" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2750" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2750" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2750" t="inlineStr"/>
       <c r="E2750" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F2750" t="inlineStr"/>
-      <c r="G2750" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="G2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="H2750" t="inlineStr">
         <is>
           <t>3</t>
@@ -88560,33 +88422,33 @@
     <row r="2751">
       <c r="A2751" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2751" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2751" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2751" t="inlineStr"/>
       <c r="E2751" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2751" t="inlineStr">
@@ -88598,93 +88460,109 @@
     <row r="2752">
       <c r="A2752" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2752" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2752" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2752" t="inlineStr"/>
       <c r="E2752" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2752" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2752" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2752" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2752" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2753">
       <c r="A2753" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2753" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2753" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2753" t="inlineStr"/>
       <c r="E2753" t="inlineStr">
         <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F2753" t="inlineStr"/>
-      <c r="G2753" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="G2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="H2753" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2754">
       <c r="A2754" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2754" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2754" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2754" t="inlineStr"/>
       <c r="E2754" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2754" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2754" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="G2754" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H2754" t="inlineStr">
@@ -88696,89 +88574,97 @@
     <row r="2755">
       <c r="A2755" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2755" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2755" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2755" t="inlineStr"/>
       <c r="E2755" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2755" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2756">
       <c r="A2756" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2756" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2756" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2756" t="inlineStr"/>
-      <c r="E2756" t="inlineStr"/>
+      <c r="E2756" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H2756" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2757">
       <c r="A2757" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2757" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2757" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2757" t="inlineStr"/>
-      <c r="E2757" t="inlineStr"/>
+      <c r="E2757" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="H2757" t="inlineStr">
@@ -88790,63 +88676,67 @@
     <row r="2758">
       <c r="A2758" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2758" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2758" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2758" t="inlineStr"/>
-      <c r="E2758" t="inlineStr"/>
-      <c r="F2758" t="inlineStr"/>
+      <c r="E2758" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2758" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="G2758" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="H2758" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2759">
       <c r="A2759" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2759" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2759" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2759" t="inlineStr"/>
       <c r="E2759" t="inlineStr">
         <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2759" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2759" t="inlineStr"/>
       <c r="G2759" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2759" t="inlineStr">
@@ -88858,33 +88748,29 @@
     <row r="2760">
       <c r="A2760" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2760" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2760" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2760" t="inlineStr"/>
       <c r="E2760" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2760" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2760" t="inlineStr">
@@ -88896,29 +88782,29 @@
     <row r="2761">
       <c r="A2761" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2761" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2761" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2761" t="inlineStr"/>
       <c r="E2761" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2761" t="inlineStr"/>
       <c r="G2761" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2761" t="inlineStr">
@@ -88930,31 +88816,27 @@
     <row r="2762">
       <c r="A2762" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2762" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2762" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2762" t="inlineStr"/>
       <c r="E2762" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2762" t="inlineStr"/>
-      <c r="G2762" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2762" t="inlineStr"/>
       <c r="H2762" t="inlineStr">
         <is>
           <t>3</t>
@@ -88964,23 +88846,23 @@
     <row r="2763">
       <c r="A2763" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2763" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2763" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2763" t="inlineStr"/>
       <c r="E2763" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2763" t="inlineStr"/>
@@ -88994,23 +88876,23 @@
     <row r="2764">
       <c r="A2764" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2764" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2764" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2764" t="inlineStr"/>
       <c r="E2764" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2764" t="inlineStr"/>
@@ -89024,23 +88906,23 @@
     <row r="2765">
       <c r="A2765" t="inlineStr">
         <is>
-          <t>12:45 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2765" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2765" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2765" t="inlineStr"/>
       <c r="E2765" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2765" t="inlineStr"/>
@@ -89054,12 +88936,12 @@
     <row r="2766">
       <c r="A2766" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2766" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2766" t="inlineStr">
@@ -89070,13 +88952,13 @@
       <c r="D2766" t="inlineStr"/>
       <c r="E2766" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2766" t="inlineStr">
@@ -89088,53 +88970,57 @@
     <row r="2767">
       <c r="A2767" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2767" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2767" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2767" t="inlineStr"/>
       <c r="E2767" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2767" t="inlineStr"/>
-      <c r="G2767" t="inlineStr"/>
+      <c r="G2767" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2767" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2768">
       <c r="A2768" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2768" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2768" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2768" t="inlineStr"/>
       <c r="E2768" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2768" t="inlineStr"/>
@@ -89148,55 +89034,51 @@
     <row r="2769">
       <c r="A2769" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2769" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2769" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2769" t="inlineStr"/>
       <c r="E2769" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
       <c r="H2769" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2770">
       <c r="A2770" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2770" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2770" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2770" t="inlineStr"/>
-      <c r="E2770" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2770" t="inlineStr"/>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
       <c r="H2770" t="inlineStr">
@@ -89208,73 +89090,49 @@
     <row r="2771">
       <c r="A2771" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2771" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2771" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2771" t="inlineStr"/>
-      <c r="E2771" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2771" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2771" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2771" t="inlineStr"/>
+      <c r="F2771" t="inlineStr"/>
+      <c r="G2771" t="inlineStr"/>
       <c r="H2771" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2772">
       <c r="A2772" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2772" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2772" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2772" t="inlineStr"/>
-      <c r="E2772" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2772" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2772" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2772" t="inlineStr"/>
+      <c r="F2772" t="inlineStr"/>
+      <c r="G2772" t="inlineStr"/>
       <c r="H2772" t="inlineStr">
         <is>
           <t>3</t>
@@ -89284,422 +89142,50 @@
     <row r="2773">
       <c r="A2773" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2773" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2773" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2773" t="inlineStr"/>
-      <c r="E2773" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2773" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2773" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2773" t="inlineStr"/>
+      <c r="F2773" t="inlineStr"/>
+      <c r="G2773" t="inlineStr"/>
       <c r="H2773" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2774">
       <c r="A2774" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2774" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2774" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2774" t="inlineStr"/>
-      <c r="E2774" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2774" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2774" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2774" t="inlineStr"/>
+      <c r="F2774" t="inlineStr"/>
+      <c r="G2774" t="inlineStr"/>
       <c r="H2774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2775">
-      <c r="A2775" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B2775" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2775" t="inlineStr">
-        <is>
-          <t>HCOB Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2775" t="inlineStr"/>
-      <c r="E2775" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2775" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
-      <c r="G2775" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2776">
-      <c r="A2776" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B2776" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2776" t="inlineStr">
-        <is>
-          <t>HCOB Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2776" t="inlineStr"/>
-      <c r="E2776" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2776" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="G2776" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2777">
-      <c r="A2777" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B2777" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2777" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2777" t="inlineStr"/>
-      <c r="E2777" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F2777" t="inlineStr"/>
-      <c r="G2777" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2778">
-      <c r="A2778" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B2778" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2778" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2778" t="inlineStr"/>
-      <c r="E2778" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F2778" t="inlineStr"/>
-      <c r="G2778" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2779">
-      <c r="A2779" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B2779" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2779" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2779" t="inlineStr"/>
-      <c r="E2779" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F2779" t="inlineStr"/>
-      <c r="G2779" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2780">
-      <c r="A2780" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2780" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2780" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2780" t="inlineStr"/>
-      <c r="E2780" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2780" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="G2780" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2781">
-      <c r="A2781" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2781" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2781" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2781" t="inlineStr"/>
-      <c r="E2781" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F2781" t="inlineStr"/>
-      <c r="G2781" t="inlineStr">
-        <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2782">
-      <c r="A2782" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2782" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2782" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2782" t="inlineStr"/>
-      <c r="E2782" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F2782" t="inlineStr"/>
-      <c r="G2782" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2783">
-      <c r="A2783" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2783" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2783" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2783" t="inlineStr"/>
-      <c r="E2783" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F2783" t="inlineStr"/>
-      <c r="G2783" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2784">
-      <c r="A2784" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2784" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2784" t="inlineStr">
-        <is>
-          <t>30-Year Green Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D2784" t="inlineStr"/>
-      <c r="E2784" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
-      <c r="F2784" t="inlineStr"/>
-      <c r="G2784" t="inlineStr"/>
-      <c r="H2784" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2806"/>
+  <dimension ref="A1:H2794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83127,10 +83127,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83161,10 +83159,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2578">
@@ -83199,10 +83195,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83233,10 +83227,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2580">
@@ -83267,10 +83259,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2581">
@@ -83305,10 +83295,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83339,10 +83327,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83373,10 +83359,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83411,10 +83395,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2585">
@@ -83445,10 +83427,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83479,10 +83459,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2587">
@@ -83517,10 +83495,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2588">
@@ -83551,10 +83527,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83585,10 +83559,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83619,10 +83591,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83653,10 +83623,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83687,10 +83655,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83721,10 +83687,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83751,10 +83715,8 @@
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83789,10 +83751,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2596">
@@ -83823,10 +83783,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -83861,10 +83819,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2598">
@@ -83887,10 +83843,8 @@
       <c r="E2598" t="inlineStr"/>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2599">
@@ -83917,10 +83871,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83947,10 +83899,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -83977,10 +83927,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84007,10 +83955,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84037,10 +83983,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84067,10 +84011,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84097,10 +84039,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84127,10 +84067,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84157,10 +84095,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84187,10 +84123,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84217,10 +84151,8 @@
       </c>
       <c r="F2609" t="inlineStr"/>
       <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84247,10 +84179,8 @@
       </c>
       <c r="F2610" t="inlineStr"/>
       <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84281,10 +84211,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84315,10 +84243,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84349,10 +84275,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84383,10 +84307,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84417,10 +84339,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84451,10 +84371,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84481,10 +84399,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84511,10 +84427,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84541,10 +84455,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84575,10 +84487,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84609,10 +84519,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -84643,10 +84551,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -84681,10 +84587,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2624">
@@ -84719,10 +84623,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84753,10 +84655,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84791,10 +84691,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -84829,10 +84727,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2628">
@@ -84863,10 +84759,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2629">
@@ -84901,10 +84795,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -84939,10 +84831,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2631">
@@ -84977,10 +84867,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2632">
@@ -85011,10 +84899,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85045,10 +84931,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -85083,10 +84967,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -85109,10 +84991,8 @@
       <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85143,10 +85023,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85177,10 +85055,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -85211,10 +85087,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85249,10 +85123,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -85283,10 +85155,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85313,10 +85183,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85343,10 +85211,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85373,10 +85239,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85403,10 +85267,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85433,10 +85295,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85463,10 +85323,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85493,10 +85351,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85523,10 +85379,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85553,10 +85407,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85601,10 +85453,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85635,10 +85485,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85669,46 +85517,60 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr"/>
-      <c r="C2654" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr"/>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
       <c r="E2655" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2655" t="inlineStr"/>
@@ -85722,31 +85584,27 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2656" t="inlineStr"/>
       <c r="H2656" t="inlineStr">
         <is>
           <t>3</t>
@@ -85756,31 +85614,27 @@
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2657" t="inlineStr"/>
       <c r="H2657" t="inlineStr">
         <is>
           <t>3</t>
@@ -85790,31 +85644,27 @@
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2658" t="inlineStr"/>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -85824,21 +85674,25 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr"/>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
@@ -85850,65 +85704,53 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2660" t="inlineStr"/>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
           <t>2</t>
@@ -85918,127 +85760,139 @@
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2663">
       <c r="A2663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2664">
       <c r="A2664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2665">
       <c r="A2665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
@@ -86050,205 +85904,181 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2668" t="inlineStr"/>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2668" t="inlineStr"/>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2669">
       <c r="A2669" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2669" t="inlineStr"/>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2670" t="inlineStr"/>
       <c r="H2670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2671" t="inlineStr"/>
       <c r="H2671" t="inlineStr">
         <is>
           <t>3</t>
@@ -86258,91 +86088,83 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr"/>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2674" t="inlineStr"/>
@@ -86356,117 +86178,129 @@
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr"/>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr"/>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86476,55 +86310,47 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
@@ -86536,47 +86362,43 @@
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
@@ -86592,23 +86414,23 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
@@ -86622,27 +86444,35 @@
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2684" t="inlineStr">
         <is>
           <t>2</t>
@@ -86652,73 +86482,57 @@
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr"/>
       <c r="H2685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr"/>
       <c r="H2686" t="inlineStr">
         <is>
           <t>2</t>
@@ -86728,69 +86542,57 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2688" t="inlineStr"/>
       <c r="H2688" t="inlineStr">
         <is>
           <t>3</t>
@@ -86800,55 +86602,43 @@
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr"/>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
@@ -86857,176 +86647,156 @@
       <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2691" t="inlineStr"/>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2692" t="inlineStr"/>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2693" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr"/>
+      <c r="C2693" t="inlineStr"/>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2693" t="inlineStr"/>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
@@ -87040,23 +86810,23 @@
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
@@ -87070,31 +86840,23 @@
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
-      <c r="E2698" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2698" t="inlineStr"/>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87104,31 +86866,23 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
-      <c r="E2699" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2699" t="inlineStr"/>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87138,31 +86892,27 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2700" t="inlineStr"/>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87172,47 +86922,55 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -87224,17 +86982,17 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
@@ -87250,17 +87008,17 @@
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
@@ -87269,112 +87027,112 @@
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2706" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
@@ -87384,20 +87142,16 @@
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -87409,26 +87163,22 @@
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2709" t="inlineStr"/>
       <c r="H2709" t="inlineStr">
         <is>
           <t>3</t>
@@ -87448,16 +87198,20 @@
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
-      <c r="G2710" t="inlineStr"/>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -87474,23 +87228,31 @@
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2711" t="inlineStr"/>
-      <c r="G2711" t="inlineStr"/>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
@@ -87500,13 +87262,21 @@
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2712" t="inlineStr"/>
-      <c r="G2712" t="inlineStr"/>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2712" t="inlineStr">
         <is>
           <t>3</t>
@@ -87516,7 +87286,7 @@
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
@@ -87526,7 +87296,7 @@
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
@@ -87540,29 +87310,29 @@
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr"/>
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>08:40 PM</t>
+        </is>
+      </c>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2714" t="inlineStr"/>
       <c r="H2714" t="inlineStr">
         <is>
           <t>3</t>
@@ -87570,33 +87340,37 @@
       </c>
     </row>
     <row r="2715">
-      <c r="A2715" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr"/>
-      <c r="C2715" t="inlineStr"/>
+      <c r="A2715" t="inlineStr"/>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
       <c r="D2715" t="inlineStr"/>
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A2716" t="inlineStr"/>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
@@ -87610,27 +87384,19 @@
       </c>
     </row>
     <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2717" t="inlineStr"/>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
       <c r="H2717" t="inlineStr">
@@ -87640,25 +87406,21 @@
       </c>
     </row>
     <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A2718" t="inlineStr"/>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
@@ -87672,47 +87434,31 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2719" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr"/>
+      <c r="C2719" t="inlineStr"/>
       <c r="D2719" t="inlineStr"/>
-      <c r="E2719" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2719" t="inlineStr"/>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2719" t="inlineStr"/>
     </row>
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2720" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2720" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2720" t="inlineStr"/>
@@ -87721,24 +87467,24 @@
       <c r="G2720" t="inlineStr"/>
       <c r="H2720" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2721">
       <c r="A2721" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2721" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2721" t="inlineStr"/>
@@ -87754,85 +87500,73 @@
     <row r="2722">
       <c r="A2722" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2722" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2722" t="inlineStr"/>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
       <c r="H2722" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2723">
       <c r="A2723" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2723" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
+      <c r="E2723" t="inlineStr"/>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
       <c r="H2723" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2724">
       <c r="A2724" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
+      <c r="E2724" t="inlineStr"/>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
       <c r="H2724" t="inlineStr">
@@ -87844,81 +87578,85 @@
     <row r="2725">
       <c r="A2725" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2725" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr"/>
+      <c r="E2725" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
       <c r="H2725" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2726">
       <c r="A2726" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
       <c r="H2726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2727">
       <c r="A2727" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
+      <c r="E2727" t="inlineStr"/>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H2727" t="inlineStr">
@@ -87930,31 +87668,27 @@
     <row r="2728">
       <c r="A2728" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2728" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2728" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2728" t="inlineStr"/>
       <c r="E2728" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="G2728" t="inlineStr"/>
       <c r="H2728" t="inlineStr">
         <is>
           <t>3</t>
@@ -87964,27 +87698,35 @@
     <row r="2729">
       <c r="A2729" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2729" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2729" t="inlineStr"/>
       <c r="E2729" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2729" t="inlineStr">
         <is>
           <t>2</t>
@@ -87994,23 +87736,31 @@
     <row r="2730">
       <c r="A2730" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2730" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2730" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr"/>
+      <c r="E2730" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2730" t="inlineStr"/>
-      <c r="G2730" t="inlineStr"/>
+      <c r="G2730" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2730" t="inlineStr">
         <is>
           <t>3</t>
@@ -88020,23 +87770,23 @@
     <row r="2731">
       <c r="A2731" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2731" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2731" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2731" t="inlineStr"/>
       <c r="E2731" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2731" t="inlineStr"/>
@@ -88050,121 +87800,125 @@
     <row r="2732">
       <c r="A2732" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2732" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2732" t="inlineStr"/>
-      <c r="E2732" t="inlineStr"/>
+      <c r="E2732" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr">
         <is>
-          <t>7.6M</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2732" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2733">
       <c r="A2733" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2733" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2733" t="inlineStr"/>
       <c r="E2733" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2733" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2734">
       <c r="A2734" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2734" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2734" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2734" t="inlineStr"/>
-      <c r="E2734" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2734" t="inlineStr"/>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2734" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2735">
       <c r="A2735" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2735" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2735" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2735" t="inlineStr"/>
       <c r="E2735" t="inlineStr"/>
       <c r="F2735" t="inlineStr"/>
-      <c r="G2735" t="inlineStr"/>
+      <c r="G2735" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2735" t="inlineStr">
         <is>
           <t>3</t>
@@ -88174,27 +87928,27 @@
     <row r="2736">
       <c r="A2736" t="inlineStr">
         <is>
-          <t>08:40 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2736" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2736" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2736" t="inlineStr"/>
       <c r="F2736" t="inlineStr"/>
-      <c r="G2736" t="inlineStr"/>
+      <c r="G2736" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2736" t="inlineStr">
         <is>
           <t>3</t>
@@ -88202,21 +87956,37 @@
       </c>
     </row>
     <row r="2737">
-      <c r="A2737" t="inlineStr"/>
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2737" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2737" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr"/>
-      <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr"/>
+      <c r="E2737" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2737" t="inlineStr">
         <is>
           <t>3</t>
@@ -88224,21 +87994,37 @@
       </c>
     </row>
     <row r="2738">
-      <c r="A2738" t="inlineStr"/>
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2738" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2738" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr"/>
-      <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
+      <c r="E2738" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2738" t="inlineStr">
         <is>
           <t>3</t>
@@ -88246,21 +88032,33 @@
       </c>
     </row>
     <row r="2739">
-      <c r="A2739" t="inlineStr"/>
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2739" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2739" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr"/>
+      <c r="E2739" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2739" t="inlineStr"/>
-      <c r="G2739" t="inlineStr"/>
+      <c r="G2739" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2739" t="inlineStr">
         <is>
           <t>3</t>
@@ -88268,25 +88066,33 @@
       </c>
     </row>
     <row r="2740">
-      <c r="A2740" t="inlineStr"/>
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2740" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2740" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2740" t="inlineStr"/>
       <c r="E2740" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr"/>
+      <c r="G2740" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2740" t="inlineStr">
         <is>
           <t>3</t>
@@ -88296,61 +88102,85 @@
     <row r="2741">
       <c r="A2741" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr"/>
-      <c r="C2741" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMIJAN</t>
+        </is>
+      </c>
       <c r="D2741" t="inlineStr"/>
-      <c r="E2741" t="inlineStr"/>
+      <c r="E2741" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr"/>
+      <c r="H2741" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2742">
       <c r="A2742" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2742" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2742" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr"/>
+      <c r="E2742" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
       <c r="H2742" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2743">
       <c r="A2743" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B2743" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2743" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr"/>
+      <c r="E2743" t="inlineStr">
+        <is>
+          <t>49.9</t>
+        </is>
+      </c>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
       <c r="H2743" t="inlineStr">
@@ -88362,23 +88192,31 @@
     <row r="2744">
       <c r="A2744" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2744" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2744" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2744" t="inlineStr"/>
-      <c r="E2744" t="inlineStr"/>
+      <c r="E2744" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2744" t="inlineStr"/>
-      <c r="G2744" t="inlineStr"/>
+      <c r="G2744" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2744" t="inlineStr">
         <is>
           <t>2</t>
@@ -88388,21 +88226,25 @@
     <row r="2745">
       <c r="A2745" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2745" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2745" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2745" t="inlineStr"/>
-      <c r="E2745" t="inlineStr"/>
+      <c r="E2745" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
       <c r="H2745" t="inlineStr">
@@ -88414,21 +88256,25 @@
     <row r="2746">
       <c r="A2746" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2746" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2746" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2746" t="inlineStr"/>
-      <c r="E2746" t="inlineStr"/>
+      <c r="E2746" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
       <c r="H2746" t="inlineStr">
@@ -88440,23 +88286,23 @@
     <row r="2747">
       <c r="A2747" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2747" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2747" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2747" t="inlineStr"/>
       <c r="E2747" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2747" t="inlineStr"/>
@@ -88470,87 +88316,103 @@
     <row r="2748">
       <c r="A2748" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2748" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2748" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2748" t="inlineStr"/>
       <c r="E2748" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
       <c r="H2748" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2749">
       <c r="A2749" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2749" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2749" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2749" t="inlineStr"/>
-      <c r="E2749" t="inlineStr"/>
-      <c r="F2749" t="inlineStr"/>
+      <c r="E2749" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2749" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2749" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2749" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2750">
       <c r="A2750" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2750" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2750" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2750" t="inlineStr"/>
       <c r="E2750" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F2750" t="inlineStr"/>
-      <c r="G2750" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="G2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="H2750" t="inlineStr">
         <is>
           <t>3</t>
@@ -88560,33 +88422,33 @@
     <row r="2751">
       <c r="A2751" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2751" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2751" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2751" t="inlineStr"/>
       <c r="E2751" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2751" t="inlineStr">
@@ -88598,93 +88460,109 @@
     <row r="2752">
       <c r="A2752" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2752" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2752" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2752" t="inlineStr"/>
       <c r="E2752" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2752" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2752" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2752" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2752" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2753">
       <c r="A2753" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2753" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2753" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2753" t="inlineStr"/>
       <c r="E2753" t="inlineStr">
         <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F2753" t="inlineStr"/>
-      <c r="G2753" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="G2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="H2753" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2754">
       <c r="A2754" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2754" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2754" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2754" t="inlineStr"/>
       <c r="E2754" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2754" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2754" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="G2754" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H2754" t="inlineStr">
@@ -88696,89 +88574,97 @@
     <row r="2755">
       <c r="A2755" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2755" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2755" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2755" t="inlineStr"/>
       <c r="E2755" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2755" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2756">
       <c r="A2756" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2756" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2756" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2756" t="inlineStr"/>
-      <c r="E2756" t="inlineStr"/>
+      <c r="E2756" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H2756" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2757">
       <c r="A2757" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2757" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2757" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2757" t="inlineStr"/>
-      <c r="E2757" t="inlineStr"/>
+      <c r="E2757" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="H2757" t="inlineStr">
@@ -88790,63 +88676,67 @@
     <row r="2758">
       <c r="A2758" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2758" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2758" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2758" t="inlineStr"/>
-      <c r="E2758" t="inlineStr"/>
-      <c r="F2758" t="inlineStr"/>
+      <c r="E2758" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2758" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="G2758" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="H2758" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2759">
       <c r="A2759" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2759" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2759" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2759" t="inlineStr"/>
       <c r="E2759" t="inlineStr">
         <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2759" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2759" t="inlineStr"/>
       <c r="G2759" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2759" t="inlineStr">
@@ -88858,33 +88748,29 @@
     <row r="2760">
       <c r="A2760" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2760" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2760" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2760" t="inlineStr"/>
       <c r="E2760" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2760" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2760" t="inlineStr">
@@ -88896,29 +88782,29 @@
     <row r="2761">
       <c r="A2761" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2761" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2761" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2761" t="inlineStr"/>
       <c r="E2761" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2761" t="inlineStr"/>
       <c r="G2761" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2761" t="inlineStr">
@@ -88930,31 +88816,27 @@
     <row r="2762">
       <c r="A2762" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2762" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2762" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2762" t="inlineStr"/>
       <c r="E2762" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2762" t="inlineStr"/>
-      <c r="G2762" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2762" t="inlineStr"/>
       <c r="H2762" t="inlineStr">
         <is>
           <t>3</t>
@@ -88964,23 +88846,23 @@
     <row r="2763">
       <c r="A2763" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2763" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2763" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2763" t="inlineStr"/>
       <c r="E2763" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2763" t="inlineStr"/>
@@ -88994,23 +88876,23 @@
     <row r="2764">
       <c r="A2764" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2764" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2764" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2764" t="inlineStr"/>
       <c r="E2764" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2764" t="inlineStr"/>
@@ -89024,23 +88906,23 @@
     <row r="2765">
       <c r="A2765" t="inlineStr">
         <is>
-          <t>12:45 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2765" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2765" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2765" t="inlineStr"/>
       <c r="E2765" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2765" t="inlineStr"/>
@@ -89054,12 +88936,12 @@
     <row r="2766">
       <c r="A2766" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2766" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2766" t="inlineStr">
@@ -89070,13 +88952,13 @@
       <c r="D2766" t="inlineStr"/>
       <c r="E2766" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2766" t="inlineStr">
@@ -89088,53 +88970,57 @@
     <row r="2767">
       <c r="A2767" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2767" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2767" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2767" t="inlineStr"/>
       <c r="E2767" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2767" t="inlineStr"/>
-      <c r="G2767" t="inlineStr"/>
+      <c r="G2767" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2767" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2768">
       <c r="A2768" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2768" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2768" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2768" t="inlineStr"/>
       <c r="E2768" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2768" t="inlineStr"/>
@@ -89148,55 +89034,51 @@
     <row r="2769">
       <c r="A2769" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2769" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2769" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2769" t="inlineStr"/>
       <c r="E2769" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
       <c r="H2769" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2770">
       <c r="A2770" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2770" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2770" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2770" t="inlineStr"/>
-      <c r="E2770" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2770" t="inlineStr"/>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
       <c r="H2770" t="inlineStr">
@@ -89208,73 +89090,49 @@
     <row r="2771">
       <c r="A2771" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2771" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2771" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2771" t="inlineStr"/>
-      <c r="E2771" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2771" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2771" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2771" t="inlineStr"/>
+      <c r="F2771" t="inlineStr"/>
+      <c r="G2771" t="inlineStr"/>
       <c r="H2771" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2772">
       <c r="A2772" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2772" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2772" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2772" t="inlineStr"/>
-      <c r="E2772" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2772" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2772" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2772" t="inlineStr"/>
+      <c r="F2772" t="inlineStr"/>
+      <c r="G2772" t="inlineStr"/>
       <c r="H2772" t="inlineStr">
         <is>
           <t>3</t>
@@ -89284,106 +89142,78 @@
     <row r="2773">
       <c r="A2773" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2773" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2773" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2773" t="inlineStr"/>
-      <c r="E2773" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2773" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2773" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2773" t="inlineStr"/>
+      <c r="F2773" t="inlineStr"/>
+      <c r="G2773" t="inlineStr"/>
       <c r="H2773" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2774">
       <c r="A2774" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2774" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2774" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2774" t="inlineStr"/>
-      <c r="E2774" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2774" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2774" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2774" t="inlineStr"/>
+      <c r="F2774" t="inlineStr"/>
+      <c r="G2774" t="inlineStr"/>
       <c r="H2774" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2775">
       <c r="A2775" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2775" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2775" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2775" t="inlineStr"/>
       <c r="E2775" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2775" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr">
         <is>
           <t>50.2</t>
@@ -89398,69 +89228,61 @@
     <row r="2776">
       <c r="A2776" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2776" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2776" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2776" t="inlineStr"/>
       <c r="E2776" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2776" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H2776" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2777">
       <c r="A2777" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2777" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2777" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2777" t="inlineStr"/>
       <c r="E2777" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2777" t="inlineStr"/>
-      <c r="G2777" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2777" t="inlineStr"/>
       <c r="H2777" t="inlineStr">
         <is>
           <t>2</t>
@@ -89470,63 +89292,63 @@
     <row r="2778">
       <c r="A2778" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2778" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2778" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2778" t="inlineStr"/>
       <c r="E2778" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2778" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2779">
       <c r="A2779" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2779" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2779" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2779" t="inlineStr"/>
       <c r="E2779" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2779" t="inlineStr">
@@ -89538,165 +89360,157 @@
     <row r="2780">
       <c r="A2780" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2780" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2780" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2780" t="inlineStr"/>
       <c r="E2780" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2780" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>C$66.43B</t>
+        </is>
+      </c>
+      <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2780" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2781">
       <c r="A2781" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2781" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2781" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2781" t="inlineStr"/>
       <c r="E2781" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2781" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2782">
       <c r="A2782" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2782" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2782" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2782" t="inlineStr"/>
       <c r="E2782" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2782" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2783">
       <c r="A2783" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2783" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2783" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2783" t="inlineStr"/>
       <c r="E2783" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>$351.6B</t>
         </is>
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$ 338B</t>
         </is>
       </c>
       <c r="H2783" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2784">
       <c r="A2784" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2784" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2784" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2784" t="inlineStr"/>
-      <c r="E2784" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
+      <c r="E2784" t="inlineStr"/>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
       <c r="H2784" t="inlineStr">
@@ -89708,27 +89522,31 @@
     <row r="2785">
       <c r="A2785" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2785" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2785" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2785" t="inlineStr"/>
       <c r="E2785" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2785" t="inlineStr"/>
-      <c r="G2785" t="inlineStr"/>
+      <c r="G2785" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
       <c r="H2785" t="inlineStr">
         <is>
           <t>3</t>
@@ -89738,27 +89556,31 @@
     <row r="2786">
       <c r="A2786" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2786" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2786" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2786" t="inlineStr"/>
       <c r="E2786" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="F2786" t="inlineStr"/>
-      <c r="G2786" t="inlineStr"/>
+      <c r="G2786" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="H2786" t="inlineStr">
         <is>
           <t>3</t>
@@ -89768,59 +89590,71 @@
     <row r="2787">
       <c r="A2787" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2787" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2787" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2787" t="inlineStr"/>
       <c r="E2787" t="inlineStr">
         <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="F2787" t="inlineStr"/>
-      <c r="G2787" t="inlineStr"/>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F2787" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="G2787" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="H2787" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2788">
       <c r="A2788" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2788" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2788" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2788" t="inlineStr"/>
       <c r="E2788" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2788" t="inlineStr"/>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2788" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="G2788" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="H2788" t="inlineStr">
@@ -89832,57 +89666,49 @@
     <row r="2789">
       <c r="A2789" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2789" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2789" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2789" t="inlineStr"/>
-      <c r="E2789" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E2789" t="inlineStr"/>
       <c r="F2789" t="inlineStr"/>
-      <c r="G2789" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2789" t="inlineStr"/>
       <c r="H2789" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2790">
       <c r="A2790" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2790" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2790" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2790" t="inlineStr"/>
       <c r="E2790" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2790" t="inlineStr"/>
@@ -89896,23 +89722,23 @@
     <row r="2791">
       <c r="A2791" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2791" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2791" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2791" t="inlineStr"/>
       <c r="E2791" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2791" t="inlineStr"/>
@@ -89926,7 +89752,7 @@
     <row r="2792">
       <c r="A2792" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2792" t="inlineStr">
@@ -89936,23 +89762,27 @@
       </c>
       <c r="C2792" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2792" t="inlineStr"/>
-      <c r="E2792" t="inlineStr"/>
+      <c r="E2792" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
       <c r="H2792" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2793">
       <c r="A2793" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2793" t="inlineStr">
@@ -89962,11 +89792,15 @@
       </c>
       <c r="C2793" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2793" t="inlineStr"/>
-      <c r="E2793" t="inlineStr"/>
+      <c r="E2793" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
       <c r="H2793" t="inlineStr">
@@ -89976,11 +89810,7 @@
       </c>
     </row>
     <row r="2794">
-      <c r="A2794" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2794" t="inlineStr"/>
       <c r="B2794" t="inlineStr">
         <is>
           <t>US</t>
@@ -89988,394 +89818,18 @@
       </c>
       <c r="C2794" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>Total Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2794" t="inlineStr"/>
-      <c r="E2794" t="inlineStr"/>
+      <c r="E2794" t="inlineStr">
+        <is>
+          <t>16.8M</t>
+        </is>
+      </c>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
       <c r="H2794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2795">
-      <c r="A2795" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2795" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2795" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
-        </is>
-      </c>
-      <c r="D2795" t="inlineStr"/>
-      <c r="E2795" t="inlineStr"/>
-      <c r="F2795" t="inlineStr"/>
-      <c r="G2795" t="inlineStr"/>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2796">
-      <c r="A2796" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2796" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2796" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/31</t>
-        </is>
-      </c>
-      <c r="D2796" t="inlineStr"/>
-      <c r="E2796" t="inlineStr"/>
-      <c r="F2796" t="inlineStr"/>
-      <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2797">
-      <c r="A2797" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2797" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2797" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2797" t="inlineStr"/>
-      <c r="E2797" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2797" t="inlineStr"/>
-      <c r="G2797" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2798">
-      <c r="A2798" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2798" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2798" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2798" t="inlineStr"/>
-      <c r="E2798" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F2798" t="inlineStr"/>
-      <c r="G2798" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2799">
-      <c r="A2799" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2799" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2799" t="inlineStr">
-        <is>
-          <t>ADP Employment ChangeJAN</t>
-        </is>
-      </c>
-      <c r="D2799" t="inlineStr"/>
-      <c r="E2799" t="inlineStr">
-        <is>
-          <t>122K</t>
-        </is>
-      </c>
-      <c r="F2799" t="inlineStr"/>
-      <c r="G2799" t="inlineStr"/>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2800">
-      <c r="A2800" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2800" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2800" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D2800" t="inlineStr"/>
-      <c r="E2800" t="inlineStr">
-        <is>
-          <t>C$-0.32B</t>
-        </is>
-      </c>
-      <c r="F2800" t="inlineStr"/>
-      <c r="G2800" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2801">
-      <c r="A2801" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2801" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2801" t="inlineStr">
-        <is>
-          <t>ExportsDEC</t>
-        </is>
-      </c>
-      <c r="D2801" t="inlineStr"/>
-      <c r="E2801" t="inlineStr">
-        <is>
-          <t>C$66.11B</t>
-        </is>
-      </c>
-      <c r="F2801" t="inlineStr"/>
-      <c r="G2801" t="inlineStr">
-        <is>
-          <t>C$ 65.8B</t>
-        </is>
-      </c>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2802">
-      <c r="A2802" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2802" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2802" t="inlineStr">
-        <is>
-          <t>ImportsDEC</t>
-        </is>
-      </c>
-      <c r="D2802" t="inlineStr"/>
-      <c r="E2802" t="inlineStr">
-        <is>
-          <t>C$66.43B</t>
-        </is>
-      </c>
-      <c r="F2802" t="inlineStr"/>
-      <c r="G2802" t="inlineStr">
-        <is>
-          <t>C$ 64.5B</t>
-        </is>
-      </c>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2803">
-      <c r="A2803" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2803" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2803" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D2803" t="inlineStr"/>
-      <c r="E2803" t="inlineStr">
-        <is>
-          <t>$-78.2B</t>
-        </is>
-      </c>
-      <c r="F2803" t="inlineStr"/>
-      <c r="G2803" t="inlineStr">
-        <is>
-          <t>$ -68B</t>
-        </is>
-      </c>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2804">
-      <c r="A2804" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2804" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2804" t="inlineStr">
-        <is>
-          <t>ExportsDEC</t>
-        </is>
-      </c>
-      <c r="D2804" t="inlineStr"/>
-      <c r="E2804" t="inlineStr">
-        <is>
-          <t>$273.4B</t>
-        </is>
-      </c>
-      <c r="F2804" t="inlineStr"/>
-      <c r="G2804" t="inlineStr">
-        <is>
-          <t>$ 275.0B</t>
-        </is>
-      </c>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2805">
-      <c r="A2805" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2805" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2805" t="inlineStr">
-        <is>
-          <t>ImportsDEC</t>
-        </is>
-      </c>
-      <c r="D2805" t="inlineStr"/>
-      <c r="E2805" t="inlineStr">
-        <is>
-          <t>$351.6B</t>
-        </is>
-      </c>
-      <c r="F2805" t="inlineStr"/>
-      <c r="G2805" t="inlineStr">
-        <is>
-          <t>$ 338B</t>
-        </is>
-      </c>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2806">
-      <c r="A2806" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2806" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2806" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Announcement</t>
-        </is>
-      </c>
-      <c r="D2806" t="inlineStr"/>
-      <c r="E2806" t="inlineStr"/>
-      <c r="F2806" t="inlineStr"/>
-      <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2833"/>
+  <dimension ref="A1:H2812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83127,10 +83127,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83161,10 +83159,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2578">
@@ -83199,10 +83195,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83233,10 +83227,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2580">
@@ -83267,10 +83259,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2581">
@@ -83305,10 +83295,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83339,10 +83327,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83373,10 +83359,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83411,10 +83395,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2585">
@@ -83445,10 +83427,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83479,10 +83459,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2587">
@@ -83517,10 +83495,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2588">
@@ -83551,10 +83527,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83585,10 +83559,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83619,10 +83591,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83653,10 +83623,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83687,10 +83655,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83721,10 +83687,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83751,10 +83715,8 @@
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83789,10 +83751,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2596">
@@ -83823,10 +83783,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -83861,10 +83819,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2598">
@@ -83887,10 +83843,8 @@
       <c r="E2598" t="inlineStr"/>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2599">
@@ -83917,10 +83871,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83947,10 +83899,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -83977,10 +83927,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84007,10 +83955,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84037,10 +83983,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84067,10 +84011,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84097,10 +84039,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84127,10 +84067,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84157,10 +84095,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84187,10 +84123,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84217,10 +84151,8 @@
       </c>
       <c r="F2609" t="inlineStr"/>
       <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84247,10 +84179,8 @@
       </c>
       <c r="F2610" t="inlineStr"/>
       <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84281,10 +84211,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84315,10 +84243,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84349,10 +84275,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84383,10 +84307,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84417,10 +84339,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84451,10 +84371,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84481,10 +84399,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84511,10 +84427,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84541,10 +84455,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84575,10 +84487,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84609,10 +84519,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -84643,10 +84551,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -84681,10 +84587,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2624">
@@ -84719,10 +84623,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84753,10 +84655,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84791,10 +84691,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -84829,10 +84727,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2628">
@@ -84863,10 +84759,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2629">
@@ -84901,10 +84795,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -84939,10 +84831,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2631">
@@ -84977,10 +84867,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2632">
@@ -85011,10 +84899,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85045,10 +84931,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -85083,10 +84967,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -85109,10 +84991,8 @@
       <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85143,10 +85023,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85177,10 +85055,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -85211,10 +85087,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85249,10 +85123,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -85283,10 +85155,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85313,10 +85183,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85343,10 +85211,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85373,10 +85239,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85403,10 +85267,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85433,10 +85295,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85463,10 +85323,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85493,10 +85351,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85523,10 +85379,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85553,10 +85407,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85601,10 +85453,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85635,10 +85485,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85669,46 +85517,60 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr"/>
-      <c r="C2654" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr"/>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
       <c r="E2655" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2655" t="inlineStr"/>
@@ -85722,31 +85584,27 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2656" t="inlineStr"/>
       <c r="H2656" t="inlineStr">
         <is>
           <t>3</t>
@@ -85756,31 +85614,27 @@
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2657" t="inlineStr"/>
       <c r="H2657" t="inlineStr">
         <is>
           <t>3</t>
@@ -85790,31 +85644,27 @@
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2658" t="inlineStr"/>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -85824,21 +85674,25 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr"/>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
@@ -85850,65 +85704,53 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2660" t="inlineStr"/>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
           <t>2</t>
@@ -85918,127 +85760,139 @@
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2663">
       <c r="A2663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2664">
       <c r="A2664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2665">
       <c r="A2665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
@@ -86050,205 +85904,181 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2668" t="inlineStr"/>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2668" t="inlineStr"/>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2669">
       <c r="A2669" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2669" t="inlineStr"/>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2670" t="inlineStr"/>
       <c r="H2670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2671" t="inlineStr"/>
       <c r="H2671" t="inlineStr">
         <is>
           <t>3</t>
@@ -86258,91 +86088,83 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr"/>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2674" t="inlineStr"/>
@@ -86356,117 +86178,129 @@
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr"/>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr"/>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86476,55 +86310,47 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
@@ -86536,47 +86362,43 @@
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
@@ -86592,23 +86414,23 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
@@ -86622,27 +86444,35 @@
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2684" t="inlineStr">
         <is>
           <t>2</t>
@@ -86652,73 +86482,57 @@
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr"/>
       <c r="H2685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr"/>
       <c r="H2686" t="inlineStr">
         <is>
           <t>2</t>
@@ -86728,69 +86542,57 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2688" t="inlineStr"/>
       <c r="H2688" t="inlineStr">
         <is>
           <t>3</t>
@@ -86800,55 +86602,43 @@
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr"/>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
@@ -86857,176 +86647,156 @@
       <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2691" t="inlineStr"/>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2692" t="inlineStr"/>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2693" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr"/>
+      <c r="C2693" t="inlineStr"/>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2693" t="inlineStr"/>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
@@ -87040,23 +86810,23 @@
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
@@ -87070,31 +86840,23 @@
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
-      <c r="E2698" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2698" t="inlineStr"/>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87104,31 +86866,23 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
-      <c r="E2699" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2699" t="inlineStr"/>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87138,31 +86892,27 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2700" t="inlineStr"/>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87172,47 +86922,55 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -87224,17 +86982,17 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
@@ -87250,17 +87008,17 @@
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
@@ -87269,112 +87027,112 @@
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2706" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
@@ -87384,20 +87142,16 @@
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -87409,26 +87163,22 @@
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2709" t="inlineStr"/>
       <c r="H2709" t="inlineStr">
         <is>
           <t>3</t>
@@ -87448,16 +87198,20 @@
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
-      <c r="G2710" t="inlineStr"/>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -87474,23 +87228,31 @@
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2711" t="inlineStr"/>
-      <c r="G2711" t="inlineStr"/>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
@@ -87500,13 +87262,21 @@
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2712" t="inlineStr"/>
-      <c r="G2712" t="inlineStr"/>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2712" t="inlineStr">
         <is>
           <t>3</t>
@@ -87516,7 +87286,7 @@
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
@@ -87526,7 +87296,7 @@
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
@@ -87540,29 +87310,29 @@
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr"/>
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>08:40 PM</t>
+        </is>
+      </c>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2714" t="inlineStr"/>
       <c r="H2714" t="inlineStr">
         <is>
           <t>3</t>
@@ -87570,33 +87340,37 @@
       </c>
     </row>
     <row r="2715">
-      <c r="A2715" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr"/>
-      <c r="C2715" t="inlineStr"/>
+      <c r="A2715" t="inlineStr"/>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
       <c r="D2715" t="inlineStr"/>
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A2716" t="inlineStr"/>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
@@ -87610,27 +87384,19 @@
       </c>
     </row>
     <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2717" t="inlineStr"/>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
       <c r="H2717" t="inlineStr">
@@ -87640,25 +87406,21 @@
       </c>
     </row>
     <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A2718" t="inlineStr"/>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
@@ -87672,47 +87434,31 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2719" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr"/>
+      <c r="C2719" t="inlineStr"/>
       <c r="D2719" t="inlineStr"/>
-      <c r="E2719" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2719" t="inlineStr"/>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2719" t="inlineStr"/>
     </row>
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2720" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2720" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2720" t="inlineStr"/>
@@ -87721,24 +87467,24 @@
       <c r="G2720" t="inlineStr"/>
       <c r="H2720" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2721">
       <c r="A2721" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2721" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2721" t="inlineStr"/>
@@ -87754,85 +87500,73 @@
     <row r="2722">
       <c r="A2722" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2722" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2722" t="inlineStr"/>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
       <c r="H2722" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2723">
       <c r="A2723" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2723" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
+      <c r="E2723" t="inlineStr"/>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
       <c r="H2723" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2724">
       <c r="A2724" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
+      <c r="E2724" t="inlineStr"/>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
       <c r="H2724" t="inlineStr">
@@ -87844,81 +87578,85 @@
     <row r="2725">
       <c r="A2725" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2725" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr"/>
+      <c r="E2725" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
       <c r="H2725" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2726">
       <c r="A2726" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
       <c r="H2726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2727">
       <c r="A2727" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
+      <c r="E2727" t="inlineStr"/>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H2727" t="inlineStr">
@@ -87930,31 +87668,27 @@
     <row r="2728">
       <c r="A2728" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2728" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2728" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2728" t="inlineStr"/>
       <c r="E2728" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="G2728" t="inlineStr"/>
       <c r="H2728" t="inlineStr">
         <is>
           <t>3</t>
@@ -87964,27 +87698,35 @@
     <row r="2729">
       <c r="A2729" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2729" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2729" t="inlineStr"/>
       <c r="E2729" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2729" t="inlineStr">
         <is>
           <t>2</t>
@@ -87994,23 +87736,31 @@
     <row r="2730">
       <c r="A2730" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2730" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2730" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr"/>
+      <c r="E2730" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2730" t="inlineStr"/>
-      <c r="G2730" t="inlineStr"/>
+      <c r="G2730" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2730" t="inlineStr">
         <is>
           <t>3</t>
@@ -88020,23 +87770,23 @@
     <row r="2731">
       <c r="A2731" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2731" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2731" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2731" t="inlineStr"/>
       <c r="E2731" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2731" t="inlineStr"/>
@@ -88050,121 +87800,125 @@
     <row r="2732">
       <c r="A2732" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2732" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2732" t="inlineStr"/>
-      <c r="E2732" t="inlineStr"/>
+      <c r="E2732" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr">
         <is>
-          <t>7.6M</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2732" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2733">
       <c r="A2733" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2733" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2733" t="inlineStr"/>
       <c r="E2733" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2733" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2734">
       <c r="A2734" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2734" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2734" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2734" t="inlineStr"/>
-      <c r="E2734" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2734" t="inlineStr"/>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2734" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2735">
       <c r="A2735" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2735" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2735" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2735" t="inlineStr"/>
       <c r="E2735" t="inlineStr"/>
       <c r="F2735" t="inlineStr"/>
-      <c r="G2735" t="inlineStr"/>
+      <c r="G2735" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2735" t="inlineStr">
         <is>
           <t>3</t>
@@ -88174,27 +87928,27 @@
     <row r="2736">
       <c r="A2736" t="inlineStr">
         <is>
-          <t>08:40 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2736" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2736" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2736" t="inlineStr"/>
       <c r="F2736" t="inlineStr"/>
-      <c r="G2736" t="inlineStr"/>
+      <c r="G2736" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2736" t="inlineStr">
         <is>
           <t>3</t>
@@ -88202,21 +87956,37 @@
       </c>
     </row>
     <row r="2737">
-      <c r="A2737" t="inlineStr"/>
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2737" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2737" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr"/>
-      <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr"/>
+      <c r="E2737" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2737" t="inlineStr">
         <is>
           <t>3</t>
@@ -88224,21 +87994,37 @@
       </c>
     </row>
     <row r="2738">
-      <c r="A2738" t="inlineStr"/>
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2738" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2738" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr"/>
-      <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
+      <c r="E2738" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2738" t="inlineStr">
         <is>
           <t>3</t>
@@ -88246,21 +88032,33 @@
       </c>
     </row>
     <row r="2739">
-      <c r="A2739" t="inlineStr"/>
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2739" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2739" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr"/>
+      <c r="E2739" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2739" t="inlineStr"/>
-      <c r="G2739" t="inlineStr"/>
+      <c r="G2739" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2739" t="inlineStr">
         <is>
           <t>3</t>
@@ -88268,25 +88066,33 @@
       </c>
     </row>
     <row r="2740">
-      <c r="A2740" t="inlineStr"/>
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2740" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2740" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2740" t="inlineStr"/>
       <c r="E2740" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr"/>
+      <c r="G2740" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2740" t="inlineStr">
         <is>
           <t>3</t>
@@ -88296,61 +88102,85 @@
     <row r="2741">
       <c r="A2741" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr"/>
-      <c r="C2741" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMIJAN</t>
+        </is>
+      </c>
       <c r="D2741" t="inlineStr"/>
-      <c r="E2741" t="inlineStr"/>
+      <c r="E2741" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr"/>
+      <c r="H2741" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2742">
       <c r="A2742" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2742" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2742" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr"/>
+      <c r="E2742" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
       <c r="H2742" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2743">
       <c r="A2743" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B2743" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2743" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr"/>
+      <c r="E2743" t="inlineStr">
+        <is>
+          <t>49.9</t>
+        </is>
+      </c>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
       <c r="H2743" t="inlineStr">
@@ -88362,23 +88192,31 @@
     <row r="2744">
       <c r="A2744" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2744" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2744" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2744" t="inlineStr"/>
-      <c r="E2744" t="inlineStr"/>
+      <c r="E2744" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2744" t="inlineStr"/>
-      <c r="G2744" t="inlineStr"/>
+      <c r="G2744" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2744" t="inlineStr">
         <is>
           <t>2</t>
@@ -88388,21 +88226,25 @@
     <row r="2745">
       <c r="A2745" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2745" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2745" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2745" t="inlineStr"/>
-      <c r="E2745" t="inlineStr"/>
+      <c r="E2745" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
       <c r="H2745" t="inlineStr">
@@ -88414,21 +88256,25 @@
     <row r="2746">
       <c r="A2746" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2746" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2746" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2746" t="inlineStr"/>
-      <c r="E2746" t="inlineStr"/>
+      <c r="E2746" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
       <c r="H2746" t="inlineStr">
@@ -88440,23 +88286,23 @@
     <row r="2747">
       <c r="A2747" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2747" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2747" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2747" t="inlineStr"/>
       <c r="E2747" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2747" t="inlineStr"/>
@@ -88470,87 +88316,103 @@
     <row r="2748">
       <c r="A2748" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2748" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2748" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2748" t="inlineStr"/>
       <c r="E2748" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
       <c r="H2748" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2749">
       <c r="A2749" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2749" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2749" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2749" t="inlineStr"/>
-      <c r="E2749" t="inlineStr"/>
-      <c r="F2749" t="inlineStr"/>
+      <c r="E2749" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2749" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2749" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2749" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2750">
       <c r="A2750" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2750" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2750" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2750" t="inlineStr"/>
       <c r="E2750" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F2750" t="inlineStr"/>
-      <c r="G2750" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="G2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="H2750" t="inlineStr">
         <is>
           <t>3</t>
@@ -88560,33 +88422,33 @@
     <row r="2751">
       <c r="A2751" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2751" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2751" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2751" t="inlineStr"/>
       <c r="E2751" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2751" t="inlineStr">
@@ -88598,93 +88460,109 @@
     <row r="2752">
       <c r="A2752" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2752" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2752" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2752" t="inlineStr"/>
       <c r="E2752" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2752" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2752" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2752" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2752" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2753">
       <c r="A2753" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2753" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2753" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2753" t="inlineStr"/>
       <c r="E2753" t="inlineStr">
         <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F2753" t="inlineStr"/>
-      <c r="G2753" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="G2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="H2753" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2754">
       <c r="A2754" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2754" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2754" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2754" t="inlineStr"/>
       <c r="E2754" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2754" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2754" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="G2754" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H2754" t="inlineStr">
@@ -88696,89 +88574,97 @@
     <row r="2755">
       <c r="A2755" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2755" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2755" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2755" t="inlineStr"/>
       <c r="E2755" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2755" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2756">
       <c r="A2756" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2756" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2756" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2756" t="inlineStr"/>
-      <c r="E2756" t="inlineStr"/>
+      <c r="E2756" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H2756" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2757">
       <c r="A2757" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2757" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2757" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2757" t="inlineStr"/>
-      <c r="E2757" t="inlineStr"/>
+      <c r="E2757" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="H2757" t="inlineStr">
@@ -88790,63 +88676,67 @@
     <row r="2758">
       <c r="A2758" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2758" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2758" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2758" t="inlineStr"/>
-      <c r="E2758" t="inlineStr"/>
-      <c r="F2758" t="inlineStr"/>
+      <c r="E2758" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2758" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="G2758" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="H2758" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2759">
       <c r="A2759" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2759" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2759" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2759" t="inlineStr"/>
       <c r="E2759" t="inlineStr">
         <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2759" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2759" t="inlineStr"/>
       <c r="G2759" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2759" t="inlineStr">
@@ -88858,33 +88748,29 @@
     <row r="2760">
       <c r="A2760" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2760" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2760" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2760" t="inlineStr"/>
       <c r="E2760" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2760" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2760" t="inlineStr">
@@ -88896,29 +88782,29 @@
     <row r="2761">
       <c r="A2761" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2761" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2761" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2761" t="inlineStr"/>
       <c r="E2761" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2761" t="inlineStr"/>
       <c r="G2761" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2761" t="inlineStr">
@@ -88930,31 +88816,27 @@
     <row r="2762">
       <c r="A2762" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2762" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2762" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2762" t="inlineStr"/>
       <c r="E2762" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2762" t="inlineStr"/>
-      <c r="G2762" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2762" t="inlineStr"/>
       <c r="H2762" t="inlineStr">
         <is>
           <t>3</t>
@@ -88964,23 +88846,23 @@
     <row r="2763">
       <c r="A2763" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2763" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2763" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2763" t="inlineStr"/>
       <c r="E2763" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2763" t="inlineStr"/>
@@ -88994,23 +88876,23 @@
     <row r="2764">
       <c r="A2764" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2764" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2764" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2764" t="inlineStr"/>
       <c r="E2764" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2764" t="inlineStr"/>
@@ -89024,23 +88906,23 @@
     <row r="2765">
       <c r="A2765" t="inlineStr">
         <is>
-          <t>12:45 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2765" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2765" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2765" t="inlineStr"/>
       <c r="E2765" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2765" t="inlineStr"/>
@@ -89054,12 +88936,12 @@
     <row r="2766">
       <c r="A2766" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2766" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2766" t="inlineStr">
@@ -89070,13 +88952,13 @@
       <c r="D2766" t="inlineStr"/>
       <c r="E2766" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2766" t="inlineStr">
@@ -89088,53 +88970,57 @@
     <row r="2767">
       <c r="A2767" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2767" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2767" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2767" t="inlineStr"/>
       <c r="E2767" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2767" t="inlineStr"/>
-      <c r="G2767" t="inlineStr"/>
+      <c r="G2767" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2767" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2768">
       <c r="A2768" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2768" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2768" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2768" t="inlineStr"/>
       <c r="E2768" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2768" t="inlineStr"/>
@@ -89148,55 +89034,51 @@
     <row r="2769">
       <c r="A2769" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2769" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2769" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2769" t="inlineStr"/>
       <c r="E2769" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
       <c r="H2769" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2770">
       <c r="A2770" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2770" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2770" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2770" t="inlineStr"/>
-      <c r="E2770" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2770" t="inlineStr"/>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
       <c r="H2770" t="inlineStr">
@@ -89208,73 +89090,49 @@
     <row r="2771">
       <c r="A2771" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2771" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2771" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2771" t="inlineStr"/>
-      <c r="E2771" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2771" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2771" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2771" t="inlineStr"/>
+      <c r="F2771" t="inlineStr"/>
+      <c r="G2771" t="inlineStr"/>
       <c r="H2771" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2772">
       <c r="A2772" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2772" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2772" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2772" t="inlineStr"/>
-      <c r="E2772" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2772" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2772" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2772" t="inlineStr"/>
+      <c r="F2772" t="inlineStr"/>
+      <c r="G2772" t="inlineStr"/>
       <c r="H2772" t="inlineStr">
         <is>
           <t>3</t>
@@ -89284,106 +89142,78 @@
     <row r="2773">
       <c r="A2773" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2773" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2773" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2773" t="inlineStr"/>
-      <c r="E2773" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2773" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2773" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2773" t="inlineStr"/>
+      <c r="F2773" t="inlineStr"/>
+      <c r="G2773" t="inlineStr"/>
       <c r="H2773" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2774">
       <c r="A2774" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2774" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2774" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2774" t="inlineStr"/>
-      <c r="E2774" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2774" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2774" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2774" t="inlineStr"/>
+      <c r="F2774" t="inlineStr"/>
+      <c r="G2774" t="inlineStr"/>
       <c r="H2774" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2775">
       <c r="A2775" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2775" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2775" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2775" t="inlineStr"/>
       <c r="E2775" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2775" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr">
         <is>
           <t>50.2</t>
@@ -89398,69 +89228,61 @@
     <row r="2776">
       <c r="A2776" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2776" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2776" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2776" t="inlineStr"/>
       <c r="E2776" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2776" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H2776" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2777">
       <c r="A2777" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2777" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2777" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2777" t="inlineStr"/>
       <c r="E2777" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2777" t="inlineStr"/>
-      <c r="G2777" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2777" t="inlineStr"/>
       <c r="H2777" t="inlineStr">
         <is>
           <t>2</t>
@@ -89470,63 +89292,63 @@
     <row r="2778">
       <c r="A2778" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2778" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2778" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2778" t="inlineStr"/>
       <c r="E2778" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2778" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2779">
       <c r="A2779" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2779" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2779" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2779" t="inlineStr"/>
       <c r="E2779" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2779" t="inlineStr">
@@ -89538,165 +89360,157 @@
     <row r="2780">
       <c r="A2780" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2780" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2780" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2780" t="inlineStr"/>
       <c r="E2780" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2780" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>C$66.43B</t>
+        </is>
+      </c>
+      <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2780" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2781">
       <c r="A2781" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2781" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2781" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2781" t="inlineStr"/>
       <c r="E2781" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2781" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2782">
       <c r="A2782" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2782" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2782" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2782" t="inlineStr"/>
       <c r="E2782" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2782" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2783">
       <c r="A2783" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2783" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2783" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2783" t="inlineStr"/>
       <c r="E2783" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>$351.6B</t>
         </is>
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$ 338B</t>
         </is>
       </c>
       <c r="H2783" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2784">
       <c r="A2784" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2784" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2784" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2784" t="inlineStr"/>
-      <c r="E2784" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
+      <c r="E2784" t="inlineStr"/>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
       <c r="H2784" t="inlineStr">
@@ -89708,27 +89522,31 @@
     <row r="2785">
       <c r="A2785" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2785" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2785" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2785" t="inlineStr"/>
       <c r="E2785" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2785" t="inlineStr"/>
-      <c r="G2785" t="inlineStr"/>
+      <c r="G2785" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
       <c r="H2785" t="inlineStr">
         <is>
           <t>3</t>
@@ -89738,27 +89556,31 @@
     <row r="2786">
       <c r="A2786" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2786" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2786" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2786" t="inlineStr"/>
       <c r="E2786" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="F2786" t="inlineStr"/>
-      <c r="G2786" t="inlineStr"/>
+      <c r="G2786" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="H2786" t="inlineStr">
         <is>
           <t>3</t>
@@ -89768,59 +89590,71 @@
     <row r="2787">
       <c r="A2787" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2787" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2787" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2787" t="inlineStr"/>
       <c r="E2787" t="inlineStr">
         <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="F2787" t="inlineStr"/>
-      <c r="G2787" t="inlineStr"/>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F2787" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="G2787" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="H2787" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2788">
       <c r="A2788" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2788" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2788" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2788" t="inlineStr"/>
       <c r="E2788" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2788" t="inlineStr"/>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2788" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="G2788" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="H2788" t="inlineStr">
@@ -89832,57 +89666,49 @@
     <row r="2789">
       <c r="A2789" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2789" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2789" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2789" t="inlineStr"/>
-      <c r="E2789" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E2789" t="inlineStr"/>
       <c r="F2789" t="inlineStr"/>
-      <c r="G2789" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2789" t="inlineStr"/>
       <c r="H2789" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2790">
       <c r="A2790" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2790" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2790" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2790" t="inlineStr"/>
       <c r="E2790" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2790" t="inlineStr"/>
@@ -89896,23 +89722,23 @@
     <row r="2791">
       <c r="A2791" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2791" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2791" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2791" t="inlineStr"/>
       <c r="E2791" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2791" t="inlineStr"/>
@@ -89926,7 +89752,7 @@
     <row r="2792">
       <c r="A2792" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2792" t="inlineStr">
@@ -89936,23 +89762,27 @@
       </c>
       <c r="C2792" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2792" t="inlineStr"/>
-      <c r="E2792" t="inlineStr"/>
+      <c r="E2792" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
       <c r="H2792" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2793">
       <c r="A2793" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2793" t="inlineStr">
@@ -89962,11 +89792,15 @@
       </c>
       <c r="C2793" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2793" t="inlineStr"/>
-      <c r="E2793" t="inlineStr"/>
+      <c r="E2793" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
       <c r="H2793" t="inlineStr">
@@ -89978,7 +89812,7 @@
     <row r="2794">
       <c r="A2794" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2794" t="inlineStr">
@@ -89988,7 +89822,7 @@
       </c>
       <c r="C2794" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2794" t="inlineStr"/>
@@ -89997,14 +89831,14 @@
       <c r="G2794" t="inlineStr"/>
       <c r="H2794" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2795">
       <c r="A2795" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2795" t="inlineStr">
@@ -90014,7 +89848,7 @@
       </c>
       <c r="C2795" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2795" t="inlineStr"/>
@@ -90023,14 +89857,14 @@
       <c r="G2795" t="inlineStr"/>
       <c r="H2795" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2796">
       <c r="A2796" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2796" t="inlineStr">
@@ -90040,7 +89874,7 @@
       </c>
       <c r="C2796" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2796" t="inlineStr"/>
@@ -90056,65 +89890,49 @@
     <row r="2797">
       <c r="A2797" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2797" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2797" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2797" t="inlineStr"/>
-      <c r="E2797" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2797" t="inlineStr"/>
       <c r="F2797" t="inlineStr"/>
-      <c r="G2797" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2797" t="inlineStr"/>
       <c r="H2797" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2798">
       <c r="A2798" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2798" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2798" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2798" t="inlineStr"/>
-      <c r="E2798" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+      <c r="E2798" t="inlineStr"/>
       <c r="F2798" t="inlineStr"/>
-      <c r="G2798" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G2798" t="inlineStr"/>
       <c r="H2798" t="inlineStr">
         <is>
           <t>3</t>
@@ -90124,7 +89942,7 @@
     <row r="2799">
       <c r="A2799" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2799" t="inlineStr">
@@ -90134,85 +89952,65 @@
       </c>
       <c r="C2799" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2799" t="inlineStr"/>
-      <c r="E2799" t="inlineStr">
-        <is>
-          <t>122K</t>
-        </is>
-      </c>
+      <c r="E2799" t="inlineStr"/>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
       <c r="H2799" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2800">
       <c r="A2800" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2800" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2800" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2800" t="inlineStr"/>
-      <c r="E2800" t="inlineStr">
-        <is>
-          <t>C$-0.32B</t>
-        </is>
-      </c>
+      <c r="E2800" t="inlineStr"/>
       <c r="F2800" t="inlineStr"/>
-      <c r="G2800" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2800" t="inlineStr"/>
       <c r="H2800" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2801">
       <c r="A2801" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2801" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2801" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2801" t="inlineStr"/>
-      <c r="E2801" t="inlineStr">
-        <is>
-          <t>C$66.11B</t>
-        </is>
-      </c>
+      <c r="E2801" t="inlineStr"/>
       <c r="F2801" t="inlineStr"/>
-      <c r="G2801" t="inlineStr">
-        <is>
-          <t>C$ 65.8B</t>
-        </is>
-      </c>
+      <c r="G2801" t="inlineStr"/>
       <c r="H2801" t="inlineStr">
         <is>
           <t>3</t>
@@ -90222,31 +90020,23 @@
     <row r="2802">
       <c r="A2802" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2802" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2802" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2802" t="inlineStr"/>
-      <c r="E2802" t="inlineStr">
-        <is>
-          <t>C$66.43B</t>
-        </is>
-      </c>
+      <c r="E2802" t="inlineStr"/>
       <c r="F2802" t="inlineStr"/>
-      <c r="G2802" t="inlineStr">
-        <is>
-          <t>C$ 64.5B</t>
-        </is>
-      </c>
+      <c r="G2802" t="inlineStr"/>
       <c r="H2802" t="inlineStr">
         <is>
           <t>3</t>
@@ -90256,29 +90046,25 @@
     <row r="2803">
       <c r="A2803" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2803" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2803" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2803" t="inlineStr"/>
-      <c r="E2803" t="inlineStr">
-        <is>
-          <t>$-78.2B</t>
-        </is>
-      </c>
+      <c r="E2803" t="inlineStr"/>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="H2803" t="inlineStr">
@@ -90290,91 +90076,83 @@
     <row r="2804">
       <c r="A2804" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2804" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2804" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2804" t="inlineStr"/>
-      <c r="E2804" t="inlineStr">
-        <is>
-          <t>$273.4B</t>
-        </is>
-      </c>
+      <c r="E2804" t="inlineStr"/>
       <c r="F2804" t="inlineStr"/>
-      <c r="G2804" t="inlineStr">
-        <is>
-          <t>$ 275.0B</t>
-        </is>
-      </c>
+      <c r="G2804" t="inlineStr"/>
       <c r="H2804" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2805">
       <c r="A2805" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2805" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2805" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2805" t="inlineStr"/>
-      <c r="E2805" t="inlineStr">
-        <is>
-          <t>$351.6B</t>
-        </is>
-      </c>
+      <c r="E2805" t="inlineStr"/>
       <c r="F2805" t="inlineStr"/>
-      <c r="G2805" t="inlineStr">
-        <is>
-          <t>$ 338B</t>
-        </is>
-      </c>
+      <c r="G2805" t="inlineStr"/>
       <c r="H2805" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2806">
       <c r="A2806" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2806" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2806" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2806" t="inlineStr"/>
-      <c r="E2806" t="inlineStr"/>
+      <c r="E2806" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2806" t="inlineStr"/>
-      <c r="G2806" t="inlineStr"/>
+      <c r="G2806" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2806" t="inlineStr">
         <is>
           <t>3</t>
@@ -90384,31 +90162,23 @@
     <row r="2807">
       <c r="A2807" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2807" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2807" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2807" t="inlineStr"/>
-      <c r="E2807" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2807" t="inlineStr"/>
       <c r="F2807" t="inlineStr"/>
-      <c r="G2807" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2807" t="inlineStr"/>
       <c r="H2807" t="inlineStr">
         <is>
           <t>3</t>
@@ -90418,29 +90188,25 @@
     <row r="2808">
       <c r="A2808" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2808" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2808" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2808" t="inlineStr"/>
-      <c r="E2808" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2808" t="inlineStr"/>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2808" t="inlineStr">
@@ -90452,7 +90218,7 @@
     <row r="2809">
       <c r="A2809" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2809" t="inlineStr">
@@ -90462,73 +90228,49 @@
       </c>
       <c r="C2809" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2809" t="inlineStr"/>
-      <c r="E2809" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2809" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
-      <c r="G2809" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+      <c r="E2809" t="inlineStr"/>
+      <c r="F2809" t="inlineStr"/>
+      <c r="G2809" t="inlineStr"/>
       <c r="H2809" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2810">
       <c r="A2810" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2810" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2810" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2810" t="inlineStr"/>
-      <c r="E2810" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F2810" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="G2810" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
+      <c r="E2810" t="inlineStr"/>
+      <c r="F2810" t="inlineStr"/>
+      <c r="G2810" t="inlineStr"/>
       <c r="H2810" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2811">
       <c r="A2811" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2811" t="inlineStr">
@@ -90538,7 +90280,7 @@
       </c>
       <c r="C2811" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2811" t="inlineStr"/>
@@ -90547,16 +90289,12 @@
       <c r="G2811" t="inlineStr"/>
       <c r="H2811" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2812">
-      <c r="A2812" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2812" t="inlineStr"/>
       <c r="B2812" t="inlineStr">
         <is>
           <t>US</t>
@@ -90564,594 +90302,20 @@
       </c>
       <c r="C2812" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>Total Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2812" t="inlineStr"/>
       <c r="E2812" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>16.8M</t>
         </is>
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
       <c r="H2812" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2813">
-      <c r="A2813" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2813" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2813" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentJAN</t>
-        </is>
-      </c>
-      <c r="D2813" t="inlineStr"/>
-      <c r="E2813" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F2813" t="inlineStr"/>
-      <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2814">
-      <c r="A2814" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2814" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2814" t="inlineStr">
-        <is>
-          <t>ISM Services New OrdersJAN</t>
-        </is>
-      </c>
-      <c r="D2814" t="inlineStr"/>
-      <c r="E2814" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="F2814" t="inlineStr"/>
-      <c r="G2814" t="inlineStr"/>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2815">
-      <c r="A2815" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2815" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2815" t="inlineStr">
-        <is>
-          <t>ISM Services PricesJAN</t>
-        </is>
-      </c>
-      <c r="D2815" t="inlineStr"/>
-      <c r="E2815" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="F2815" t="inlineStr"/>
-      <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2816">
-      <c r="A2816" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2816" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2816" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2816" t="inlineStr"/>
-      <c r="E2816" t="inlineStr"/>
-      <c r="F2816" t="inlineStr"/>
-      <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
           <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2817">
-      <c r="A2817" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2817" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2817" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2817" t="inlineStr"/>
-      <c r="E2817" t="inlineStr"/>
-      <c r="F2817" t="inlineStr"/>
-      <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2818">
-      <c r="A2818" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2818" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2818" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2818" t="inlineStr"/>
-      <c r="E2818" t="inlineStr"/>
-      <c r="F2818" t="inlineStr"/>
-      <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2819">
-      <c r="A2819" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2819" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2819" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2819" t="inlineStr"/>
-      <c r="E2819" t="inlineStr"/>
-      <c r="F2819" t="inlineStr"/>
-      <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2820">
-      <c r="A2820" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2820" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2820" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2820" t="inlineStr"/>
-      <c r="E2820" t="inlineStr"/>
-      <c r="F2820" t="inlineStr"/>
-      <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2821">
-      <c r="A2821" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2821" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2821" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2821" t="inlineStr"/>
-      <c r="E2821" t="inlineStr"/>
-      <c r="F2821" t="inlineStr"/>
-      <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2822">
-      <c r="A2822" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2822" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2822" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2822" t="inlineStr"/>
-      <c r="E2822" t="inlineStr"/>
-      <c r="F2822" t="inlineStr"/>
-      <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2823">
-      <c r="A2823" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2823" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2823" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2823" t="inlineStr"/>
-      <c r="E2823" t="inlineStr"/>
-      <c r="F2823" t="inlineStr"/>
-      <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2824">
-      <c r="A2824" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2824" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2824" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2824" t="inlineStr"/>
-      <c r="E2824" t="inlineStr"/>
-      <c r="F2824" t="inlineStr"/>
-      <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2825">
-      <c r="A2825" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2825" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2825" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D2825" t="inlineStr"/>
-      <c r="E2825" t="inlineStr"/>
-      <c r="F2825" t="inlineStr"/>
-      <c r="G2825" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2826">
-      <c r="A2826" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2826" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2826" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2826" t="inlineStr"/>
-      <c r="E2826" t="inlineStr"/>
-      <c r="F2826" t="inlineStr"/>
-      <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2827">
-      <c r="A2827" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2827" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2827" t="inlineStr">
-        <is>
-          <t>Corporate ProfitsNOV</t>
-        </is>
-      </c>
-      <c r="D2827" t="inlineStr"/>
-      <c r="E2827" t="inlineStr"/>
-      <c r="F2827" t="inlineStr"/>
-      <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2828">
-      <c r="A2828" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2828" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2828" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2828" t="inlineStr"/>
-      <c r="E2828" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F2828" t="inlineStr"/>
-      <c r="G2828" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2829">
-      <c r="A2829" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2829" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2829" t="inlineStr">
-        <is>
-          <t>Real Wage Growth YoYNOV</t>
-        </is>
-      </c>
-      <c r="D2829" t="inlineStr"/>
-      <c r="E2829" t="inlineStr"/>
-      <c r="F2829" t="inlineStr"/>
-      <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2830">
-      <c r="A2830" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2830" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2830" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2830" t="inlineStr"/>
-      <c r="E2830" t="inlineStr"/>
-      <c r="F2830" t="inlineStr"/>
-      <c r="G2830" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2831">
-      <c r="A2831" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2831" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2831" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2831" t="inlineStr"/>
-      <c r="E2831" t="inlineStr"/>
-      <c r="F2831" t="inlineStr"/>
-      <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2832">
-      <c r="A2832" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2832" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2832" t="inlineStr">
-        <is>
-          <t>2-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D2832" t="inlineStr"/>
-      <c r="E2832" t="inlineStr"/>
-      <c r="F2832" t="inlineStr"/>
-      <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2833">
-      <c r="A2833" t="inlineStr"/>
-      <c r="B2833" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2833" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2833" t="inlineStr"/>
-      <c r="E2833" t="inlineStr">
-        <is>
-          <t>16.8M</t>
-        </is>
-      </c>
-      <c r="F2833" t="inlineStr"/>
-      <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2834"/>
+  <dimension ref="A1:H2812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83127,10 +83127,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83161,10 +83159,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2578">
@@ -83199,10 +83195,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83233,10 +83227,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2580">
@@ -83267,10 +83259,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2581">
@@ -83305,10 +83295,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83339,10 +83327,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83373,10 +83359,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83411,10 +83395,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2585">
@@ -83445,10 +83427,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83479,10 +83459,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2587">
@@ -83517,10 +83495,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2588">
@@ -83551,10 +83527,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83585,10 +83559,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83619,10 +83591,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83653,10 +83623,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83687,10 +83655,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83721,10 +83687,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83751,10 +83715,8 @@
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83789,10 +83751,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2596">
@@ -83823,10 +83783,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -83861,10 +83819,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2598">
@@ -83887,10 +83843,8 @@
       <c r="E2598" t="inlineStr"/>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2599">
@@ -83917,10 +83871,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83947,10 +83899,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -83977,10 +83927,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84007,10 +83955,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84037,10 +83983,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84067,10 +84011,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84097,10 +84039,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84127,10 +84067,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84157,10 +84095,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84187,10 +84123,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84217,10 +84151,8 @@
       </c>
       <c r="F2609" t="inlineStr"/>
       <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84247,10 +84179,8 @@
       </c>
       <c r="F2610" t="inlineStr"/>
       <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84281,10 +84211,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84315,10 +84243,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84349,10 +84275,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84383,10 +84307,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84417,10 +84339,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84451,10 +84371,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84481,10 +84399,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84511,10 +84427,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84541,10 +84455,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84575,10 +84487,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84609,10 +84519,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -84643,10 +84551,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -84681,10 +84587,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2624">
@@ -84719,10 +84623,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84753,10 +84655,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84791,10 +84691,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -84829,10 +84727,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2628">
@@ -84863,10 +84759,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2629">
@@ -84901,10 +84795,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -84939,10 +84831,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2631">
@@ -84977,10 +84867,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2632">
@@ -85011,10 +84899,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85045,10 +84931,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -85083,10 +84967,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -85109,10 +84991,8 @@
       <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85143,10 +85023,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85177,10 +85055,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -85211,10 +85087,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85249,10 +85123,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -85283,10 +85155,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85313,10 +85183,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85343,10 +85211,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85373,10 +85239,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85403,10 +85267,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85433,10 +85295,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85463,10 +85323,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85493,10 +85351,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85523,10 +85379,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85553,10 +85407,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85601,10 +85453,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85635,10 +85485,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85669,46 +85517,60 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr"/>
-      <c r="C2654" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr"/>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
       <c r="E2655" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2655" t="inlineStr"/>
@@ -85722,31 +85584,27 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2656" t="inlineStr"/>
       <c r="H2656" t="inlineStr">
         <is>
           <t>3</t>
@@ -85756,31 +85614,27 @@
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2657" t="inlineStr"/>
       <c r="H2657" t="inlineStr">
         <is>
           <t>3</t>
@@ -85790,31 +85644,27 @@
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2658" t="inlineStr"/>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -85824,21 +85674,25 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr"/>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
@@ -85850,65 +85704,53 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2660" t="inlineStr"/>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
           <t>2</t>
@@ -85918,127 +85760,139 @@
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2663">
       <c r="A2663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2664">
       <c r="A2664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2665">
       <c r="A2665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
@@ -86050,205 +85904,181 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2668" t="inlineStr"/>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2668" t="inlineStr"/>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2669">
       <c r="A2669" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2669" t="inlineStr"/>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2670" t="inlineStr"/>
       <c r="H2670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2671" t="inlineStr"/>
       <c r="H2671" t="inlineStr">
         <is>
           <t>3</t>
@@ -86258,91 +86088,83 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr"/>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2674" t="inlineStr"/>
@@ -86356,117 +86178,129 @@
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr"/>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr"/>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86476,55 +86310,47 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
@@ -86536,47 +86362,43 @@
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
@@ -86592,23 +86414,23 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
@@ -86622,27 +86444,35 @@
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2684" t="inlineStr">
         <is>
           <t>2</t>
@@ -86652,73 +86482,57 @@
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr"/>
       <c r="H2685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr"/>
       <c r="H2686" t="inlineStr">
         <is>
           <t>2</t>
@@ -86728,69 +86542,57 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2688" t="inlineStr"/>
       <c r="H2688" t="inlineStr">
         <is>
           <t>3</t>
@@ -86800,55 +86602,43 @@
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr"/>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
@@ -86857,176 +86647,156 @@
       <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2691" t="inlineStr"/>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2692" t="inlineStr"/>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2693" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr"/>
+      <c r="C2693" t="inlineStr"/>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2693" t="inlineStr"/>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
@@ -87040,23 +86810,23 @@
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
@@ -87070,31 +86840,23 @@
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
-      <c r="E2698" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2698" t="inlineStr"/>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87104,31 +86866,23 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
-      <c r="E2699" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2699" t="inlineStr"/>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87138,31 +86892,27 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2700" t="inlineStr"/>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87172,47 +86922,55 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -87224,17 +86982,17 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
@@ -87250,17 +87008,17 @@
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
@@ -87269,112 +87027,112 @@
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2706" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
@@ -87384,20 +87142,16 @@
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -87409,26 +87163,22 @@
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2709" t="inlineStr"/>
       <c r="H2709" t="inlineStr">
         <is>
           <t>3</t>
@@ -87448,16 +87198,20 @@
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
-      <c r="G2710" t="inlineStr"/>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -87474,23 +87228,31 @@
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2711" t="inlineStr"/>
-      <c r="G2711" t="inlineStr"/>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
@@ -87500,13 +87262,21 @@
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2712" t="inlineStr"/>
-      <c r="G2712" t="inlineStr"/>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2712" t="inlineStr">
         <is>
           <t>3</t>
@@ -87516,7 +87286,7 @@
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
@@ -87526,7 +87296,7 @@
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
@@ -87540,29 +87310,29 @@
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr"/>
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>08:40 PM</t>
+        </is>
+      </c>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2714" t="inlineStr"/>
       <c r="H2714" t="inlineStr">
         <is>
           <t>3</t>
@@ -87570,33 +87340,37 @@
       </c>
     </row>
     <row r="2715">
-      <c r="A2715" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr"/>
-      <c r="C2715" t="inlineStr"/>
+      <c r="A2715" t="inlineStr"/>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
       <c r="D2715" t="inlineStr"/>
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A2716" t="inlineStr"/>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
@@ -87610,27 +87384,19 @@
       </c>
     </row>
     <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2717" t="inlineStr"/>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
       <c r="H2717" t="inlineStr">
@@ -87640,25 +87406,21 @@
       </c>
     </row>
     <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A2718" t="inlineStr"/>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
@@ -87672,47 +87434,31 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2719" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr"/>
+      <c r="C2719" t="inlineStr"/>
       <c r="D2719" t="inlineStr"/>
-      <c r="E2719" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2719" t="inlineStr"/>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2719" t="inlineStr"/>
     </row>
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2720" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2720" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2720" t="inlineStr"/>
@@ -87721,24 +87467,24 @@
       <c r="G2720" t="inlineStr"/>
       <c r="H2720" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2721">
       <c r="A2721" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2721" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2721" t="inlineStr"/>
@@ -87754,85 +87500,73 @@
     <row r="2722">
       <c r="A2722" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2722" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2722" t="inlineStr"/>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
       <c r="H2722" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2723">
       <c r="A2723" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2723" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
+      <c r="E2723" t="inlineStr"/>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
       <c r="H2723" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2724">
       <c r="A2724" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
+      <c r="E2724" t="inlineStr"/>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
       <c r="H2724" t="inlineStr">
@@ -87844,81 +87578,85 @@
     <row r="2725">
       <c r="A2725" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2725" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr"/>
+      <c r="E2725" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
       <c r="H2725" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2726">
       <c r="A2726" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
       <c r="H2726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2727">
       <c r="A2727" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
+      <c r="E2727" t="inlineStr"/>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H2727" t="inlineStr">
@@ -87930,31 +87668,27 @@
     <row r="2728">
       <c r="A2728" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2728" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2728" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2728" t="inlineStr"/>
       <c r="E2728" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="G2728" t="inlineStr"/>
       <c r="H2728" t="inlineStr">
         <is>
           <t>3</t>
@@ -87964,27 +87698,35 @@
     <row r="2729">
       <c r="A2729" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2729" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2729" t="inlineStr"/>
       <c r="E2729" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2729" t="inlineStr">
         <is>
           <t>2</t>
@@ -87994,23 +87736,31 @@
     <row r="2730">
       <c r="A2730" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2730" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2730" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr"/>
+      <c r="E2730" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2730" t="inlineStr"/>
-      <c r="G2730" t="inlineStr"/>
+      <c r="G2730" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2730" t="inlineStr">
         <is>
           <t>3</t>
@@ -88020,23 +87770,23 @@
     <row r="2731">
       <c r="A2731" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2731" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2731" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2731" t="inlineStr"/>
       <c r="E2731" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2731" t="inlineStr"/>
@@ -88050,121 +87800,125 @@
     <row r="2732">
       <c r="A2732" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2732" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2732" t="inlineStr"/>
-      <c r="E2732" t="inlineStr"/>
+      <c r="E2732" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr">
         <is>
-          <t>7.6M</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2732" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2733">
       <c r="A2733" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2733" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2733" t="inlineStr"/>
       <c r="E2733" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2733" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2734">
       <c r="A2734" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2734" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2734" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2734" t="inlineStr"/>
-      <c r="E2734" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2734" t="inlineStr"/>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2734" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2735">
       <c r="A2735" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2735" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2735" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2735" t="inlineStr"/>
       <c r="E2735" t="inlineStr"/>
       <c r="F2735" t="inlineStr"/>
-      <c r="G2735" t="inlineStr"/>
+      <c r="G2735" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2735" t="inlineStr">
         <is>
           <t>3</t>
@@ -88174,27 +87928,27 @@
     <row r="2736">
       <c r="A2736" t="inlineStr">
         <is>
-          <t>08:40 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2736" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2736" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2736" t="inlineStr"/>
       <c r="F2736" t="inlineStr"/>
-      <c r="G2736" t="inlineStr"/>
+      <c r="G2736" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2736" t="inlineStr">
         <is>
           <t>3</t>
@@ -88202,21 +87956,37 @@
       </c>
     </row>
     <row r="2737">
-      <c r="A2737" t="inlineStr"/>
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2737" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2737" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr"/>
-      <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr"/>
+      <c r="E2737" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2737" t="inlineStr">
         <is>
           <t>3</t>
@@ -88224,21 +87994,37 @@
       </c>
     </row>
     <row r="2738">
-      <c r="A2738" t="inlineStr"/>
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2738" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2738" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr"/>
-      <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
+      <c r="E2738" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2738" t="inlineStr">
         <is>
           <t>3</t>
@@ -88246,21 +88032,33 @@
       </c>
     </row>
     <row r="2739">
-      <c r="A2739" t="inlineStr"/>
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2739" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2739" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr"/>
+      <c r="E2739" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2739" t="inlineStr"/>
-      <c r="G2739" t="inlineStr"/>
+      <c r="G2739" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2739" t="inlineStr">
         <is>
           <t>3</t>
@@ -88268,25 +88066,33 @@
       </c>
     </row>
     <row r="2740">
-      <c r="A2740" t="inlineStr"/>
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2740" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2740" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2740" t="inlineStr"/>
       <c r="E2740" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr"/>
+      <c r="G2740" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2740" t="inlineStr">
         <is>
           <t>3</t>
@@ -88296,61 +88102,85 @@
     <row r="2741">
       <c r="A2741" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr"/>
-      <c r="C2741" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMIJAN</t>
+        </is>
+      </c>
       <c r="D2741" t="inlineStr"/>
-      <c r="E2741" t="inlineStr"/>
+      <c r="E2741" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr"/>
+      <c r="H2741" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2742">
       <c r="A2742" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2742" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2742" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr"/>
+      <c r="E2742" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
       <c r="H2742" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2743">
       <c r="A2743" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B2743" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2743" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr"/>
+      <c r="E2743" t="inlineStr">
+        <is>
+          <t>49.9</t>
+        </is>
+      </c>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
       <c r="H2743" t="inlineStr">
@@ -88362,23 +88192,31 @@
     <row r="2744">
       <c r="A2744" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2744" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2744" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2744" t="inlineStr"/>
-      <c r="E2744" t="inlineStr"/>
+      <c r="E2744" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2744" t="inlineStr"/>
-      <c r="G2744" t="inlineStr"/>
+      <c r="G2744" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2744" t="inlineStr">
         <is>
           <t>2</t>
@@ -88388,21 +88226,25 @@
     <row r="2745">
       <c r="A2745" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2745" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2745" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2745" t="inlineStr"/>
-      <c r="E2745" t="inlineStr"/>
+      <c r="E2745" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
       <c r="H2745" t="inlineStr">
@@ -88414,21 +88256,25 @@
     <row r="2746">
       <c r="A2746" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2746" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2746" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2746" t="inlineStr"/>
-      <c r="E2746" t="inlineStr"/>
+      <c r="E2746" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
       <c r="H2746" t="inlineStr">
@@ -88440,23 +88286,23 @@
     <row r="2747">
       <c r="A2747" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2747" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2747" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2747" t="inlineStr"/>
       <c r="E2747" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2747" t="inlineStr"/>
@@ -88470,87 +88316,103 @@
     <row r="2748">
       <c r="A2748" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2748" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2748" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2748" t="inlineStr"/>
       <c r="E2748" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
       <c r="H2748" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2749">
       <c r="A2749" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2749" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2749" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2749" t="inlineStr"/>
-      <c r="E2749" t="inlineStr"/>
-      <c r="F2749" t="inlineStr"/>
+      <c r="E2749" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2749" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2749" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2749" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2750">
       <c r="A2750" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2750" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2750" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2750" t="inlineStr"/>
       <c r="E2750" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F2750" t="inlineStr"/>
-      <c r="G2750" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="G2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="H2750" t="inlineStr">
         <is>
           <t>3</t>
@@ -88560,33 +88422,33 @@
     <row r="2751">
       <c r="A2751" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2751" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2751" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2751" t="inlineStr"/>
       <c r="E2751" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2751" t="inlineStr">
@@ -88598,93 +88460,109 @@
     <row r="2752">
       <c r="A2752" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2752" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2752" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2752" t="inlineStr"/>
       <c r="E2752" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2752" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2752" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2752" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2752" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2753">
       <c r="A2753" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2753" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2753" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2753" t="inlineStr"/>
       <c r="E2753" t="inlineStr">
         <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F2753" t="inlineStr"/>
-      <c r="G2753" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="G2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="H2753" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2754">
       <c r="A2754" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2754" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2754" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2754" t="inlineStr"/>
       <c r="E2754" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2754" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2754" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="G2754" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H2754" t="inlineStr">
@@ -88696,89 +88574,97 @@
     <row r="2755">
       <c r="A2755" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2755" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2755" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2755" t="inlineStr"/>
       <c r="E2755" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2755" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2756">
       <c r="A2756" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2756" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2756" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2756" t="inlineStr"/>
-      <c r="E2756" t="inlineStr"/>
+      <c r="E2756" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H2756" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2757">
       <c r="A2757" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2757" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2757" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2757" t="inlineStr"/>
-      <c r="E2757" t="inlineStr"/>
+      <c r="E2757" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="H2757" t="inlineStr">
@@ -88790,63 +88676,67 @@
     <row r="2758">
       <c r="A2758" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2758" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2758" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2758" t="inlineStr"/>
-      <c r="E2758" t="inlineStr"/>
-      <c r="F2758" t="inlineStr"/>
+      <c r="E2758" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2758" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="G2758" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="H2758" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2759">
       <c r="A2759" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2759" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2759" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2759" t="inlineStr"/>
       <c r="E2759" t="inlineStr">
         <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2759" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2759" t="inlineStr"/>
       <c r="G2759" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2759" t="inlineStr">
@@ -88858,33 +88748,29 @@
     <row r="2760">
       <c r="A2760" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2760" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2760" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2760" t="inlineStr"/>
       <c r="E2760" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2760" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2760" t="inlineStr">
@@ -88896,29 +88782,29 @@
     <row r="2761">
       <c r="A2761" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2761" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2761" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2761" t="inlineStr"/>
       <c r="E2761" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2761" t="inlineStr"/>
       <c r="G2761" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2761" t="inlineStr">
@@ -88930,31 +88816,27 @@
     <row r="2762">
       <c r="A2762" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2762" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2762" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2762" t="inlineStr"/>
       <c r="E2762" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2762" t="inlineStr"/>
-      <c r="G2762" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2762" t="inlineStr"/>
       <c r="H2762" t="inlineStr">
         <is>
           <t>3</t>
@@ -88964,23 +88846,23 @@
     <row r="2763">
       <c r="A2763" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2763" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2763" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2763" t="inlineStr"/>
       <c r="E2763" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2763" t="inlineStr"/>
@@ -88994,23 +88876,23 @@
     <row r="2764">
       <c r="A2764" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2764" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2764" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2764" t="inlineStr"/>
       <c r="E2764" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2764" t="inlineStr"/>
@@ -89024,23 +88906,23 @@
     <row r="2765">
       <c r="A2765" t="inlineStr">
         <is>
-          <t>12:45 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2765" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2765" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2765" t="inlineStr"/>
       <c r="E2765" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2765" t="inlineStr"/>
@@ -89054,12 +88936,12 @@
     <row r="2766">
       <c r="A2766" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2766" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2766" t="inlineStr">
@@ -89070,13 +88952,13 @@
       <c r="D2766" t="inlineStr"/>
       <c r="E2766" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2766" t="inlineStr">
@@ -89088,53 +88970,57 @@
     <row r="2767">
       <c r="A2767" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2767" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2767" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2767" t="inlineStr"/>
       <c r="E2767" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2767" t="inlineStr"/>
-      <c r="G2767" t="inlineStr"/>
+      <c r="G2767" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2767" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2768">
       <c r="A2768" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2768" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2768" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2768" t="inlineStr"/>
       <c r="E2768" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2768" t="inlineStr"/>
@@ -89148,55 +89034,51 @@
     <row r="2769">
       <c r="A2769" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2769" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2769" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2769" t="inlineStr"/>
       <c r="E2769" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
       <c r="H2769" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2770">
       <c r="A2770" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2770" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2770" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2770" t="inlineStr"/>
-      <c r="E2770" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2770" t="inlineStr"/>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
       <c r="H2770" t="inlineStr">
@@ -89208,73 +89090,49 @@
     <row r="2771">
       <c r="A2771" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2771" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2771" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2771" t="inlineStr"/>
-      <c r="E2771" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2771" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2771" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2771" t="inlineStr"/>
+      <c r="F2771" t="inlineStr"/>
+      <c r="G2771" t="inlineStr"/>
       <c r="H2771" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2772">
       <c r="A2772" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2772" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2772" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2772" t="inlineStr"/>
-      <c r="E2772" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2772" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2772" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2772" t="inlineStr"/>
+      <c r="F2772" t="inlineStr"/>
+      <c r="G2772" t="inlineStr"/>
       <c r="H2772" t="inlineStr">
         <is>
           <t>3</t>
@@ -89284,106 +89142,78 @@
     <row r="2773">
       <c r="A2773" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2773" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2773" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2773" t="inlineStr"/>
-      <c r="E2773" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2773" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2773" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2773" t="inlineStr"/>
+      <c r="F2773" t="inlineStr"/>
+      <c r="G2773" t="inlineStr"/>
       <c r="H2773" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2774">
       <c r="A2774" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2774" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2774" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2774" t="inlineStr"/>
-      <c r="E2774" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2774" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2774" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2774" t="inlineStr"/>
+      <c r="F2774" t="inlineStr"/>
+      <c r="G2774" t="inlineStr"/>
       <c r="H2774" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2775">
       <c r="A2775" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2775" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2775" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2775" t="inlineStr"/>
       <c r="E2775" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2775" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr">
         <is>
           <t>50.2</t>
@@ -89398,69 +89228,61 @@
     <row r="2776">
       <c r="A2776" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2776" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2776" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2776" t="inlineStr"/>
       <c r="E2776" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2776" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H2776" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2777">
       <c r="A2777" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2777" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2777" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2777" t="inlineStr"/>
       <c r="E2777" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2777" t="inlineStr"/>
-      <c r="G2777" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2777" t="inlineStr"/>
       <c r="H2777" t="inlineStr">
         <is>
           <t>2</t>
@@ -89470,63 +89292,63 @@
     <row r="2778">
       <c r="A2778" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2778" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2778" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2778" t="inlineStr"/>
       <c r="E2778" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2778" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2779">
       <c r="A2779" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2779" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2779" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2779" t="inlineStr"/>
       <c r="E2779" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2779" t="inlineStr">
@@ -89538,165 +89360,157 @@
     <row r="2780">
       <c r="A2780" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2780" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2780" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2780" t="inlineStr"/>
       <c r="E2780" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2780" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>C$66.43B</t>
+        </is>
+      </c>
+      <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2780" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2781">
       <c r="A2781" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2781" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2781" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2781" t="inlineStr"/>
       <c r="E2781" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2781" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2782">
       <c r="A2782" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2782" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2782" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2782" t="inlineStr"/>
       <c r="E2782" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2782" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2783">
       <c r="A2783" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2783" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2783" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2783" t="inlineStr"/>
       <c r="E2783" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>$351.6B</t>
         </is>
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$ 338B</t>
         </is>
       </c>
       <c r="H2783" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2784">
       <c r="A2784" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2784" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2784" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2784" t="inlineStr"/>
-      <c r="E2784" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
+      <c r="E2784" t="inlineStr"/>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
       <c r="H2784" t="inlineStr">
@@ -89708,27 +89522,31 @@
     <row r="2785">
       <c r="A2785" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2785" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2785" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2785" t="inlineStr"/>
       <c r="E2785" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2785" t="inlineStr"/>
-      <c r="G2785" t="inlineStr"/>
+      <c r="G2785" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
       <c r="H2785" t="inlineStr">
         <is>
           <t>3</t>
@@ -89738,27 +89556,31 @@
     <row r="2786">
       <c r="A2786" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2786" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2786" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2786" t="inlineStr"/>
       <c r="E2786" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="F2786" t="inlineStr"/>
-      <c r="G2786" t="inlineStr"/>
+      <c r="G2786" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="H2786" t="inlineStr">
         <is>
           <t>3</t>
@@ -89768,59 +89590,71 @@
     <row r="2787">
       <c r="A2787" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2787" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2787" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2787" t="inlineStr"/>
       <c r="E2787" t="inlineStr">
         <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="F2787" t="inlineStr"/>
-      <c r="G2787" t="inlineStr"/>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F2787" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="G2787" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="H2787" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2788">
       <c r="A2788" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2788" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2788" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2788" t="inlineStr"/>
       <c r="E2788" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2788" t="inlineStr"/>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2788" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="G2788" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="H2788" t="inlineStr">
@@ -89832,57 +89666,49 @@
     <row r="2789">
       <c r="A2789" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2789" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2789" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2789" t="inlineStr"/>
-      <c r="E2789" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E2789" t="inlineStr"/>
       <c r="F2789" t="inlineStr"/>
-      <c r="G2789" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2789" t="inlineStr"/>
       <c r="H2789" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2790">
       <c r="A2790" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2790" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2790" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2790" t="inlineStr"/>
       <c r="E2790" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2790" t="inlineStr"/>
@@ -89896,23 +89722,23 @@
     <row r="2791">
       <c r="A2791" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2791" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2791" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2791" t="inlineStr"/>
       <c r="E2791" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2791" t="inlineStr"/>
@@ -89926,7 +89752,7 @@
     <row r="2792">
       <c r="A2792" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2792" t="inlineStr">
@@ -89936,23 +89762,27 @@
       </c>
       <c r="C2792" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2792" t="inlineStr"/>
-      <c r="E2792" t="inlineStr"/>
+      <c r="E2792" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
       <c r="H2792" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2793">
       <c r="A2793" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2793" t="inlineStr">
@@ -89962,11 +89792,15 @@
       </c>
       <c r="C2793" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2793" t="inlineStr"/>
-      <c r="E2793" t="inlineStr"/>
+      <c r="E2793" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
       <c r="H2793" t="inlineStr">
@@ -89978,7 +89812,7 @@
     <row r="2794">
       <c r="A2794" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2794" t="inlineStr">
@@ -89988,7 +89822,7 @@
       </c>
       <c r="C2794" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2794" t="inlineStr"/>
@@ -89997,14 +89831,14 @@
       <c r="G2794" t="inlineStr"/>
       <c r="H2794" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2795">
       <c r="A2795" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2795" t="inlineStr">
@@ -90014,7 +89848,7 @@
       </c>
       <c r="C2795" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2795" t="inlineStr"/>
@@ -90023,14 +89857,14 @@
       <c r="G2795" t="inlineStr"/>
       <c r="H2795" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2796">
       <c r="A2796" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2796" t="inlineStr">
@@ -90040,7 +89874,7 @@
       </c>
       <c r="C2796" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2796" t="inlineStr"/>
@@ -90056,65 +89890,49 @@
     <row r="2797">
       <c r="A2797" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2797" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2797" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2797" t="inlineStr"/>
-      <c r="E2797" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2797" t="inlineStr"/>
       <c r="F2797" t="inlineStr"/>
-      <c r="G2797" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2797" t="inlineStr"/>
       <c r="H2797" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2798">
       <c r="A2798" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2798" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2798" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2798" t="inlineStr"/>
-      <c r="E2798" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+      <c r="E2798" t="inlineStr"/>
       <c r="F2798" t="inlineStr"/>
-      <c r="G2798" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G2798" t="inlineStr"/>
       <c r="H2798" t="inlineStr">
         <is>
           <t>3</t>
@@ -90124,7 +89942,7 @@
     <row r="2799">
       <c r="A2799" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2799" t="inlineStr">
@@ -90134,85 +89952,65 @@
       </c>
       <c r="C2799" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2799" t="inlineStr"/>
-      <c r="E2799" t="inlineStr">
-        <is>
-          <t>122K</t>
-        </is>
-      </c>
+      <c r="E2799" t="inlineStr"/>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
       <c r="H2799" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2800">
       <c r="A2800" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2800" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2800" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2800" t="inlineStr"/>
-      <c r="E2800" t="inlineStr">
-        <is>
-          <t>C$-0.32B</t>
-        </is>
-      </c>
+      <c r="E2800" t="inlineStr"/>
       <c r="F2800" t="inlineStr"/>
-      <c r="G2800" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2800" t="inlineStr"/>
       <c r="H2800" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2801">
       <c r="A2801" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2801" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2801" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2801" t="inlineStr"/>
-      <c r="E2801" t="inlineStr">
-        <is>
-          <t>C$66.11B</t>
-        </is>
-      </c>
+      <c r="E2801" t="inlineStr"/>
       <c r="F2801" t="inlineStr"/>
-      <c r="G2801" t="inlineStr">
-        <is>
-          <t>C$ 65.8B</t>
-        </is>
-      </c>
+      <c r="G2801" t="inlineStr"/>
       <c r="H2801" t="inlineStr">
         <is>
           <t>3</t>
@@ -90222,31 +90020,23 @@
     <row r="2802">
       <c r="A2802" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2802" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2802" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2802" t="inlineStr"/>
-      <c r="E2802" t="inlineStr">
-        <is>
-          <t>C$66.43B</t>
-        </is>
-      </c>
+      <c r="E2802" t="inlineStr"/>
       <c r="F2802" t="inlineStr"/>
-      <c r="G2802" t="inlineStr">
-        <is>
-          <t>C$ 64.5B</t>
-        </is>
-      </c>
+      <c r="G2802" t="inlineStr"/>
       <c r="H2802" t="inlineStr">
         <is>
           <t>3</t>
@@ -90256,29 +90046,25 @@
     <row r="2803">
       <c r="A2803" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2803" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2803" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2803" t="inlineStr"/>
-      <c r="E2803" t="inlineStr">
-        <is>
-          <t>$-78.2B</t>
-        </is>
-      </c>
+      <c r="E2803" t="inlineStr"/>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="H2803" t="inlineStr">
@@ -90290,91 +90076,83 @@
     <row r="2804">
       <c r="A2804" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2804" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2804" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2804" t="inlineStr"/>
-      <c r="E2804" t="inlineStr">
-        <is>
-          <t>$273.4B</t>
-        </is>
-      </c>
+      <c r="E2804" t="inlineStr"/>
       <c r="F2804" t="inlineStr"/>
-      <c r="G2804" t="inlineStr">
-        <is>
-          <t>$ 275.0B</t>
-        </is>
-      </c>
+      <c r="G2804" t="inlineStr"/>
       <c r="H2804" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2805">
       <c r="A2805" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2805" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2805" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2805" t="inlineStr"/>
-      <c r="E2805" t="inlineStr">
-        <is>
-          <t>$351.6B</t>
-        </is>
-      </c>
+      <c r="E2805" t="inlineStr"/>
       <c r="F2805" t="inlineStr"/>
-      <c r="G2805" t="inlineStr">
-        <is>
-          <t>$ 338B</t>
-        </is>
-      </c>
+      <c r="G2805" t="inlineStr"/>
       <c r="H2805" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2806">
       <c r="A2806" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2806" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2806" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2806" t="inlineStr"/>
-      <c r="E2806" t="inlineStr"/>
+      <c r="E2806" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2806" t="inlineStr"/>
-      <c r="G2806" t="inlineStr"/>
+      <c r="G2806" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2806" t="inlineStr">
         <is>
           <t>3</t>
@@ -90384,31 +90162,23 @@
     <row r="2807">
       <c r="A2807" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2807" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2807" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2807" t="inlineStr"/>
-      <c r="E2807" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2807" t="inlineStr"/>
       <c r="F2807" t="inlineStr"/>
-      <c r="G2807" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2807" t="inlineStr"/>
       <c r="H2807" t="inlineStr">
         <is>
           <t>3</t>
@@ -90418,29 +90188,25 @@
     <row r="2808">
       <c r="A2808" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2808" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2808" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2808" t="inlineStr"/>
-      <c r="E2808" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2808" t="inlineStr"/>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2808" t="inlineStr">
@@ -90452,7 +90218,7 @@
     <row r="2809">
       <c r="A2809" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2809" t="inlineStr">
@@ -90462,73 +90228,49 @@
       </c>
       <c r="C2809" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2809" t="inlineStr"/>
-      <c r="E2809" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2809" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
-      <c r="G2809" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+      <c r="E2809" t="inlineStr"/>
+      <c r="F2809" t="inlineStr"/>
+      <c r="G2809" t="inlineStr"/>
       <c r="H2809" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2810">
       <c r="A2810" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2810" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2810" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2810" t="inlineStr"/>
-      <c r="E2810" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F2810" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="G2810" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
+      <c r="E2810" t="inlineStr"/>
+      <c r="F2810" t="inlineStr"/>
+      <c r="G2810" t="inlineStr"/>
       <c r="H2810" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2811">
       <c r="A2811" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2811" t="inlineStr">
@@ -90538,7 +90280,7 @@
       </c>
       <c r="C2811" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2811" t="inlineStr"/>
@@ -90547,16 +90289,12 @@
       <c r="G2811" t="inlineStr"/>
       <c r="H2811" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2812">
-      <c r="A2812" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2812" t="inlineStr"/>
       <c r="B2812" t="inlineStr">
         <is>
           <t>US</t>
@@ -90564,618 +90302,18 @@
       </c>
       <c r="C2812" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>Total Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2812" t="inlineStr"/>
       <c r="E2812" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>16.8M</t>
         </is>
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
       <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2813">
-      <c r="A2813" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2813" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2813" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentJAN</t>
-        </is>
-      </c>
-      <c r="D2813" t="inlineStr"/>
-      <c r="E2813" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F2813" t="inlineStr"/>
-      <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2814">
-      <c r="A2814" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2814" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2814" t="inlineStr">
-        <is>
-          <t>ISM Services New OrdersJAN</t>
-        </is>
-      </c>
-      <c r="D2814" t="inlineStr"/>
-      <c r="E2814" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="F2814" t="inlineStr"/>
-      <c r="G2814" t="inlineStr"/>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2815">
-      <c r="A2815" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2815" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2815" t="inlineStr">
-        <is>
-          <t>ISM Services PricesJAN</t>
-        </is>
-      </c>
-      <c r="D2815" t="inlineStr"/>
-      <c r="E2815" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="F2815" t="inlineStr"/>
-      <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2816">
-      <c r="A2816" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2816" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2816" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2816" t="inlineStr"/>
-      <c r="E2816" t="inlineStr"/>
-      <c r="F2816" t="inlineStr"/>
-      <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2817">
-      <c r="A2817" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2817" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2817" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2817" t="inlineStr"/>
-      <c r="E2817" t="inlineStr"/>
-      <c r="F2817" t="inlineStr"/>
-      <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2818">
-      <c r="A2818" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2818" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2818" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2818" t="inlineStr"/>
-      <c r="E2818" t="inlineStr"/>
-      <c r="F2818" t="inlineStr"/>
-      <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2819">
-      <c r="A2819" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2819" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2819" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2819" t="inlineStr"/>
-      <c r="E2819" t="inlineStr"/>
-      <c r="F2819" t="inlineStr"/>
-      <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2820">
-      <c r="A2820" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2820" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2820" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2820" t="inlineStr"/>
-      <c r="E2820" t="inlineStr"/>
-      <c r="F2820" t="inlineStr"/>
-      <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2821">
-      <c r="A2821" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2821" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2821" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2821" t="inlineStr"/>
-      <c r="E2821" t="inlineStr"/>
-      <c r="F2821" t="inlineStr"/>
-      <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2822">
-      <c r="A2822" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2822" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2822" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2822" t="inlineStr"/>
-      <c r="E2822" t="inlineStr"/>
-      <c r="F2822" t="inlineStr"/>
-      <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2823">
-      <c r="A2823" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2823" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2823" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2823" t="inlineStr"/>
-      <c r="E2823" t="inlineStr"/>
-      <c r="F2823" t="inlineStr"/>
-      <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2824">
-      <c r="A2824" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2824" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2824" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2824" t="inlineStr"/>
-      <c r="E2824" t="inlineStr"/>
-      <c r="F2824" t="inlineStr"/>
-      <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2825">
-      <c r="A2825" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2825" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2825" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D2825" t="inlineStr"/>
-      <c r="E2825" t="inlineStr"/>
-      <c r="F2825" t="inlineStr"/>
-      <c r="G2825" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2826">
-      <c r="A2826" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2826" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2826" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2826" t="inlineStr"/>
-      <c r="E2826" t="inlineStr"/>
-      <c r="F2826" t="inlineStr"/>
-      <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2827">
-      <c r="A2827" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2827" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2827" t="inlineStr">
-        <is>
-          <t>Corporate ProfitsNOV</t>
-        </is>
-      </c>
-      <c r="D2827" t="inlineStr"/>
-      <c r="E2827" t="inlineStr"/>
-      <c r="F2827" t="inlineStr"/>
-      <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2828">
-      <c r="A2828" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2828" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2828" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2828" t="inlineStr"/>
-      <c r="E2828" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F2828" t="inlineStr"/>
-      <c r="G2828" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2829">
-      <c r="A2829" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2829" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2829" t="inlineStr">
-        <is>
-          <t>Real Wage Growth YoYNOV</t>
-        </is>
-      </c>
-      <c r="D2829" t="inlineStr"/>
-      <c r="E2829" t="inlineStr"/>
-      <c r="F2829" t="inlineStr"/>
-      <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2830">
-      <c r="A2830" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2830" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2830" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2830" t="inlineStr"/>
-      <c r="E2830" t="inlineStr"/>
-      <c r="F2830" t="inlineStr"/>
-      <c r="G2830" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2831">
-      <c r="A2831" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2831" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2831" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2831" t="inlineStr"/>
-      <c r="E2831" t="inlineStr"/>
-      <c r="F2831" t="inlineStr"/>
-      <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2832">
-      <c r="A2832" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2832" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2832" t="inlineStr">
-        <is>
-          <t>2-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D2832" t="inlineStr"/>
-      <c r="E2832" t="inlineStr"/>
-      <c r="F2832" t="inlineStr"/>
-      <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2833">
-      <c r="A2833" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2833" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2833" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
-      <c r="D2833" t="inlineStr"/>
-      <c r="E2833" t="inlineStr"/>
-      <c r="F2833" t="inlineStr"/>
-      <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2834">
-      <c r="A2834" t="inlineStr"/>
-      <c r="B2834" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2834" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2834" t="inlineStr"/>
-      <c r="E2834" t="inlineStr">
-        <is>
-          <t>16.8M</t>
-        </is>
-      </c>
-      <c r="F2834" t="inlineStr"/>
-      <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
         <is>
           <t>2</t>
         </is>
